--- a/database/industries/felezat/kimia/product/monthly.xlsx
+++ b/database/industries/felezat/kimia/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E4F81-E429-4317-B595-BD96227B7796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -261,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,7 +449,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -460,7 +461,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -507,6 +508,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -542,6 +560,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,17 +728,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -758,7 +793,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,7 +850,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -872,7 +907,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -927,7 +962,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -984,7 +1019,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1041,7 +1076,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1096,7 +1131,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1253,7 +1288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1308,7 +1343,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1400,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1524,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1683,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1842,7 +1877,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -2001,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2160,7 +2195,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2319,7 +2354,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>63</v>
       </c>
@@ -2376,7 +2411,7 @@
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>62</v>
       </c>
@@ -2535,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>64</v>
       </c>
@@ -2692,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>65</v>
       </c>
@@ -2849,7 +2884,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2904,7 +2939,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2959,7 +2994,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3014,7 +3049,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>66</v>
       </c>
@@ -3171,7 +3206,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3226,7 +3261,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>66</v>
       </c>
@@ -3283,7 +3318,7 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>55</v>
       </c>
@@ -3442,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>58</v>
       </c>
@@ -3601,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>59</v>
       </c>
@@ -3760,7 +3795,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>60</v>
       </c>
@@ -3919,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>61</v>
       </c>
@@ -4078,7 +4113,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>62</v>
       </c>
@@ -4237,7 +4272,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>63</v>
       </c>
@@ -4294,7 +4329,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>62</v>
       </c>
@@ -4453,7 +4488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>64</v>
       </c>
@@ -4610,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>67</v>
       </c>
@@ -4667,7 +4702,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>61</v>
       </c>
@@ -4826,7 +4861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>68</v>
       </c>
@@ -4983,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>65</v>
       </c>
@@ -5140,7 +5175,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5195,7 +5230,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5250,7 +5285,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5305,7 +5340,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>69</v>
       </c>
@@ -5462,7 +5497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5517,7 +5552,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>69</v>
       </c>
@@ -5574,7 +5609,7 @@
       <c r="BA45" s="9"/>
       <c r="BB45" s="9"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>55</v>
       </c>
@@ -5733,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>58</v>
       </c>
@@ -5892,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>59</v>
       </c>
@@ -6051,7 +6086,7 @@
         <v>214500</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>60</v>
       </c>
@@ -6210,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>61</v>
       </c>
@@ -6369,7 +6404,7 @@
         <v>106213</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>62</v>
       </c>
@@ -6528,7 +6563,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>71</v>
       </c>
@@ -6585,7 +6620,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>62</v>
       </c>
@@ -6744,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>64</v>
       </c>
@@ -6903,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>72</v>
       </c>
@@ -6960,7 +6995,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>61</v>
       </c>
@@ -7119,7 +7154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>68</v>
       </c>
@@ -7278,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>73</v>
       </c>
@@ -7335,7 +7370,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>74</v>
       </c>
@@ -7494,7 +7529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>65</v>
       </c>
@@ -7651,7 +7686,7 @@
         <v>320713</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -7706,7 +7741,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7761,7 +7796,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -7816,7 +7851,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>75</v>
       </c>
@@ -7973,7 +8008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -8028,7 +8063,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>76</v>
       </c>
@@ -8085,7 +8120,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>55</v>
       </c>
@@ -8244,7 +8279,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>58</v>
       </c>
@@ -8403,7 +8438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>59</v>
       </c>
@@ -8562,7 +8597,7 @@
         <v>165000000</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>60</v>
       </c>
@@ -8721,7 +8756,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>61</v>
       </c>
@@ -8880,7 +8915,7 @@
         <v>64922372</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>62</v>
       </c>
@@ -9039,7 +9074,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>78</v>
       </c>
@@ -9096,7 +9131,7 @@
       <c r="BA73" s="9"/>
       <c r="BB73" s="9"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>62</v>
       </c>

--- a/database/industries/felezat/kimia/product/monthly.xlsx
+++ b/database/industries/felezat/kimia/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E4F81-E429-4317-B595-BD96227B7796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A91F19-756D-4B99-B81D-ED9256FBEEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیا-معدنی کیمیای زنجان گستران</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>شمش روی</t>
@@ -1417,11 +1417,11 @@
       <c r="G11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>57</v>
+      <c r="H11" s="11">
+        <v>819</v>
       </c>
       <c r="I11" s="11">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="J11" s="11">
         <v>0</v>
@@ -1433,16 +1433,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="N11" s="11">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="O11" s="11">
-        <v>272</v>
+        <v>6</v>
       </c>
       <c r="P11" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="11">
         <v>0</v>
@@ -1508,37 +1508,37 @@
         <v>0</v>
       </c>
       <c r="AL11" s="11">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AM11" s="11">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="AN11" s="11">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="AO11" s="11">
-        <v>122</v>
+        <v>538</v>
       </c>
       <c r="AP11" s="11">
-        <v>538</v>
+        <v>689</v>
       </c>
       <c r="AQ11" s="11">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="11">
-        <v>0</v>
+        <v>-111</v>
       </c>
       <c r="AS11" s="11">
-        <v>-111</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="11">
         <v>0</v>
       </c>
       <c r="AU11" s="11">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AV11" s="11">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="11">
         <v>0</v>
@@ -1547,16 +1547,16 @@
         <v>0</v>
       </c>
       <c r="AY11" s="11">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AZ11" s="11">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="11">
         <v>0</v>
       </c>
       <c r="BB11" s="11">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1574,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H12" s="13">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
@@ -1589,16 +1589,16 @@
         <v>0</v>
       </c>
       <c r="L12" s="13">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="M12" s="13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="N12" s="13">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="O12" s="13">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="P12" s="13">
         <v>0</v>
@@ -1616,49 +1616,49 @@
         <v>0</v>
       </c>
       <c r="U12" s="13">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="V12" s="13">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="W12" s="13">
         <v>0</v>
       </c>
       <c r="X12" s="13">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="Y12" s="13">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA12" s="13">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="AB12" s="13">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AC12" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="13">
         <v>0</v>
       </c>
       <c r="AE12" s="13">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AF12" s="13">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="13">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="AH12" s="13">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="AI12" s="13">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="13">
         <v>0</v>
@@ -1670,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="AM12" s="13">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="AN12" s="13">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AO12" s="13">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="AP12" s="13">
         <v>22</v>
       </c>
       <c r="AQ12" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="13">
         <v>0</v>
@@ -1694,28 +1694,28 @@
         <v>0</v>
       </c>
       <c r="AU12" s="13">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AV12" s="13">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AW12" s="13">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="13">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AY12" s="13">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BA12" s="13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1733,34 +1733,34 @@
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>1227</v>
       </c>
       <c r="H13" s="11">
-        <v>1227</v>
+        <v>2277</v>
       </c>
       <c r="I13" s="11">
-        <v>2277</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="L13" s="11">
-        <v>314</v>
+        <v>482</v>
       </c>
       <c r="M13" s="11">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="N13" s="11">
-        <v>0</v>
+        <v>3238</v>
       </c>
       <c r="O13" s="11">
-        <v>3238</v>
+        <v>1000</v>
       </c>
       <c r="P13" s="11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="11">
         <v>0</v>
@@ -1793,31 +1793,31 @@
         <v>0</v>
       </c>
       <c r="AA13" s="11">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="AB13" s="11">
-        <v>626</v>
+        <v>2091</v>
       </c>
       <c r="AC13" s="11">
         <v>2091</v>
       </c>
       <c r="AD13" s="11">
-        <v>2091</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="11">
-        <v>0</v>
+        <v>1858</v>
       </c>
       <c r="AF13" s="11">
-        <v>1858</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="11">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="AH13" s="11">
-        <v>483</v>
+        <v>558</v>
       </c>
       <c r="AI13" s="11">
-        <v>558</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="11">
         <v>0</v>
@@ -1829,52 +1829,52 @@
         <v>0</v>
       </c>
       <c r="AM13" s="11">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="AN13" s="11">
-        <v>940</v>
+        <v>580</v>
       </c>
       <c r="AO13" s="11">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="AP13" s="11">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AQ13" s="11">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="AR13" s="11">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="AS13" s="11">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AT13" s="11">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="AU13" s="11">
-        <v>213</v>
+        <v>1121</v>
       </c>
       <c r="AV13" s="11">
-        <v>1121</v>
+        <v>446</v>
       </c>
       <c r="AW13" s="11">
-        <v>446</v>
+        <v>271</v>
       </c>
       <c r="AX13" s="11">
-        <v>271</v>
+        <v>1229</v>
       </c>
       <c r="AY13" s="11">
-        <v>1229</v>
+        <v>1288</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1288</v>
+        <v>873</v>
       </c>
       <c r="BA13" s="11">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="BB13" s="11">
-        <v>866</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1886,154 +1886,154 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="F14" s="13">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="G14" s="13">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="H14" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I14" s="13">
         <v>0</v>
       </c>
       <c r="J14" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K14" s="13">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="L14" s="13">
-        <v>152</v>
+        <v>441</v>
       </c>
       <c r="M14" s="13">
-        <v>441</v>
+        <v>236</v>
       </c>
       <c r="N14" s="13">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="O14" s="13">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="P14" s="13">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="13">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="R14" s="13">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="S14" s="13">
-        <v>64</v>
+        <v>316</v>
       </c>
       <c r="T14" s="13">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="U14" s="13">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="V14" s="13">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="W14" s="13">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="X14" s="13">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="Y14" s="13">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="Z14" s="13">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="AA14" s="13">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="13">
         <v>0</v>
       </c>
       <c r="AC14" s="13">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="AD14" s="13">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="AE14" s="13">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="AF14" s="13">
+        <v>460</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>218</v>
+      </c>
+      <c r="AH14" s="13">
         <v>14</v>
       </c>
-      <c r="AG14" s="13">
-        <v>460</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>218</v>
-      </c>
       <c r="AI14" s="13">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="AJ14" s="13">
+        <v>155</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>187</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>174</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>276</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>145</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>470</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>366</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>108</v>
+      </c>
+      <c r="AU14" s="13">
         <v>109</v>
       </c>
-      <c r="AK14" s="13">
-        <v>155</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>187</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>174</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>276</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>145</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>470</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>366</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>108</v>
-      </c>
       <c r="AV14" s="13">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="AW14" s="13">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="AX14" s="13">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="AY14" s="13">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="AZ14" s="13">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="BA14" s="13">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="13">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2045,154 +2045,154 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>2350</v>
+        <v>5729</v>
       </c>
       <c r="F15" s="11">
-        <v>5729</v>
+        <v>2357</v>
       </c>
       <c r="G15" s="11">
-        <v>2357</v>
+        <v>2293</v>
       </c>
       <c r="H15" s="11">
-        <v>2293</v>
+        <v>3029</v>
       </c>
       <c r="I15" s="11">
-        <v>3029</v>
+        <v>0</v>
       </c>
       <c r="J15" s="11">
         <v>0</v>
       </c>
       <c r="K15" s="11">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="L15" s="11">
-        <v>2044</v>
+        <v>4385</v>
       </c>
       <c r="M15" s="11">
-        <v>4385</v>
+        <v>6788</v>
       </c>
       <c r="N15" s="11">
-        <v>6788</v>
+        <v>251</v>
       </c>
       <c r="O15" s="11">
-        <v>251</v>
+        <v>613</v>
       </c>
       <c r="P15" s="11">
-        <v>613</v>
+        <v>2788</v>
       </c>
       <c r="Q15" s="11">
-        <v>2788</v>
+        <v>1209</v>
       </c>
       <c r="R15" s="11">
-        <v>1209</v>
+        <v>1446</v>
       </c>
       <c r="S15" s="11">
-        <v>1446</v>
+        <v>5718</v>
       </c>
       <c r="T15" s="11">
-        <v>5718</v>
+        <v>2340</v>
       </c>
       <c r="U15" s="11">
-        <v>2340</v>
+        <v>3391</v>
       </c>
       <c r="V15" s="11">
-        <v>3391</v>
+        <v>1910</v>
       </c>
       <c r="W15" s="11">
-        <v>1910</v>
+        <v>5466</v>
       </c>
       <c r="X15" s="11">
-        <v>5466</v>
+        <v>1670</v>
       </c>
       <c r="Y15" s="11">
-        <v>1670</v>
+        <v>3654</v>
       </c>
       <c r="Z15" s="11">
-        <v>3654</v>
+        <v>1150</v>
       </c>
       <c r="AA15" s="11">
-        <v>1150</v>
+        <v>571</v>
       </c>
       <c r="AB15" s="11">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="11">
-        <v>0</v>
+        <v>3382</v>
       </c>
       <c r="AD15" s="11">
-        <v>3382</v>
+        <v>2732</v>
       </c>
       <c r="AE15" s="11">
-        <v>2732</v>
+        <v>5532</v>
       </c>
       <c r="AF15" s="11">
-        <v>5532</v>
+        <v>9254</v>
       </c>
       <c r="AG15" s="11">
-        <v>9254</v>
+        <v>9021</v>
       </c>
       <c r="AH15" s="11">
-        <v>9021</v>
+        <v>3122</v>
       </c>
       <c r="AI15" s="11">
-        <v>3122</v>
+        <v>3127</v>
       </c>
       <c r="AJ15" s="11">
-        <v>3127</v>
+        <v>3596</v>
       </c>
       <c r="AK15" s="11">
-        <v>3596</v>
+        <v>4363</v>
       </c>
       <c r="AL15" s="11">
-        <v>4363</v>
+        <v>4027</v>
       </c>
       <c r="AM15" s="11">
-        <v>4027</v>
+        <v>9373</v>
       </c>
       <c r="AN15" s="11">
-        <v>9373</v>
+        <v>3271</v>
       </c>
       <c r="AO15" s="11">
-        <v>3271</v>
+        <v>646</v>
       </c>
       <c r="AP15" s="11">
-        <v>646</v>
+        <v>758</v>
       </c>
       <c r="AQ15" s="11">
-        <v>758</v>
+        <v>1866</v>
       </c>
       <c r="AR15" s="11">
-        <v>1866</v>
+        <v>6463</v>
       </c>
       <c r="AS15" s="11">
-        <v>6463</v>
+        <v>4602</v>
       </c>
       <c r="AT15" s="11">
-        <v>4602</v>
+        <v>3982</v>
       </c>
       <c r="AU15" s="11">
-        <v>3982</v>
+        <v>2418</v>
       </c>
       <c r="AV15" s="11">
-        <v>2418</v>
+        <v>3872</v>
       </c>
       <c r="AW15" s="11">
-        <v>3872</v>
+        <v>1784</v>
       </c>
       <c r="AX15" s="11">
-        <v>1784</v>
+        <v>1147</v>
       </c>
       <c r="AY15" s="11">
-        <v>1147</v>
+        <v>7063</v>
       </c>
       <c r="AZ15" s="11">
-        <v>7063</v>
+        <v>954</v>
       </c>
       <c r="BA15" s="11">
-        <v>954</v>
+        <v>1676</v>
       </c>
       <c r="BB15" s="11">
-        <v>1676</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2204,28 +2204,28 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>4078</v>
+        <v>1335</v>
       </c>
       <c r="F16" s="13">
-        <v>1335</v>
+        <v>2676</v>
       </c>
       <c r="G16" s="13">
-        <v>2676</v>
+        <v>690</v>
       </c>
       <c r="H16" s="13">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="I16" s="13">
-        <v>0</v>
+        <v>28366</v>
       </c>
       <c r="J16" s="13">
-        <v>28366</v>
+        <v>752</v>
       </c>
       <c r="K16" s="13">
-        <v>752</v>
+        <v>545</v>
       </c>
       <c r="L16" s="13">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="M16" s="13">
         <v>0</v>
@@ -2234,28 +2234,28 @@
         <v>0</v>
       </c>
       <c r="O16" s="13">
-        <v>0</v>
+        <v>13267</v>
       </c>
       <c r="P16" s="13">
-        <v>13267</v>
+        <v>7875</v>
       </c>
       <c r="Q16" s="13">
-        <v>7875</v>
+        <v>0</v>
       </c>
       <c r="R16" s="13">
         <v>0</v>
       </c>
       <c r="S16" s="13">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="T16" s="13">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="U16" s="13">
-        <v>0</v>
+        <v>9652</v>
       </c>
       <c r="V16" s="13">
-        <v>9652</v>
+        <v>0</v>
       </c>
       <c r="W16" s="13">
         <v>0</v>
@@ -2263,8 +2263,8 @@
       <c r="X16" s="13">
         <v>0</v>
       </c>
-      <c r="Y16" s="13">
-        <v>0</v>
+      <c r="Y16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z16" s="13" t="s">
         <v>57</v>
@@ -2479,20 +2479,20 @@
       <c r="X18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y18" s="11" t="s">
-        <v>57</v>
+      <c r="Y18" s="11">
+        <v>0</v>
       </c>
       <c r="Z18" s="11">
         <v>0</v>
       </c>
       <c r="AA18" s="11">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="AB18" s="11">
-        <v>34633</v>
+        <v>12188</v>
       </c>
       <c r="AC18" s="11">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="11">
         <v>0</v>
@@ -2501,73 +2501,73 @@
         <v>0</v>
       </c>
       <c r="AF18" s="11">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AG18" s="11">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="AH18" s="11">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="11">
         <v>10368</v>
       </c>
-      <c r="AK18" s="11" t="s">
-        <v>57</v>
+      <c r="AJ18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK18" s="11">
+        <v>0</v>
       </c>
       <c r="AL18" s="11">
-        <v>0</v>
+        <v>24260</v>
       </c>
       <c r="AM18" s="11">
-        <v>24260</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="11">
-        <v>0</v>
+        <v>12495</v>
       </c>
       <c r="AO18" s="11">
-        <v>12495</v>
-      </c>
-      <c r="AP18" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR18" s="11" t="s">
-        <v>57</v>
+      <c r="AR18" s="11">
+        <v>0</v>
       </c>
       <c r="AS18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="11">
         <v>13055</v>
       </c>
+      <c r="AT18" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AU18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW18" s="11">
+      <c r="AV18" s="11">
         <v>20026</v>
       </c>
-      <c r="AX18" s="11" t="s">
-        <v>57</v>
+      <c r="AW18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX18" s="11">
+        <v>5008</v>
       </c>
       <c r="AY18" s="11">
-        <v>5008</v>
+        <v>5995</v>
       </c>
       <c r="AZ18" s="11">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="11">
         <v>0</v>
       </c>
       <c r="BB18" s="11">
-        <v>0</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2636,8 +2636,8 @@
       <c r="X19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y19" s="15" t="s">
-        <v>57</v>
+      <c r="Y19" s="15">
+        <v>0</v>
       </c>
       <c r="Z19" s="15">
         <v>0</v>
@@ -2734,154 +2734,154 @@
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17">
-        <v>6428</v>
+        <v>7358</v>
       </c>
       <c r="F20" s="17">
-        <v>7358</v>
+        <v>5250</v>
       </c>
       <c r="G20" s="17">
-        <v>5250</v>
+        <v>4256</v>
       </c>
       <c r="H20" s="17">
-        <v>4256</v>
+        <v>6125</v>
       </c>
       <c r="I20" s="17">
-        <v>6125</v>
+        <v>28366</v>
       </c>
       <c r="J20" s="17">
-        <v>28366</v>
+        <v>762</v>
       </c>
       <c r="K20" s="17">
-        <v>762</v>
+        <v>3055</v>
       </c>
       <c r="L20" s="17">
-        <v>3055</v>
+        <v>5361</v>
       </c>
       <c r="M20" s="17">
-        <v>5361</v>
+        <v>7342</v>
       </c>
       <c r="N20" s="17">
-        <v>7342</v>
+        <v>3933</v>
       </c>
       <c r="O20" s="17">
-        <v>3933</v>
+        <v>14886</v>
       </c>
       <c r="P20" s="17">
-        <v>14886</v>
+        <v>10812</v>
       </c>
       <c r="Q20" s="17">
-        <v>10812</v>
+        <v>1238</v>
       </c>
       <c r="R20" s="17">
-        <v>1238</v>
+        <v>1510</v>
       </c>
       <c r="S20" s="17">
-        <v>1510</v>
+        <v>7355</v>
       </c>
       <c r="T20" s="17">
-        <v>7355</v>
+        <v>2548</v>
       </c>
       <c r="U20" s="17">
-        <v>2548</v>
+        <v>13277</v>
       </c>
       <c r="V20" s="17">
-        <v>13277</v>
+        <v>2213</v>
       </c>
       <c r="W20" s="17">
-        <v>2213</v>
+        <v>5668</v>
       </c>
       <c r="X20" s="17">
-        <v>5668</v>
+        <v>2070</v>
       </c>
       <c r="Y20" s="17">
-        <v>2070</v>
+        <v>3739</v>
       </c>
       <c r="Z20" s="17">
-        <v>3739</v>
+        <v>1402</v>
       </c>
       <c r="AA20" s="17">
-        <v>1402</v>
+        <v>35836</v>
       </c>
       <c r="AB20" s="17">
-        <v>35836</v>
+        <v>14296</v>
       </c>
       <c r="AC20" s="17">
-        <v>14296</v>
+        <v>5697</v>
       </c>
       <c r="AD20" s="17">
-        <v>5697</v>
+        <v>2924</v>
       </c>
       <c r="AE20" s="17">
-        <v>2924</v>
+        <v>7473</v>
       </c>
       <c r="AF20" s="17">
-        <v>7473</v>
+        <v>10203</v>
       </c>
       <c r="AG20" s="17">
-        <v>10203</v>
+        <v>10196</v>
       </c>
       <c r="AH20" s="17">
-        <v>10196</v>
+        <v>3801</v>
       </c>
       <c r="AI20" s="17">
-        <v>3801</v>
+        <v>13604</v>
       </c>
       <c r="AJ20" s="17">
-        <v>13604</v>
+        <v>3751</v>
       </c>
       <c r="AK20" s="17">
-        <v>3751</v>
+        <v>4550</v>
       </c>
       <c r="AL20" s="17">
-        <v>4550</v>
+        <v>28671</v>
       </c>
       <c r="AM20" s="17">
-        <v>28671</v>
+        <v>11081</v>
       </c>
       <c r="AN20" s="17">
-        <v>11081</v>
+        <v>16546</v>
       </c>
       <c r="AO20" s="17">
-        <v>16546</v>
+        <v>1309</v>
       </c>
       <c r="AP20" s="17">
-        <v>1309</v>
+        <v>1689</v>
       </c>
       <c r="AQ20" s="17">
-        <v>1689</v>
+        <v>2700</v>
       </c>
       <c r="AR20" s="17">
-        <v>2700</v>
+        <v>6802</v>
       </c>
       <c r="AS20" s="17">
-        <v>6802</v>
+        <v>17757</v>
       </c>
       <c r="AT20" s="17">
-        <v>17757</v>
+        <v>4303</v>
       </c>
       <c r="AU20" s="17">
-        <v>4303</v>
+        <v>3879</v>
       </c>
       <c r="AV20" s="17">
-        <v>3879</v>
+        <v>24753</v>
       </c>
       <c r="AW20" s="17">
-        <v>24753</v>
+        <v>2244</v>
       </c>
       <c r="AX20" s="17">
-        <v>2244</v>
+        <v>7586</v>
       </c>
       <c r="AY20" s="17">
-        <v>7586</v>
+        <v>15223</v>
       </c>
       <c r="AZ20" s="17">
-        <v>15223</v>
+        <v>1975</v>
       </c>
       <c r="BA20" s="17">
-        <v>1975</v>
+        <v>2542</v>
       </c>
       <c r="BB20" s="17">
-        <v>2542</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3335,32 +3335,32 @@
       <c r="G27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>57</v>
+      <c r="H27" s="11">
+        <v>0</v>
       </c>
       <c r="I27" s="11">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="J27" s="11">
-        <v>811</v>
+        <v>8</v>
       </c>
       <c r="K27" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L27" s="11">
         <v>0</v>
       </c>
       <c r="M27" s="11">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N27" s="11">
         <v>150</v>
       </c>
       <c r="O27" s="11">
-        <v>150</v>
+        <v>296</v>
       </c>
       <c r="P27" s="11">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="11">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="AA27" s="11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB27" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="11">
         <v>0</v>
@@ -3426,37 +3426,37 @@
         <v>0</v>
       </c>
       <c r="AL27" s="11">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AM27" s="11">
-        <v>49</v>
+        <v>429</v>
       </c>
       <c r="AN27" s="11">
-        <v>429</v>
+        <v>122</v>
       </c>
       <c r="AO27" s="11">
-        <v>122</v>
+        <v>416</v>
       </c>
       <c r="AP27" s="11">
-        <v>416</v>
+        <v>271</v>
       </c>
       <c r="AQ27" s="11">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AS27" s="11">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="AT27" s="11">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="11">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AV27" s="11">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="11">
         <v>0</v>
@@ -3465,16 +3465,16 @@
         <v>0</v>
       </c>
       <c r="AY27" s="11">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AZ27" s="11">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="11">
         <v>0</v>
       </c>
       <c r="BB27" s="11">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3528,31 +3528,31 @@
         <v>0</v>
       </c>
       <c r="S28" s="13">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="T28" s="13">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="U28" s="13">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="V28" s="13">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="W28" s="13">
         <v>0</v>
       </c>
       <c r="X28" s="13">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="Y28" s="13">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA28" s="13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="13">
         <v>0</v>
@@ -3570,10 +3570,10 @@
         <v>0</v>
       </c>
       <c r="AG28" s="13">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AH28" s="13">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="13">
         <v>0</v>
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="AM28" s="13">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN28" s="13">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="13">
         <v>0</v>
@@ -3600,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="13">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AR28" s="13">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AS28" s="13">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="13">
         <v>0</v>
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="AY28" s="13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AZ28" s="13">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="BA28" s="13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="13">
         <v>0</v>
@@ -3726,46 +3726,46 @@
         <v>0</v>
       </c>
       <c r="AF29" s="11">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AG29" s="11">
-        <v>600</v>
+        <v>5470</v>
       </c>
       <c r="AH29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="11">
+        <v>184</v>
+      </c>
+      <c r="AN29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="11">
         <v>5470</v>
       </c>
-      <c r="AI29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="11">
-        <v>184</v>
-      </c>
-      <c r="AO29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR29" s="11">
-        <v>0</v>
-      </c>
       <c r="AS29" s="11">
-        <v>5470</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="11">
         <v>0</v>
@@ -3783,16 +3783,16 @@
         <v>0</v>
       </c>
       <c r="AY29" s="11">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="AZ29" s="11">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="BA29" s="11">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="BB29" s="11">
-        <v>1300</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3807,22 +3807,22 @@
         <v>0</v>
       </c>
       <c r="F30" s="13">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G30" s="13">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="H30" s="13">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="I30" s="13">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="J30" s="13">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="K30" s="13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L30" s="13">
         <v>0</v>
@@ -3846,34 +3846,34 @@
         <v>0</v>
       </c>
       <c r="S30" s="13">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="T30" s="13">
-        <v>466</v>
+        <v>651</v>
       </c>
       <c r="U30" s="13">
-        <v>651</v>
+        <v>298</v>
       </c>
       <c r="V30" s="13">
-        <v>298</v>
+        <v>561</v>
       </c>
       <c r="W30" s="13">
-        <v>561</v>
+        <v>158</v>
       </c>
       <c r="X30" s="13">
-        <v>158</v>
+        <v>588</v>
       </c>
       <c r="Y30" s="13">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="13">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="AA30" s="13">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="AB30" s="13">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="13">
         <v>0</v>
@@ -3885,22 +3885,22 @@
         <v>0</v>
       </c>
       <c r="AF30" s="13">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AG30" s="13">
-        <v>246</v>
+        <v>494</v>
       </c>
       <c r="AH30" s="13">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="13">
         <v>0</v>
       </c>
       <c r="AJ30" s="13">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="AK30" s="13">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="13">
         <v>0</v>
@@ -3918,37 +3918,37 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="13">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="AR30" s="13">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="AS30" s="13">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AT30" s="13">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AU30" s="13">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AW30" s="13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="13">
         <v>0</v>
       </c>
       <c r="AY30" s="13">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AZ30" s="13">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="BA30" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="13">
         <v>0</v>
@@ -3963,154 +3963,154 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>1557</v>
+        <v>1917</v>
       </c>
       <c r="F31" s="11">
-        <v>1917</v>
+        <v>5986</v>
       </c>
       <c r="G31" s="11">
-        <v>5986</v>
+        <v>2979</v>
       </c>
       <c r="H31" s="11">
-        <v>2979</v>
+        <v>4904</v>
       </c>
       <c r="I31" s="11">
-        <v>4904</v>
+        <v>3465</v>
       </c>
       <c r="J31" s="11">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="K31" s="11">
         <v>0</v>
       </c>
       <c r="L31" s="11">
-        <v>0</v>
+        <v>5984</v>
       </c>
       <c r="M31" s="11">
-        <v>5984</v>
+        <v>1137</v>
       </c>
       <c r="N31" s="11">
-        <v>1137</v>
+        <v>3336</v>
       </c>
       <c r="O31" s="11">
-        <v>3336</v>
+        <v>1837</v>
       </c>
       <c r="P31" s="11">
-        <v>1837</v>
+        <v>711</v>
       </c>
       <c r="Q31" s="11">
-        <v>711</v>
+        <v>3022</v>
       </c>
       <c r="R31" s="11">
-        <v>3022</v>
+        <v>2303</v>
       </c>
       <c r="S31" s="11">
-        <v>2303</v>
+        <v>3328</v>
       </c>
       <c r="T31" s="11">
-        <v>3328</v>
+        <v>5264</v>
       </c>
       <c r="U31" s="11">
-        <v>5264</v>
+        <v>2569</v>
       </c>
       <c r="V31" s="11">
-        <v>2569</v>
+        <v>0</v>
       </c>
       <c r="W31" s="11">
-        <v>0</v>
+        <v>3136</v>
       </c>
       <c r="X31" s="11">
-        <v>3136</v>
+        <v>2904</v>
       </c>
       <c r="Y31" s="11">
-        <v>2904</v>
+        <v>4516</v>
       </c>
       <c r="Z31" s="11">
-        <v>4516</v>
+        <v>3673</v>
       </c>
       <c r="AA31" s="11">
-        <v>3673</v>
+        <v>202</v>
       </c>
       <c r="AB31" s="11">
-        <v>202</v>
+        <v>1313</v>
       </c>
       <c r="AC31" s="11">
-        <v>1313</v>
+        <v>2016</v>
       </c>
       <c r="AD31" s="11">
-        <v>2016</v>
+        <v>2751</v>
       </c>
       <c r="AE31" s="11">
-        <v>2751</v>
+        <v>5995</v>
       </c>
       <c r="AF31" s="11">
-        <v>5995</v>
+        <v>10745</v>
       </c>
       <c r="AG31" s="11">
-        <v>10745</v>
+        <v>7406</v>
       </c>
       <c r="AH31" s="11">
-        <v>7406</v>
+        <v>3455</v>
       </c>
       <c r="AI31" s="11">
-        <v>3455</v>
+        <v>3233</v>
       </c>
       <c r="AJ31" s="11">
-        <v>3233</v>
+        <v>2884</v>
       </c>
       <c r="AK31" s="11">
-        <v>2884</v>
+        <v>4190</v>
       </c>
       <c r="AL31" s="11">
-        <v>4190</v>
+        <v>3157</v>
       </c>
       <c r="AM31" s="11">
-        <v>3157</v>
+        <v>8633</v>
       </c>
       <c r="AN31" s="11">
-        <v>8633</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="11">
         <v>0</v>
       </c>
       <c r="AP31" s="11">
-        <v>0</v>
+        <v>3749</v>
       </c>
       <c r="AQ31" s="11">
-        <v>3749</v>
+        <v>1670</v>
       </c>
       <c r="AR31" s="11">
-        <v>1670</v>
+        <v>2530</v>
       </c>
       <c r="AS31" s="11">
-        <v>2530</v>
+        <v>4948</v>
       </c>
       <c r="AT31" s="11">
-        <v>4948</v>
+        <v>4203</v>
       </c>
       <c r="AU31" s="11">
-        <v>4203</v>
+        <v>1205</v>
       </c>
       <c r="AV31" s="11">
-        <v>1205</v>
+        <v>1735</v>
       </c>
       <c r="AW31" s="11">
-        <v>1735</v>
+        <v>2192</v>
       </c>
       <c r="AX31" s="11">
-        <v>2192</v>
+        <v>2893</v>
       </c>
       <c r="AY31" s="11">
-        <v>2893</v>
+        <v>4493</v>
       </c>
       <c r="AZ31" s="11">
-        <v>4493</v>
+        <v>1425</v>
       </c>
       <c r="BA31" s="11">
-        <v>1425</v>
+        <v>1636</v>
       </c>
       <c r="BB31" s="11">
-        <v>1636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4122,28 +4122,28 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>4078</v>
+        <v>1335</v>
       </c>
       <c r="F32" s="13">
-        <v>1335</v>
+        <v>2676</v>
       </c>
       <c r="G32" s="13">
-        <v>2676</v>
+        <v>690</v>
       </c>
       <c r="H32" s="13">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="I32" s="13">
-        <v>0</v>
+        <v>28366</v>
       </c>
       <c r="J32" s="13">
-        <v>28366</v>
+        <v>752</v>
       </c>
       <c r="K32" s="13">
-        <v>752</v>
+        <v>545</v>
       </c>
       <c r="L32" s="13">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="M32" s="13">
         <v>0</v>
@@ -4152,28 +4152,28 @@
         <v>0</v>
       </c>
       <c r="O32" s="13">
-        <v>0</v>
+        <v>13267</v>
       </c>
       <c r="P32" s="13">
-        <v>13267</v>
+        <v>7875</v>
       </c>
       <c r="Q32" s="13">
-        <v>7875</v>
+        <v>0</v>
       </c>
       <c r="R32" s="13">
         <v>0</v>
       </c>
       <c r="S32" s="13">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="T32" s="13">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="U32" s="13">
-        <v>0</v>
+        <v>9652</v>
       </c>
       <c r="V32" s="13">
-        <v>9652</v>
+        <v>0</v>
       </c>
       <c r="W32" s="13">
         <v>0</v>
@@ -4181,8 +4181,8 @@
       <c r="X32" s="13">
         <v>0</v>
       </c>
-      <c r="Y32" s="13">
-        <v>0</v>
+      <c r="Y32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z32" s="13" t="s">
         <v>57</v>
@@ -4397,20 +4397,20 @@
       <c r="X34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y34" s="11" t="s">
-        <v>57</v>
+      <c r="Y34" s="11">
+        <v>0</v>
       </c>
       <c r="Z34" s="11">
         <v>0</v>
       </c>
       <c r="AA34" s="11">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="AB34" s="11">
-        <v>34633</v>
+        <v>12188</v>
       </c>
       <c r="AC34" s="11">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="11">
         <v>0</v>
@@ -4419,73 +4419,73 @@
         <v>0</v>
       </c>
       <c r="AF34" s="11">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AG34" s="11">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="AH34" s="11">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="11">
         <v>10368</v>
       </c>
-      <c r="AK34" s="11" t="s">
-        <v>57</v>
+      <c r="AJ34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK34" s="11">
+        <v>0</v>
       </c>
       <c r="AL34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="11">
         <v>24260</v>
       </c>
-      <c r="AN34" s="11" t="s">
-        <v>57</v>
+      <c r="AM34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN34" s="11">
+        <v>12495</v>
       </c>
       <c r="AO34" s="11">
-        <v>12495</v>
-      </c>
-      <c r="AP34" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR34" s="11" t="s">
-        <v>57</v>
+      <c r="AR34" s="11">
+        <v>0</v>
       </c>
       <c r="AS34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="11">
         <v>13055</v>
       </c>
+      <c r="AT34" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AU34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AV34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW34" s="11">
+      <c r="AV34" s="11">
         <v>20026</v>
       </c>
-      <c r="AX34" s="11" t="s">
-        <v>57</v>
+      <c r="AW34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX34" s="11">
+        <v>5008</v>
       </c>
       <c r="AY34" s="11">
-        <v>5008</v>
+        <v>5995</v>
       </c>
       <c r="AZ34" s="11">
-        <v>5995</v>
-      </c>
-      <c r="BA34" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB34" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="BA34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB34" s="11">
+        <v>5499</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4554,20 +4554,20 @@
       <c r="X35" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y35" s="15" t="s">
-        <v>57</v>
+      <c r="Y35" s="15">
+        <v>0</v>
       </c>
       <c r="Z35" s="15">
         <v>0</v>
       </c>
       <c r="AA35" s="15">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="AB35" s="15">
-        <v>34633</v>
+        <v>12188</v>
       </c>
       <c r="AC35" s="15">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="15">
         <v>0</v>
@@ -4576,34 +4576,34 @@
         <v>0</v>
       </c>
       <c r="AF35" s="15">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AG35" s="15">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="AH35" s="15">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="15">
-        <v>0</v>
+        <v>10368</v>
       </c>
       <c r="AJ35" s="15">
-        <v>10368</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="15">
         <v>0</v>
       </c>
       <c r="AL35" s="15">
-        <v>0</v>
+        <v>24260</v>
       </c>
       <c r="AM35" s="15">
-        <v>24260</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="15">
-        <v>0</v>
+        <v>12495</v>
       </c>
       <c r="AO35" s="15">
-        <v>12495</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="15">
         <v>0</v>
@@ -4615,34 +4615,34 @@
         <v>0</v>
       </c>
       <c r="AS35" s="15">
-        <v>0</v>
+        <v>13055</v>
       </c>
       <c r="AT35" s="15">
-        <v>13055</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="15">
         <v>0</v>
       </c>
       <c r="AV35" s="15">
-        <v>0</v>
+        <v>20026</v>
       </c>
       <c r="AW35" s="15">
-        <v>20026</v>
+        <v>0</v>
       </c>
       <c r="AX35" s="15">
-        <v>0</v>
+        <v>5008</v>
       </c>
       <c r="AY35" s="15">
-        <v>5008</v>
+        <v>5995</v>
       </c>
       <c r="AZ35" s="15">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="15">
         <v>0</v>
       </c>
       <c r="BB35" s="15">
-        <v>0</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4770,8 +4770,8 @@
       <c r="X37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>57</v>
+      <c r="Y37" s="11">
+        <v>0</v>
       </c>
       <c r="Z37" s="11">
         <v>0</v>
@@ -4797,8 +4797,8 @@
       <c r="AG37" s="11">
         <v>0</v>
       </c>
-      <c r="AH37" s="11">
-        <v>0</v>
+      <c r="AH37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI37" s="11" t="s">
         <v>57</v>
@@ -4806,11 +4806,11 @@
       <c r="AJ37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL37" s="11">
-        <v>0</v>
+      <c r="AK37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM37" s="11" t="s">
         <v>57</v>
@@ -4818,20 +4818,20 @@
       <c r="AN37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP37" s="11">
-        <v>0</v>
+      <c r="AO37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS37" s="11">
-        <v>0</v>
+      <c r="AR37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT37" s="11" t="s">
         <v>57</v>
@@ -4857,8 +4857,8 @@
       <c r="BA37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB37" s="11" t="s">
-        <v>57</v>
+      <c r="BB37" s="11">
+        <v>-12</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -4927,8 +4927,8 @@
       <c r="X38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y38" s="15" t="s">
-        <v>57</v>
+      <c r="Y38" s="15">
+        <v>0</v>
       </c>
       <c r="Z38" s="15">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="BB38" s="15">
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5025,154 +5025,154 @@
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17">
-        <v>5635</v>
+        <v>3252</v>
       </c>
       <c r="F39" s="17">
-        <v>3252</v>
+        <v>9022</v>
       </c>
       <c r="G39" s="17">
-        <v>9022</v>
+        <v>3966</v>
       </c>
       <c r="H39" s="17">
-        <v>3966</v>
+        <v>4904</v>
       </c>
       <c r="I39" s="17">
-        <v>4904</v>
+        <v>32803</v>
       </c>
       <c r="J39" s="17">
-        <v>32803</v>
+        <v>800</v>
       </c>
       <c r="K39" s="17">
-        <v>800</v>
+        <v>545</v>
       </c>
       <c r="L39" s="17">
-        <v>545</v>
+        <v>5984</v>
       </c>
       <c r="M39" s="17">
-        <v>5984</v>
+        <v>1287</v>
       </c>
       <c r="N39" s="17">
-        <v>1287</v>
+        <v>3486</v>
       </c>
       <c r="O39" s="17">
-        <v>3486</v>
+        <v>15400</v>
       </c>
       <c r="P39" s="17">
-        <v>15400</v>
+        <v>8586</v>
       </c>
       <c r="Q39" s="17">
-        <v>8586</v>
+        <v>3022</v>
       </c>
       <c r="R39" s="17">
-        <v>3022</v>
+        <v>2303</v>
       </c>
       <c r="S39" s="17">
-        <v>2303</v>
+        <v>5167</v>
       </c>
       <c r="T39" s="17">
-        <v>5167</v>
+        <v>5915</v>
       </c>
       <c r="U39" s="17">
-        <v>5915</v>
+        <v>12823</v>
       </c>
       <c r="V39" s="17">
-        <v>12823</v>
+        <v>561</v>
       </c>
       <c r="W39" s="17">
-        <v>561</v>
+        <v>3294</v>
       </c>
       <c r="X39" s="17">
-        <v>3294</v>
+        <v>3694</v>
       </c>
       <c r="Y39" s="17">
-        <v>3694</v>
+        <v>4516</v>
       </c>
       <c r="Z39" s="17">
-        <v>4516</v>
+        <v>3956</v>
       </c>
       <c r="AA39" s="17">
-        <v>3956</v>
+        <v>35053</v>
       </c>
       <c r="AB39" s="17">
-        <v>35053</v>
+        <v>13501</v>
       </c>
       <c r="AC39" s="17">
-        <v>13501</v>
+        <v>2016</v>
       </c>
       <c r="AD39" s="17">
-        <v>2016</v>
+        <v>2751</v>
       </c>
       <c r="AE39" s="17">
-        <v>2751</v>
+        <v>5995</v>
       </c>
       <c r="AF39" s="17">
-        <v>5995</v>
+        <v>12080</v>
       </c>
       <c r="AG39" s="17">
-        <v>12080</v>
+        <v>13814</v>
       </c>
       <c r="AH39" s="17">
-        <v>13814</v>
+        <v>3455</v>
       </c>
       <c r="AI39" s="17">
-        <v>3455</v>
+        <v>13601</v>
       </c>
       <c r="AJ39" s="17">
-        <v>13601</v>
+        <v>3290</v>
       </c>
       <c r="AK39" s="17">
-        <v>3290</v>
+        <v>4190</v>
       </c>
       <c r="AL39" s="17">
-        <v>4190</v>
+        <v>27466</v>
       </c>
       <c r="AM39" s="17">
-        <v>27466</v>
+        <v>9341</v>
       </c>
       <c r="AN39" s="17">
-        <v>9341</v>
+        <v>12617</v>
       </c>
       <c r="AO39" s="17">
-        <v>12617</v>
+        <v>416</v>
       </c>
       <c r="AP39" s="17">
-        <v>416</v>
+        <v>4020</v>
       </c>
       <c r="AQ39" s="17">
-        <v>4020</v>
+        <v>3282</v>
       </c>
       <c r="AR39" s="17">
-        <v>3282</v>
+        <v>8139</v>
       </c>
       <c r="AS39" s="17">
-        <v>8139</v>
+        <v>18388</v>
       </c>
       <c r="AT39" s="17">
-        <v>18388</v>
+        <v>4363</v>
       </c>
       <c r="AU39" s="17">
-        <v>4363</v>
+        <v>1451</v>
       </c>
       <c r="AV39" s="17">
-        <v>1451</v>
+        <v>21789</v>
       </c>
       <c r="AW39" s="17">
-        <v>21789</v>
+        <v>2192</v>
       </c>
       <c r="AX39" s="17">
-        <v>2192</v>
+        <v>7901</v>
       </c>
       <c r="AY39" s="17">
-        <v>7901</v>
+        <v>15803</v>
       </c>
       <c r="AZ39" s="17">
-        <v>15803</v>
+        <v>3955</v>
       </c>
       <c r="BA39" s="17">
-        <v>3955</v>
+        <v>2936</v>
       </c>
       <c r="BB39" s="17">
-        <v>2936</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5626,32 +5626,32 @@
       <c r="G46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>57</v>
+      <c r="H46" s="11">
+        <v>0</v>
       </c>
       <c r="I46" s="11">
-        <v>0</v>
+        <v>202858</v>
       </c>
       <c r="J46" s="11">
-        <v>202858</v>
+        <v>2476</v>
       </c>
       <c r="K46" s="11">
-        <v>2476</v>
+        <v>0</v>
       </c>
       <c r="L46" s="11">
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <v>0</v>
+        <v>43524</v>
       </c>
       <c r="N46" s="11">
-        <v>43524</v>
+        <v>41901</v>
       </c>
       <c r="O46" s="11">
-        <v>41901</v>
+        <v>76555</v>
       </c>
       <c r="P46" s="11">
-        <v>76555</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="11">
         <v>0</v>
@@ -5684,10 +5684,10 @@
         <v>0</v>
       </c>
       <c r="AA46" s="11">
-        <v>0</v>
+        <v>26258</v>
       </c>
       <c r="AB46" s="11">
-        <v>26258</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="11">
         <v>0</v>
@@ -5717,37 +5717,37 @@
         <v>0</v>
       </c>
       <c r="AL46" s="11">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="AM46" s="11">
-        <v>31200</v>
+        <v>277021</v>
       </c>
       <c r="AN46" s="11">
-        <v>277021</v>
+        <v>79745</v>
       </c>
       <c r="AO46" s="11">
-        <v>79745</v>
+        <v>311968</v>
       </c>
       <c r="AP46" s="11">
-        <v>311968</v>
+        <v>189494</v>
       </c>
       <c r="AQ46" s="11">
-        <v>189494</v>
+        <v>0</v>
       </c>
       <c r="AR46" s="11">
-        <v>0</v>
+        <v>87809</v>
       </c>
       <c r="AS46" s="11">
-        <v>87809</v>
+        <v>172699</v>
       </c>
       <c r="AT46" s="11">
-        <v>172699</v>
+        <v>0</v>
       </c>
       <c r="AU46" s="11">
-        <v>0</v>
+        <v>214709</v>
       </c>
       <c r="AV46" s="11">
-        <v>214709</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="11">
         <v>0</v>
@@ -5756,16 +5756,16 @@
         <v>0</v>
       </c>
       <c r="AY46" s="11">
-        <v>0</v>
+        <v>654439</v>
       </c>
       <c r="AZ46" s="11">
-        <v>654439</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="11">
         <v>0</v>
       </c>
       <c r="BB46" s="11">
-        <v>0</v>
+        <v>34351</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -5819,31 +5819,31 @@
         <v>0</v>
       </c>
       <c r="S47" s="13">
-        <v>0</v>
+        <v>5524</v>
       </c>
       <c r="T47" s="13">
-        <v>5524</v>
+        <v>0</v>
       </c>
       <c r="U47" s="13">
-        <v>0</v>
+        <v>35221</v>
       </c>
       <c r="V47" s="13">
-        <v>35221</v>
+        <v>0</v>
       </c>
       <c r="W47" s="13">
         <v>0</v>
       </c>
       <c r="X47" s="13">
-        <v>0</v>
+        <v>31635</v>
       </c>
       <c r="Y47" s="13">
-        <v>31635</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="13">
-        <v>0</v>
+        <v>11839</v>
       </c>
       <c r="AA47" s="13">
-        <v>11839</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="13">
         <v>0</v>
@@ -5861,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="AG47" s="13">
-        <v>0</v>
+        <v>84839</v>
       </c>
       <c r="AH47" s="13">
-        <v>84839</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="13">
         <v>0</v>
@@ -5879,10 +5879,10 @@
         <v>0</v>
       </c>
       <c r="AM47" s="13">
-        <v>0</v>
+        <v>66370</v>
       </c>
       <c r="AN47" s="13">
-        <v>66370</v>
+        <v>0</v>
       </c>
       <c r="AO47" s="13">
         <v>0</v>
@@ -5891,13 +5891,13 @@
         <v>0</v>
       </c>
       <c r="AQ47" s="13">
-        <v>0</v>
+        <v>53226</v>
       </c>
       <c r="AR47" s="13">
-        <v>53226</v>
+        <v>21065</v>
       </c>
       <c r="AS47" s="13">
-        <v>21065</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="13">
         <v>0</v>
@@ -5915,13 +5915,13 @@
         <v>0</v>
       </c>
       <c r="AY47" s="13">
-        <v>0</v>
+        <v>23381</v>
       </c>
       <c r="AZ47" s="13">
-        <v>23381</v>
+        <v>4564</v>
       </c>
       <c r="BA47" s="13">
-        <v>4564</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="13">
         <v>0</v>
@@ -6017,13 +6017,13 @@
         <v>0</v>
       </c>
       <c r="AF48" s="11">
-        <v>0</v>
+        <v>102005</v>
       </c>
       <c r="AG48" s="11">
-        <v>102005</v>
+        <v>612056</v>
       </c>
       <c r="AH48" s="11">
-        <v>612056</v>
+        <v>0</v>
       </c>
       <c r="AI48" s="11">
         <v>0</v>
@@ -6038,10 +6038,10 @@
         <v>0</v>
       </c>
       <c r="AM48" s="11">
-        <v>0</v>
+        <v>20634</v>
       </c>
       <c r="AN48" s="11">
-        <v>20634</v>
+        <v>0</v>
       </c>
       <c r="AO48" s="11">
         <v>0</v>
@@ -6053,10 +6053,10 @@
         <v>0</v>
       </c>
       <c r="AR48" s="11">
-        <v>0</v>
+        <v>461637</v>
       </c>
       <c r="AS48" s="11">
-        <v>461637</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="11">
         <v>0</v>
@@ -6074,16 +6074,16 @@
         <v>0</v>
       </c>
       <c r="AY48" s="11">
-        <v>0</v>
+        <v>857115</v>
       </c>
       <c r="AZ48" s="11">
-        <v>857115</v>
+        <v>435521</v>
       </c>
       <c r="BA48" s="11">
-        <v>435521</v>
+        <v>214500</v>
       </c>
       <c r="BB48" s="11">
-        <v>214500</v>
+        <v>108141</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6098,22 +6098,22 @@
         <v>0</v>
       </c>
       <c r="F49" s="13">
-        <v>0</v>
+        <v>25734</v>
       </c>
       <c r="G49" s="13">
-        <v>25734</v>
+        <v>28498</v>
       </c>
       <c r="H49" s="13">
-        <v>28498</v>
+        <v>0</v>
       </c>
       <c r="I49" s="13">
-        <v>0</v>
+        <v>14657</v>
       </c>
       <c r="J49" s="13">
-        <v>14657</v>
+        <v>3933</v>
       </c>
       <c r="K49" s="13">
-        <v>3933</v>
+        <v>0</v>
       </c>
       <c r="L49" s="13">
         <v>0</v>
@@ -6137,34 +6137,34 @@
         <v>0</v>
       </c>
       <c r="S49" s="13">
-        <v>0</v>
+        <v>54462</v>
       </c>
       <c r="T49" s="13">
-        <v>54462</v>
+        <v>78653</v>
       </c>
       <c r="U49" s="13">
-        <v>78653</v>
+        <v>60155</v>
       </c>
       <c r="V49" s="13">
-        <v>60155</v>
+        <v>81605</v>
       </c>
       <c r="W49" s="13">
-        <v>81605</v>
+        <v>22997</v>
       </c>
       <c r="X49" s="13">
-        <v>22997</v>
+        <v>81422</v>
       </c>
       <c r="Y49" s="13">
-        <v>81422</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="13">
-        <v>0</v>
+        <v>41552</v>
       </c>
       <c r="AA49" s="13">
-        <v>41552</v>
+        <v>33777</v>
       </c>
       <c r="AB49" s="13">
-        <v>33777</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="13">
         <v>0</v>
@@ -6176,22 +6176,22 @@
         <v>0</v>
       </c>
       <c r="AF49" s="13">
-        <v>0</v>
+        <v>67780</v>
       </c>
       <c r="AG49" s="13">
-        <v>67780</v>
+        <v>154460</v>
       </c>
       <c r="AH49" s="13">
-        <v>154460</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="13">
         <v>0</v>
       </c>
       <c r="AJ49" s="13">
-        <v>0</v>
+        <v>116399</v>
       </c>
       <c r="AK49" s="13">
-        <v>116399</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="13">
         <v>0</v>
@@ -6209,37 +6209,37 @@
         <v>0</v>
       </c>
       <c r="AQ49" s="13">
-        <v>0</v>
+        <v>550890</v>
       </c>
       <c r="AR49" s="13">
-        <v>550890</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="13">
-        <v>0</v>
+        <v>56932</v>
       </c>
       <c r="AT49" s="13">
-        <v>56932</v>
+        <v>47118</v>
       </c>
       <c r="AU49" s="13">
-        <v>47118</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="13">
-        <v>0</v>
+        <v>6993</v>
       </c>
       <c r="AW49" s="13">
-        <v>6993</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="13">
         <v>0</v>
       </c>
       <c r="AY49" s="13">
-        <v>0</v>
+        <v>38584</v>
       </c>
       <c r="AZ49" s="13">
-        <v>38584</v>
+        <v>3870</v>
       </c>
       <c r="BA49" s="13">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="13">
         <v>0</v>
@@ -6254,154 +6254,154 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>40303</v>
+        <v>56546</v>
       </c>
       <c r="F50" s="11">
-        <v>56546</v>
+        <v>145292</v>
       </c>
       <c r="G50" s="11">
-        <v>145292</v>
+        <v>90522</v>
       </c>
       <c r="H50" s="11">
-        <v>90522</v>
+        <v>147325</v>
       </c>
       <c r="I50" s="11">
-        <v>147325</v>
+        <v>21335</v>
       </c>
       <c r="J50" s="11">
-        <v>21335</v>
+        <v>0</v>
       </c>
       <c r="K50" s="11">
         <v>0</v>
       </c>
       <c r="L50" s="11">
-        <v>0</v>
+        <v>306114</v>
       </c>
       <c r="M50" s="11">
-        <v>306114</v>
+        <v>34668</v>
       </c>
       <c r="N50" s="11">
-        <v>34668</v>
+        <v>123433</v>
       </c>
       <c r="O50" s="11">
-        <v>123433</v>
+        <v>36401</v>
       </c>
       <c r="P50" s="11">
-        <v>36401</v>
+        <v>12121</v>
       </c>
       <c r="Q50" s="11">
-        <v>12121</v>
+        <v>98377</v>
       </c>
       <c r="R50" s="11">
-        <v>98377</v>
+        <v>80008</v>
       </c>
       <c r="S50" s="11">
-        <v>80008</v>
+        <v>106762</v>
       </c>
       <c r="T50" s="11">
-        <v>106762</v>
+        <v>134939</v>
       </c>
       <c r="U50" s="11">
-        <v>134939</v>
+        <v>94126</v>
       </c>
       <c r="V50" s="11">
-        <v>94126</v>
+        <v>0</v>
       </c>
       <c r="W50" s="11">
-        <v>0</v>
+        <v>94130</v>
       </c>
       <c r="X50" s="11">
-        <v>94130</v>
+        <v>60242</v>
       </c>
       <c r="Y50" s="11">
-        <v>60242</v>
+        <v>171298</v>
       </c>
       <c r="Z50" s="11">
-        <v>171298</v>
+        <v>105667</v>
       </c>
       <c r="AA50" s="11">
-        <v>105667</v>
+        <v>8379</v>
       </c>
       <c r="AB50" s="11">
-        <v>8379</v>
+        <v>55692</v>
       </c>
       <c r="AC50" s="11">
-        <v>55692</v>
+        <v>222743</v>
       </c>
       <c r="AD50" s="11">
-        <v>222743</v>
+        <v>276733</v>
       </c>
       <c r="AE50" s="11">
-        <v>276733</v>
+        <v>324876</v>
       </c>
       <c r="AF50" s="11">
-        <v>324876</v>
+        <v>739810</v>
       </c>
       <c r="AG50" s="11">
-        <v>739810</v>
+        <v>577703</v>
       </c>
       <c r="AH50" s="11">
-        <v>577703</v>
+        <v>301726</v>
       </c>
       <c r="AI50" s="11">
-        <v>301726</v>
+        <v>296304</v>
       </c>
       <c r="AJ50" s="11">
-        <v>296304</v>
+        <v>293882</v>
       </c>
       <c r="AK50" s="11">
-        <v>293882</v>
+        <v>435851</v>
       </c>
       <c r="AL50" s="11">
-        <v>435851</v>
+        <v>273570</v>
       </c>
       <c r="AM50" s="11">
-        <v>273570</v>
+        <v>836997</v>
       </c>
       <c r="AN50" s="11">
-        <v>836997</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="11">
         <v>0</v>
       </c>
       <c r="AP50" s="11">
-        <v>0</v>
+        <v>330488</v>
       </c>
       <c r="AQ50" s="11">
-        <v>330488</v>
+        <v>154245</v>
       </c>
       <c r="AR50" s="11">
-        <v>154245</v>
+        <v>293815</v>
       </c>
       <c r="AS50" s="11">
-        <v>293815</v>
+        <v>774252</v>
       </c>
       <c r="AT50" s="11">
-        <v>774252</v>
+        <v>645393</v>
       </c>
       <c r="AU50" s="11">
-        <v>645393</v>
+        <v>97722</v>
       </c>
       <c r="AV50" s="11">
-        <v>97722</v>
+        <v>123901</v>
       </c>
       <c r="AW50" s="11">
-        <v>123901</v>
+        <v>122812</v>
       </c>
       <c r="AX50" s="11">
-        <v>122812</v>
+        <v>334051</v>
       </c>
       <c r="AY50" s="11">
-        <v>334051</v>
+        <v>538414</v>
       </c>
       <c r="AZ50" s="11">
-        <v>538414</v>
+        <v>175961</v>
       </c>
       <c r="BA50" s="11">
-        <v>175961</v>
+        <v>106213</v>
       </c>
       <c r="BB50" s="11">
-        <v>106213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -6413,28 +6413,28 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>4894</v>
+        <v>1602</v>
       </c>
       <c r="F51" s="13">
-        <v>1602</v>
+        <v>3212</v>
       </c>
       <c r="G51" s="13">
-        <v>3212</v>
+        <v>520</v>
       </c>
       <c r="H51" s="13">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I51" s="13">
-        <v>0</v>
+        <v>52819</v>
       </c>
       <c r="J51" s="13">
-        <v>52819</v>
+        <v>1053</v>
       </c>
       <c r="K51" s="13">
-        <v>1053</v>
+        <v>763</v>
       </c>
       <c r="L51" s="13">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="M51" s="13">
         <v>0</v>
@@ -6443,28 +6443,28 @@
         <v>0</v>
       </c>
       <c r="O51" s="13">
-        <v>0</v>
+        <v>30514</v>
       </c>
       <c r="P51" s="13">
-        <v>30514</v>
+        <v>18113</v>
       </c>
       <c r="Q51" s="13">
-        <v>18113</v>
+        <v>0</v>
       </c>
       <c r="R51" s="13">
         <v>0</v>
       </c>
       <c r="S51" s="13">
-        <v>0</v>
+        <v>3435</v>
       </c>
       <c r="T51" s="13">
-        <v>3435</v>
+        <v>0</v>
       </c>
       <c r="U51" s="13">
-        <v>0</v>
+        <v>21639</v>
       </c>
       <c r="V51" s="13">
-        <v>21639</v>
+        <v>0</v>
       </c>
       <c r="W51" s="13">
         <v>0</v>
@@ -6472,8 +6472,8 @@
       <c r="X51" s="13">
         <v>0</v>
       </c>
-      <c r="Y51" s="13">
-        <v>0</v>
+      <c r="Y51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Z51" s="13" t="s">
         <v>57</v>
@@ -6688,20 +6688,20 @@
       <c r="X53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>57</v>
+      <c r="Y53" s="11">
+        <v>0</v>
       </c>
       <c r="Z53" s="11">
         <v>0</v>
       </c>
       <c r="AA53" s="11">
-        <v>0</v>
+        <v>157463</v>
       </c>
       <c r="AB53" s="11">
-        <v>157463</v>
+        <v>96685</v>
       </c>
       <c r="AC53" s="11">
-        <v>96685</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="11">
         <v>0</v>
@@ -6710,34 +6710,34 @@
         <v>0</v>
       </c>
       <c r="AF53" s="11">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="AG53" s="11">
-        <v>2101</v>
+        <v>1217</v>
       </c>
       <c r="AH53" s="11">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="AI53" s="11">
-        <v>0</v>
+        <v>87094</v>
       </c>
       <c r="AJ53" s="11">
-        <v>87094</v>
+        <v>0</v>
       </c>
       <c r="AK53" s="11">
         <v>0</v>
       </c>
       <c r="AL53" s="11">
-        <v>0</v>
+        <v>222580</v>
       </c>
       <c r="AM53" s="11">
-        <v>222580</v>
+        <v>0</v>
       </c>
       <c r="AN53" s="11">
-        <v>0</v>
+        <v>137445</v>
       </c>
       <c r="AO53" s="11">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="AP53" s="11">
         <v>0</v>
@@ -6749,34 +6749,34 @@
         <v>0</v>
       </c>
       <c r="AS53" s="11">
-        <v>0</v>
+        <v>143609</v>
       </c>
       <c r="AT53" s="11">
-        <v>143609</v>
+        <v>0</v>
       </c>
       <c r="AU53" s="11">
         <v>0</v>
       </c>
       <c r="AV53" s="11">
-        <v>0</v>
+        <v>280368</v>
       </c>
       <c r="AW53" s="11">
-        <v>280368</v>
+        <v>0</v>
       </c>
       <c r="AX53" s="11">
-        <v>0</v>
+        <v>70114</v>
       </c>
       <c r="AY53" s="11">
-        <v>70114</v>
+        <v>83929</v>
       </c>
       <c r="AZ53" s="11">
-        <v>83929</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="11">
         <v>0</v>
       </c>
       <c r="BB53" s="11">
-        <v>0</v>
+        <v>76992</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -6847,20 +6847,20 @@
       <c r="X54" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y54" s="15" t="s">
-        <v>57</v>
+      <c r="Y54" s="15">
+        <v>0</v>
       </c>
       <c r="Z54" s="15">
         <v>0</v>
       </c>
       <c r="AA54" s="15">
-        <v>0</v>
+        <v>157463</v>
       </c>
       <c r="AB54" s="15">
-        <v>157463</v>
+        <v>96685</v>
       </c>
       <c r="AC54" s="15">
-        <v>96685</v>
+        <v>0</v>
       </c>
       <c r="AD54" s="15">
         <v>0</v>
@@ -6869,34 +6869,34 @@
         <v>0</v>
       </c>
       <c r="AF54" s="15">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="AG54" s="15">
-        <v>2101</v>
+        <v>1217</v>
       </c>
       <c r="AH54" s="15">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="AI54" s="15">
-        <v>0</v>
+        <v>87094</v>
       </c>
       <c r="AJ54" s="15">
-        <v>87094</v>
+        <v>0</v>
       </c>
       <c r="AK54" s="15">
         <v>0</v>
       </c>
       <c r="AL54" s="15">
-        <v>0</v>
+        <v>222580</v>
       </c>
       <c r="AM54" s="15">
-        <v>222580</v>
+        <v>0</v>
       </c>
       <c r="AN54" s="15">
-        <v>0</v>
+        <v>137445</v>
       </c>
       <c r="AO54" s="15">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="AP54" s="15">
         <v>0</v>
@@ -6908,34 +6908,34 @@
         <v>0</v>
       </c>
       <c r="AS54" s="15">
-        <v>0</v>
+        <v>143609</v>
       </c>
       <c r="AT54" s="15">
-        <v>143609</v>
+        <v>0</v>
       </c>
       <c r="AU54" s="15">
         <v>0</v>
       </c>
       <c r="AV54" s="15">
-        <v>0</v>
+        <v>280368</v>
       </c>
       <c r="AW54" s="15">
-        <v>280368</v>
+        <v>0</v>
       </c>
       <c r="AX54" s="15">
-        <v>0</v>
+        <v>70114</v>
       </c>
       <c r="AY54" s="15">
-        <v>70114</v>
+        <v>83929</v>
       </c>
       <c r="AZ54" s="15">
-        <v>83929</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="15">
         <v>0</v>
       </c>
       <c r="BB54" s="15">
-        <v>0</v>
+        <v>76992</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7063,8 +7063,8 @@
       <c r="X56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y56" s="11" t="s">
-        <v>57</v>
+      <c r="Y56" s="11">
+        <v>0</v>
       </c>
       <c r="Z56" s="11">
         <v>0</v>
@@ -7090,11 +7090,11 @@
       <c r="AG56" s="11">
         <v>0</v>
       </c>
-      <c r="AH56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="11" t="s">
-        <v>57</v>
+      <c r="AH56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI56" s="11">
+        <v>0</v>
       </c>
       <c r="AJ56" s="11">
         <v>0</v>
@@ -7126,8 +7126,8 @@
       <c r="AS56" s="11">
         <v>0</v>
       </c>
-      <c r="AT56" s="11">
-        <v>0</v>
+      <c r="AT56" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU56" s="11" t="s">
         <v>57</v>
@@ -7150,8 +7150,8 @@
       <c r="BA56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB56" s="11" t="s">
-        <v>57</v>
+      <c r="BB56" s="11">
+        <v>-4850</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7222,8 +7222,8 @@
       <c r="X57" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y57" s="15" t="s">
-        <v>57</v>
+      <c r="Y57" s="15">
+        <v>0</v>
       </c>
       <c r="Z57" s="15">
         <v>0</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="BB57" s="15">
-        <v>0</v>
+        <v>-4850</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7438,8 +7438,8 @@
       <c r="X59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>57</v>
+      <c r="Y59" s="11">
+        <v>0</v>
       </c>
       <c r="Z59" s="11">
         <v>0</v>
@@ -7536,154 +7536,154 @@
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15">
-        <v>45197</v>
+        <v>58148</v>
       </c>
       <c r="F60" s="15">
-        <v>58148</v>
+        <v>174238</v>
       </c>
       <c r="G60" s="15">
-        <v>174238</v>
+        <v>119540</v>
       </c>
       <c r="H60" s="15">
-        <v>119540</v>
+        <v>147325</v>
       </c>
       <c r="I60" s="15">
-        <v>147325</v>
+        <v>291669</v>
       </c>
       <c r="J60" s="15">
-        <v>291669</v>
+        <v>7462</v>
       </c>
       <c r="K60" s="15">
-        <v>7462</v>
+        <v>763</v>
       </c>
       <c r="L60" s="15">
-        <v>763</v>
+        <v>306114</v>
       </c>
       <c r="M60" s="15">
-        <v>306114</v>
+        <v>78192</v>
       </c>
       <c r="N60" s="15">
-        <v>78192</v>
+        <v>165334</v>
       </c>
       <c r="O60" s="15">
-        <v>165334</v>
+        <v>143470</v>
       </c>
       <c r="P60" s="15">
-        <v>143470</v>
+        <v>30234</v>
       </c>
       <c r="Q60" s="15">
-        <v>30234</v>
+        <v>98377</v>
       </c>
       <c r="R60" s="15">
-        <v>98377</v>
+        <v>80008</v>
       </c>
       <c r="S60" s="15">
-        <v>80008</v>
+        <v>170183</v>
       </c>
       <c r="T60" s="15">
-        <v>170183</v>
+        <v>213592</v>
       </c>
       <c r="U60" s="15">
-        <v>213592</v>
+        <v>211141</v>
       </c>
       <c r="V60" s="15">
-        <v>211141</v>
+        <v>81605</v>
       </c>
       <c r="W60" s="15">
-        <v>81605</v>
+        <v>117127</v>
       </c>
       <c r="X60" s="15">
-        <v>117127</v>
+        <v>173299</v>
       </c>
       <c r="Y60" s="15">
-        <v>173299</v>
+        <v>171298</v>
       </c>
       <c r="Z60" s="15">
-        <v>171298</v>
+        <v>159058</v>
       </c>
       <c r="AA60" s="15">
-        <v>159058</v>
+        <v>225877</v>
       </c>
       <c r="AB60" s="15">
-        <v>225877</v>
+        <v>152377</v>
       </c>
       <c r="AC60" s="15">
-        <v>152377</v>
+        <v>222743</v>
       </c>
       <c r="AD60" s="15">
-        <v>222743</v>
+        <v>276733</v>
       </c>
       <c r="AE60" s="15">
-        <v>276733</v>
+        <v>324876</v>
       </c>
       <c r="AF60" s="15">
-        <v>324876</v>
+        <v>911696</v>
       </c>
       <c r="AG60" s="15">
-        <v>911696</v>
+        <v>1430275</v>
       </c>
       <c r="AH60" s="15">
-        <v>1430275</v>
+        <v>301726</v>
       </c>
       <c r="AI60" s="15">
-        <v>301726</v>
+        <v>383398</v>
       </c>
       <c r="AJ60" s="15">
-        <v>383398</v>
+        <v>410281</v>
       </c>
       <c r="AK60" s="15">
-        <v>410281</v>
+        <v>435851</v>
       </c>
       <c r="AL60" s="15">
-        <v>435851</v>
+        <v>527350</v>
       </c>
       <c r="AM60" s="15">
-        <v>527350</v>
+        <v>1201022</v>
       </c>
       <c r="AN60" s="15">
-        <v>1201022</v>
+        <v>217190</v>
       </c>
       <c r="AO60" s="15">
-        <v>217190</v>
+        <v>311968</v>
       </c>
       <c r="AP60" s="15">
-        <v>311968</v>
+        <v>519982</v>
       </c>
       <c r="AQ60" s="15">
-        <v>519982</v>
+        <v>758361</v>
       </c>
       <c r="AR60" s="15">
-        <v>758361</v>
+        <v>864326</v>
       </c>
       <c r="AS60" s="15">
-        <v>864326</v>
+        <v>1147492</v>
       </c>
       <c r="AT60" s="15">
-        <v>1147492</v>
+        <v>692511</v>
       </c>
       <c r="AU60" s="15">
-        <v>692511</v>
+        <v>312431</v>
       </c>
       <c r="AV60" s="15">
-        <v>312431</v>
+        <v>411262</v>
       </c>
       <c r="AW60" s="15">
-        <v>411262</v>
+        <v>122812</v>
       </c>
       <c r="AX60" s="15">
-        <v>122812</v>
+        <v>404165</v>
       </c>
       <c r="AY60" s="15">
-        <v>404165</v>
+        <v>2195862</v>
       </c>
       <c r="AZ60" s="15">
-        <v>2195862</v>
+        <v>619916</v>
       </c>
       <c r="BA60" s="15">
-        <v>619916</v>
+        <v>320713</v>
       </c>
       <c r="BB60" s="15">
-        <v>320713</v>
+        <v>214634</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8137,32 +8137,32 @@
       <c r="G67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>57</v>
+      <c r="H67" s="11">
+        <v>0</v>
       </c>
       <c r="I67" s="11">
-        <v>0</v>
+        <v>250133169</v>
       </c>
       <c r="J67" s="11">
-        <v>250133169</v>
+        <v>309500000</v>
       </c>
       <c r="K67" s="11">
-        <v>309500000</v>
+        <v>0</v>
       </c>
       <c r="L67" s="11">
         <v>0</v>
       </c>
       <c r="M67" s="11">
-        <v>0</v>
+        <v>290160000</v>
       </c>
       <c r="N67" s="11">
-        <v>290160000</v>
+        <v>279340000</v>
       </c>
       <c r="O67" s="11">
-        <v>279340000</v>
+        <v>258631757</v>
       </c>
       <c r="P67" s="11">
-        <v>258631757</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="11">
         <v>0</v>
@@ -8179,8 +8179,8 @@
       <c r="U67" s="11">
         <v>0</v>
       </c>
-      <c r="V67" s="11">
-        <v>0</v>
+      <c r="V67" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W67" s="11" t="s">
         <v>57</v>
@@ -8194,12 +8194,12 @@
       <c r="Z67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB67" s="11">
+      <c r="AA67" s="11">
         <v>525160000</v>
       </c>
+      <c r="AB67" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AC67" s="11" t="s">
         <v>57</v>
       </c>
@@ -8227,56 +8227,56 @@
       <c r="AK67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL67" s="11" t="s">
-        <v>57</v>
+      <c r="AL67" s="11">
+        <v>636734694</v>
       </c>
       <c r="AM67" s="11">
-        <v>636734694</v>
+        <v>645736597</v>
       </c>
       <c r="AN67" s="11">
-        <v>645736597</v>
+        <v>653647541</v>
       </c>
       <c r="AO67" s="11">
-        <v>653647541</v>
+        <v>749923077</v>
       </c>
       <c r="AP67" s="11">
-        <v>749923077</v>
-      </c>
-      <c r="AQ67" s="11">
         <v>699239852</v>
       </c>
-      <c r="AR67" s="11" t="s">
-        <v>57</v>
+      <c r="AQ67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR67" s="11">
+        <v>878090000</v>
       </c>
       <c r="AS67" s="11">
-        <v>878090000</v>
-      </c>
-      <c r="AT67" s="11">
         <v>885635897</v>
       </c>
-      <c r="AU67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV67" s="11">
+      <c r="AT67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU67" s="11">
         <v>872800813</v>
       </c>
+      <c r="AV67" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AW67" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AX67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ67" s="11">
+      <c r="AY67" s="11">
         <v>844437419</v>
       </c>
+      <c r="AZ67" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="BA67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB67" s="11" t="s">
-        <v>57</v>
+      <c r="BB67" s="11">
+        <v>1073468750</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8330,32 +8330,32 @@
         <v>0</v>
       </c>
       <c r="S68" s="13">
-        <v>0</v>
+        <v>106230769</v>
       </c>
       <c r="T68" s="13">
-        <v>106230769</v>
+        <v>0</v>
       </c>
       <c r="U68" s="13">
-        <v>0</v>
-      </c>
-      <c r="V68" s="13">
         <v>115858553</v>
       </c>
+      <c r="V68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y68" s="13">
+      <c r="X68" s="13">
         <v>156608911</v>
       </c>
-      <c r="Z68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA68" s="13">
+      <c r="Y68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z68" s="13">
         <v>408241379</v>
       </c>
+      <c r="AA68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AB68" s="13" t="s">
         <v>57</v>
       </c>
@@ -8371,12 +8371,12 @@
       <c r="AF68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH68" s="13">
+      <c r="AG68" s="13">
         <v>526950311</v>
       </c>
+      <c r="AH68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI68" s="13" t="s">
         <v>57</v>
       </c>
@@ -8389,27 +8389,27 @@
       <c r="AL68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN68" s="13">
+      <c r="AM68" s="13">
         <v>698631579</v>
       </c>
+      <c r="AN68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AO68" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AP68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ68" s="13" t="s">
-        <v>57</v>
+      <c r="AQ68" s="13">
+        <v>649097561</v>
       </c>
       <c r="AR68" s="13">
-        <v>649097561</v>
-      </c>
-      <c r="AS68" s="13">
         <v>540128205</v>
       </c>
+      <c r="AS68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT68" s="13" t="s">
         <v>57</v>
       </c>
@@ -8425,14 +8425,14 @@
       <c r="AX68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY68" s="13" t="s">
-        <v>57</v>
+      <c r="AY68" s="13">
+        <v>334014286</v>
       </c>
       <c r="AZ68" s="13">
-        <v>334014286</v>
-      </c>
-      <c r="BA68" s="13">
         <v>351076923</v>
+      </c>
+      <c r="BA68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB68" s="13" t="s">
         <v>57</v>
@@ -8497,8 +8497,8 @@
       <c r="U69" s="11">
         <v>0</v>
       </c>
-      <c r="V69" s="11">
-        <v>0</v>
+      <c r="V69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W69" s="11" t="s">
         <v>57</v>
@@ -8527,15 +8527,15 @@
       <c r="AE69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AF69" s="11" t="s">
-        <v>57</v>
+      <c r="AF69" s="11">
+        <v>170008333</v>
       </c>
       <c r="AG69" s="11">
-        <v>170008333</v>
-      </c>
-      <c r="AH69" s="11">
         <v>111893236</v>
       </c>
+      <c r="AH69" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AI69" s="11" t="s">
         <v>57</v>
       </c>
@@ -8548,12 +8548,12 @@
       <c r="AL69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN69" s="11">
+      <c r="AM69" s="11">
         <v>112141304</v>
       </c>
+      <c r="AN69" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AO69" s="11" t="s">
         <v>57</v>
       </c>
@@ -8563,12 +8563,12 @@
       <c r="AQ69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS69" s="11">
+      <c r="AR69" s="11">
         <v>84394333</v>
       </c>
+      <c r="AS69" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT69" s="11" t="s">
         <v>57</v>
       </c>
@@ -8584,17 +8584,17 @@
       <c r="AX69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY69" s="11" t="s">
-        <v>57</v>
+      <c r="AY69" s="11">
+        <v>199329070</v>
       </c>
       <c r="AZ69" s="11">
-        <v>199329070</v>
+        <v>174208400</v>
       </c>
       <c r="BA69" s="11">
-        <v>174208400</v>
+        <v>165000000</v>
       </c>
       <c r="BB69" s="11">
-        <v>165000000</v>
+        <v>207166667</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -8609,22 +8609,22 @@
         <v>0</v>
       </c>
       <c r="F70" s="13">
-        <v>0</v>
+        <v>71483333</v>
       </c>
       <c r="G70" s="13">
-        <v>71483333</v>
+        <v>95952862</v>
       </c>
       <c r="H70" s="13">
-        <v>95952862</v>
+        <v>0</v>
       </c>
       <c r="I70" s="13">
-        <v>0</v>
+        <v>91037267</v>
       </c>
       <c r="J70" s="13">
-        <v>91037267</v>
+        <v>98325000</v>
       </c>
       <c r="K70" s="13">
-        <v>98325000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="13">
         <v>0</v>
@@ -8648,35 +8648,35 @@
         <v>0</v>
       </c>
       <c r="S70" s="13">
-        <v>0</v>
+        <v>116871245</v>
       </c>
       <c r="T70" s="13">
-        <v>116871245</v>
+        <v>120818740</v>
       </c>
       <c r="U70" s="13">
-        <v>120818740</v>
+        <v>201862416</v>
       </c>
       <c r="V70" s="13">
-        <v>201862416</v>
+        <v>145463458</v>
       </c>
       <c r="W70" s="13">
-        <v>145463458</v>
+        <v>145550633</v>
       </c>
       <c r="X70" s="13">
-        <v>145550633</v>
-      </c>
-      <c r="Y70" s="13">
         <v>138472789</v>
       </c>
-      <c r="Z70" s="13" t="s">
-        <v>57</v>
+      <c r="Y70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z70" s="13">
+        <v>163590551</v>
       </c>
       <c r="AA70" s="13">
-        <v>163590551</v>
-      </c>
-      <c r="AB70" s="13">
         <v>201053571</v>
       </c>
+      <c r="AB70" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AC70" s="13" t="s">
         <v>57</v>
       </c>
@@ -8686,24 +8686,24 @@
       <c r="AE70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF70" s="13" t="s">
-        <v>57</v>
+      <c r="AF70" s="13">
+        <v>275528455</v>
       </c>
       <c r="AG70" s="13">
-        <v>275528455</v>
-      </c>
-      <c r="AH70" s="13">
         <v>312672065</v>
       </c>
+      <c r="AH70" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AI70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK70" s="13">
+      <c r="AJ70" s="13">
         <v>286697044</v>
       </c>
+      <c r="AK70" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AL70" s="13" t="s">
         <v>57</v>
       </c>
@@ -8719,38 +8719,38 @@
       <c r="AP70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ70" s="13" t="s">
-        <v>57</v>
+      <c r="AQ70" s="13">
+        <v>360058824</v>
       </c>
       <c r="AR70" s="13">
-        <v>360058824</v>
+        <v>0</v>
       </c>
       <c r="AS70" s="13">
-        <v>0</v>
+        <v>299642105</v>
       </c>
       <c r="AT70" s="13">
-        <v>299642105</v>
-      </c>
-      <c r="AU70" s="13">
         <v>294487500</v>
       </c>
-      <c r="AV70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW70" s="13">
+      <c r="AU70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV70" s="13">
         <v>249750000</v>
       </c>
+      <c r="AW70" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AX70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY70" s="13" t="s">
-        <v>57</v>
+      <c r="AY70" s="13">
+        <v>226964706</v>
       </c>
       <c r="AZ70" s="13">
-        <v>226964706</v>
-      </c>
-      <c r="BA70" s="13">
         <v>227647059</v>
+      </c>
+      <c r="BA70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="BB70" s="13" t="s">
         <v>57</v>
@@ -8765,154 +8765,154 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>25885035</v>
+        <v>29497131</v>
       </c>
       <c r="F71" s="11">
-        <v>29497131</v>
+        <v>24271968</v>
       </c>
       <c r="G71" s="11">
-        <v>24271968</v>
+        <v>30386707</v>
       </c>
       <c r="H71" s="11">
-        <v>30386707</v>
+        <v>30041803</v>
       </c>
       <c r="I71" s="11">
-        <v>30041803</v>
+        <v>6157287</v>
       </c>
       <c r="J71" s="11">
-        <v>6157287</v>
+        <v>0</v>
       </c>
       <c r="K71" s="11">
         <v>0</v>
       </c>
       <c r="L71" s="11">
-        <v>0</v>
+        <v>51155414</v>
       </c>
       <c r="M71" s="11">
-        <v>51155414</v>
+        <v>30490765</v>
       </c>
       <c r="N71" s="11">
-        <v>30490765</v>
+        <v>37000300</v>
       </c>
       <c r="O71" s="11">
-        <v>37000300</v>
+        <v>19815460</v>
       </c>
       <c r="P71" s="11">
-        <v>19815460</v>
+        <v>17047820</v>
       </c>
       <c r="Q71" s="11">
-        <v>17047820</v>
+        <v>32553607</v>
       </c>
       <c r="R71" s="11">
-        <v>32553607</v>
+        <v>34740773</v>
       </c>
       <c r="S71" s="11">
-        <v>34740773</v>
+        <v>32079928</v>
       </c>
       <c r="T71" s="11">
-        <v>32079928</v>
+        <v>25634309</v>
       </c>
       <c r="U71" s="11">
-        <v>25634309</v>
-      </c>
-      <c r="V71" s="11">
         <v>36639159</v>
       </c>
-      <c r="W71" s="11" t="s">
-        <v>57</v>
+      <c r="V71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W71" s="11">
+        <v>30015944</v>
       </c>
       <c r="X71" s="11">
-        <v>30015944</v>
+        <v>20744490</v>
       </c>
       <c r="Y71" s="11">
-        <v>20744490</v>
+        <v>37931355</v>
       </c>
       <c r="Z71" s="11">
-        <v>37931355</v>
+        <v>28768582</v>
       </c>
       <c r="AA71" s="11">
-        <v>28768582</v>
+        <v>41480198</v>
       </c>
       <c r="AB71" s="11">
-        <v>41480198</v>
+        <v>42415842</v>
       </c>
       <c r="AC71" s="11">
-        <v>42415842</v>
+        <v>110487599</v>
       </c>
       <c r="AD71" s="11">
-        <v>110487599</v>
+        <v>100593602</v>
       </c>
       <c r="AE71" s="11">
-        <v>100593602</v>
+        <v>54191159</v>
       </c>
       <c r="AF71" s="11">
-        <v>54191159</v>
+        <v>68851559</v>
       </c>
       <c r="AG71" s="11">
-        <v>68851559</v>
+        <v>78004726</v>
       </c>
       <c r="AH71" s="11">
-        <v>78004726</v>
+        <v>87330246</v>
       </c>
       <c r="AI71" s="11">
-        <v>87330246</v>
+        <v>91649861</v>
       </c>
       <c r="AJ71" s="11">
-        <v>91649861</v>
+        <v>101900832</v>
       </c>
       <c r="AK71" s="11">
-        <v>101900832</v>
+        <v>104021718</v>
       </c>
       <c r="AL71" s="11">
-        <v>104021718</v>
+        <v>86655052</v>
       </c>
       <c r="AM71" s="11">
-        <v>86655052</v>
-      </c>
-      <c r="AN71" s="11">
         <v>96953203</v>
       </c>
+      <c r="AN71" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AO71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP71" s="11" t="s">
-        <v>57</v>
+      <c r="AP71" s="11">
+        <v>88153641</v>
       </c>
       <c r="AQ71" s="11">
-        <v>88153641</v>
+        <v>92362275</v>
       </c>
       <c r="AR71" s="11">
-        <v>92362275</v>
+        <v>116132411</v>
       </c>
       <c r="AS71" s="11">
-        <v>116132411</v>
+        <v>156477769</v>
       </c>
       <c r="AT71" s="11">
-        <v>156477769</v>
+        <v>153555318</v>
       </c>
       <c r="AU71" s="11">
-        <v>153555318</v>
+        <v>81097095</v>
       </c>
       <c r="AV71" s="11">
-        <v>81097095</v>
+        <v>71412680</v>
       </c>
       <c r="AW71" s="11">
-        <v>71412680</v>
+        <v>56027372</v>
       </c>
       <c r="AX71" s="11">
-        <v>56027372</v>
+        <v>115468718</v>
       </c>
       <c r="AY71" s="11">
-        <v>115468718</v>
+        <v>119833964</v>
       </c>
       <c r="AZ71" s="11">
-        <v>119833964</v>
+        <v>123481404</v>
       </c>
       <c r="BA71" s="11">
-        <v>123481404</v>
-      </c>
-      <c r="BB71" s="11">
         <v>64922372</v>
+      </c>
+      <c r="BB71" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -8924,28 +8924,28 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>1200098</v>
+        <v>1200000</v>
       </c>
       <c r="F72" s="13">
-        <v>1200000</v>
+        <v>1200299</v>
       </c>
       <c r="G72" s="13">
-        <v>1200299</v>
+        <v>753623</v>
       </c>
       <c r="H72" s="13">
-        <v>753623</v>
+        <v>0</v>
       </c>
       <c r="I72" s="13">
-        <v>0</v>
+        <v>1862053</v>
       </c>
       <c r="J72" s="13">
-        <v>1862053</v>
+        <v>1400266</v>
       </c>
       <c r="K72" s="13">
-        <v>1400266</v>
+        <v>1400000</v>
       </c>
       <c r="L72" s="13">
-        <v>1400000</v>
+        <v>0</v>
       </c>
       <c r="M72" s="13">
         <v>0</v>
@@ -8954,28 +8954,28 @@
         <v>0</v>
       </c>
       <c r="O72" s="13">
-        <v>0</v>
+        <v>2299992</v>
       </c>
       <c r="P72" s="13">
-        <v>2299992</v>
+        <v>2300063</v>
       </c>
       <c r="Q72" s="13">
-        <v>2300063</v>
+        <v>0</v>
       </c>
       <c r="R72" s="13">
         <v>0</v>
       </c>
       <c r="S72" s="13">
-        <v>0</v>
+        <v>2600303</v>
       </c>
       <c r="T72" s="13">
-        <v>2600303</v>
+        <v>0</v>
       </c>
       <c r="U72" s="13">
-        <v>0</v>
-      </c>
-      <c r="V72" s="13">
         <v>2241919</v>
+      </c>
+      <c r="V72" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="W72" s="13" t="s">
         <v>57</v>
@@ -9199,20 +9199,20 @@
       <c r="X74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y74" s="11" t="s">
-        <v>57</v>
+      <c r="Y74" s="11">
+        <v>0</v>
       </c>
       <c r="Z74" s="11">
         <v>0</v>
       </c>
       <c r="AA74" s="11">
-        <v>0</v>
+        <v>4546617</v>
       </c>
       <c r="AB74" s="11">
-        <v>4546617</v>
+        <v>7932803</v>
       </c>
       <c r="AC74" s="11">
-        <v>7932803</v>
+        <v>0</v>
       </c>
       <c r="AD74" s="11">
         <v>0</v>
@@ -9221,34 +9221,34 @@
         <v>0</v>
       </c>
       <c r="AF74" s="11">
-        <v>0</v>
+        <v>4296524</v>
       </c>
       <c r="AG74" s="11">
-        <v>4296524</v>
+        <v>4300353</v>
       </c>
       <c r="AH74" s="11">
-        <v>4300353</v>
+        <v>0</v>
       </c>
       <c r="AI74" s="11">
-        <v>0</v>
+        <v>8400270</v>
       </c>
       <c r="AJ74" s="11">
-        <v>8400270</v>
+        <v>0</v>
       </c>
       <c r="AK74" s="11">
         <v>0</v>
       </c>
       <c r="AL74" s="11">
-        <v>0</v>
+        <v>9174773</v>
       </c>
       <c r="AM74" s="11">
-        <v>9174773</v>
+        <v>0</v>
       </c>
       <c r="AN74" s="11">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="AO74" s="11">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="AP74" s="11">
         <v>0</v>
@@ -9260,34 +9260,34 @@
         <v>0</v>
       </c>
       <c r="AS74" s="11">
-        <v>0</v>
+        <v>11000306</v>
       </c>
       <c r="AT74" s="11">
-        <v>11000306</v>
+        <v>0</v>
       </c>
       <c r="AU74" s="11">
         <v>0</v>
       </c>
       <c r="AV74" s="11">
-        <v>0</v>
+        <v>14000200</v>
       </c>
       <c r="AW74" s="11">
-        <v>14000200</v>
+        <v>0</v>
       </c>
       <c r="AX74" s="11">
-        <v>0</v>
+        <v>14000399</v>
       </c>
       <c r="AY74" s="11">
-        <v>14000399</v>
+        <v>13999833</v>
       </c>
       <c r="AZ74" s="11">
-        <v>13999833</v>
+        <v>0</v>
       </c>
       <c r="BA74" s="11">
         <v>0</v>
       </c>
       <c r="BB74" s="11">
-        <v>0</v>
+        <v>14001091</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/felezat/kimia/product/monthly.xlsx
+++ b/database/industries/felezat/kimia/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A91F19-756D-4B99-B81D-ED9256FBEEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0403195C-5243-405C-BCD2-F29E0D0F0289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>شمش روی</t>
@@ -733,12 +733,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -793,7 +793,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -962,7 +962,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1131,7 +1131,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1343,7 +1343,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1411,14 +1411,14 @@
       <c r="E11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>57</v>
+      <c r="F11" s="11">
+        <v>819</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
       </c>
       <c r="H11" s="11">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
@@ -1427,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="11">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="L11" s="11">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="M11" s="11">
-        <v>318</v>
+        <v>6</v>
       </c>
       <c r="N11" s="11">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="O11" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P11" s="11">
         <v>0</v>
@@ -1502,64 +1502,64 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="11">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AK11" s="11">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="AL11" s="11">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="AM11" s="11">
-        <v>268</v>
+        <v>538</v>
       </c>
       <c r="AN11" s="11">
-        <v>122</v>
+        <v>689</v>
       </c>
       <c r="AO11" s="11">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="11">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="11">
         <v>0</v>
       </c>
       <c r="AR11" s="11">
-        <v>-111</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AT11" s="11">
         <v>0</v>
       </c>
       <c r="AU11" s="11">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="11">
         <v>0</v>
       </c>
       <c r="AW11" s="11">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AX11" s="11">
         <v>0</v>
       </c>
       <c r="AY11" s="11">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="11">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BA11" s="11">
         <v>0</v>
       </c>
       <c r="BB11" s="11">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1568,13 +1568,13 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F12" s="13">
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H12" s="13">
         <v>0</v>
@@ -1583,19 +1583,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="13">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K12" s="13">
         <v>0</v>
       </c>
       <c r="L12" s="13">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="M12" s="13">
         <v>0</v>
       </c>
       <c r="N12" s="13">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="O12" s="13">
         <v>0</v>
@@ -1610,52 +1610,52 @@
         <v>0</v>
       </c>
       <c r="S12" s="13">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="T12" s="13">
         <v>0</v>
       </c>
       <c r="U12" s="13">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="V12" s="13">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="W12" s="13">
         <v>0</v>
       </c>
       <c r="X12" s="13">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z12" s="13">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AA12" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="13">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AD12" s="13">
         <v>0</v>
       </c>
       <c r="AE12" s="13">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="AF12" s="13">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AG12" s="13">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="13">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="13">
         <v>0</v>
@@ -1664,22 +1664,22 @@
         <v>0</v>
       </c>
       <c r="AK12" s="13">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="AL12" s="13">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AM12" s="13">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="AN12" s="13">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="AO12" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="13">
         <v>0</v>
@@ -1688,37 +1688,37 @@
         <v>0</v>
       </c>
       <c r="AS12" s="13">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AT12" s="13">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AU12" s="13">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="13">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="AW12" s="13">
         <v>0</v>
       </c>
       <c r="AX12" s="13">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="AY12" s="13">
         <v>0</v>
       </c>
       <c r="AZ12" s="13">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="BA12" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BB12" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1727,37 +1727,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>0</v>
+        <v>1227</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>2277</v>
       </c>
       <c r="G13" s="11">
-        <v>1227</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>2277</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="J13" s="11">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="K13" s="11">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="L13" s="11">
-        <v>482</v>
+        <v>3238</v>
       </c>
       <c r="M13" s="11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N13" s="11">
-        <v>3238</v>
+        <v>0</v>
       </c>
       <c r="O13" s="11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="11">
         <v>0</v>
@@ -1787,34 +1787,34 @@
         <v>0</v>
       </c>
       <c r="Y13" s="11">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="Z13" s="11">
-        <v>0</v>
+        <v>2091</v>
       </c>
       <c r="AA13" s="11">
-        <v>626</v>
+        <v>2091</v>
       </c>
       <c r="AB13" s="11">
-        <v>2091</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="11">
-        <v>2091</v>
+        <v>1858</v>
       </c>
       <c r="AD13" s="11">
         <v>0</v>
       </c>
       <c r="AE13" s="11">
-        <v>1858</v>
+        <v>483</v>
       </c>
       <c r="AF13" s="11">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="AG13" s="11">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="11">
-        <v>558</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="11">
         <v>0</v>
@@ -1823,61 +1823,61 @@
         <v>0</v>
       </c>
       <c r="AK13" s="11">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="AL13" s="11">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="AM13" s="11">
-        <v>940</v>
+        <v>103</v>
       </c>
       <c r="AN13" s="11">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AO13" s="11">
-        <v>103</v>
+        <v>364</v>
       </c>
       <c r="AP13" s="11">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AQ13" s="11">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="AR13" s="11">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="AS13" s="11">
-        <v>100</v>
+        <v>1121</v>
       </c>
       <c r="AT13" s="11">
-        <v>213</v>
+        <v>446</v>
       </c>
       <c r="AU13" s="11">
-        <v>1121</v>
+        <v>271</v>
       </c>
       <c r="AV13" s="11">
-        <v>446</v>
+        <v>1229</v>
       </c>
       <c r="AW13" s="11">
-        <v>271</v>
+        <v>1288</v>
       </c>
       <c r="AX13" s="11">
-        <v>1229</v>
+        <v>873</v>
       </c>
       <c r="AY13" s="11">
-        <v>1288</v>
+        <v>866</v>
       </c>
       <c r="AZ13" s="11">
-        <v>873</v>
+        <v>604</v>
       </c>
       <c r="BA13" s="11">
-        <v>866</v>
+        <v>1957</v>
       </c>
       <c r="BB13" s="11">
-        <v>604</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1886,157 +1886,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="F14" s="13">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="G14" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H14" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I14" s="13">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="J14" s="13">
-        <v>10</v>
+        <v>441</v>
       </c>
       <c r="K14" s="13">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="L14" s="13">
-        <v>441</v>
+        <v>59</v>
       </c>
       <c r="M14" s="13">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="N14" s="13">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="O14" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="P14" s="13">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="13">
-        <v>29</v>
+        <v>316</v>
       </c>
       <c r="R14" s="13">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="S14" s="13">
-        <v>316</v>
+        <v>125</v>
       </c>
       <c r="T14" s="13">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="U14" s="13">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="V14" s="13">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="W14" s="13">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="X14" s="13">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="Y14" s="13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="13">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="13">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="AB14" s="13">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="AC14" s="13">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="AD14" s="13">
-        <v>192</v>
+        <v>460</v>
       </c>
       <c r="AE14" s="13">
+        <v>218</v>
+      </c>
+      <c r="AF14" s="13">
         <v>14</v>
       </c>
-      <c r="AF14" s="13">
-        <v>460</v>
-      </c>
       <c r="AG14" s="13">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="AH14" s="13">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="AI14" s="13">
+        <v>187</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>174</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>276</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>145</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>470</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>366</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>108</v>
+      </c>
+      <c r="AS14" s="13">
         <v>109</v>
       </c>
-      <c r="AJ14" s="13">
-        <v>155</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>187</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>174</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>276</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>145</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>470</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>366</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>0</v>
-      </c>
       <c r="AT14" s="13">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="AU14" s="13">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="AV14" s="13">
-        <v>306</v>
+        <v>118</v>
       </c>
       <c r="AW14" s="13">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="AX14" s="13">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AY14" s="13">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="13">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="BA14" s="13">
         <v>0</v>
       </c>
       <c r="BB14" s="13">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2045,157 +2045,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>5729</v>
+        <v>2293</v>
       </c>
       <c r="F15" s="11">
-        <v>2357</v>
+        <v>3029</v>
       </c>
       <c r="G15" s="11">
-        <v>2293</v>
+        <v>0</v>
       </c>
       <c r="H15" s="11">
-        <v>3029</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="J15" s="11">
-        <v>0</v>
+        <v>4385</v>
       </c>
       <c r="K15" s="11">
-        <v>2044</v>
+        <v>6788</v>
       </c>
       <c r="L15" s="11">
-        <v>4385</v>
+        <v>251</v>
       </c>
       <c r="M15" s="11">
-        <v>6788</v>
+        <v>613</v>
       </c>
       <c r="N15" s="11">
-        <v>251</v>
+        <v>2788</v>
       </c>
       <c r="O15" s="11">
-        <v>613</v>
+        <v>1209</v>
       </c>
       <c r="P15" s="11">
-        <v>2788</v>
+        <v>1446</v>
       </c>
       <c r="Q15" s="11">
-        <v>1209</v>
+        <v>5718</v>
       </c>
       <c r="R15" s="11">
-        <v>1446</v>
+        <v>2340</v>
       </c>
       <c r="S15" s="11">
-        <v>5718</v>
+        <v>3391</v>
       </c>
       <c r="T15" s="11">
-        <v>2340</v>
+        <v>1910</v>
       </c>
       <c r="U15" s="11">
-        <v>3391</v>
+        <v>5466</v>
       </c>
       <c r="V15" s="11">
-        <v>1910</v>
+        <v>1670</v>
       </c>
       <c r="W15" s="11">
-        <v>5466</v>
+        <v>3654</v>
       </c>
       <c r="X15" s="11">
-        <v>1670</v>
+        <v>1150</v>
       </c>
       <c r="Y15" s="11">
-        <v>3654</v>
+        <v>571</v>
       </c>
       <c r="Z15" s="11">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="11">
-        <v>571</v>
+        <v>3382</v>
       </c>
       <c r="AB15" s="11">
-        <v>0</v>
+        <v>2732</v>
       </c>
       <c r="AC15" s="11">
-        <v>3382</v>
+        <v>5532</v>
       </c>
       <c r="AD15" s="11">
-        <v>2732</v>
+        <v>9254</v>
       </c>
       <c r="AE15" s="11">
-        <v>5532</v>
+        <v>9021</v>
       </c>
       <c r="AF15" s="11">
-        <v>9254</v>
+        <v>3122</v>
       </c>
       <c r="AG15" s="11">
-        <v>9021</v>
+        <v>3127</v>
       </c>
       <c r="AH15" s="11">
-        <v>3122</v>
+        <v>3596</v>
       </c>
       <c r="AI15" s="11">
-        <v>3127</v>
+        <v>4363</v>
       </c>
       <c r="AJ15" s="11">
-        <v>3596</v>
+        <v>4027</v>
       </c>
       <c r="AK15" s="11">
-        <v>4363</v>
+        <v>9373</v>
       </c>
       <c r="AL15" s="11">
-        <v>4027</v>
+        <v>3271</v>
       </c>
       <c r="AM15" s="11">
-        <v>9373</v>
+        <v>646</v>
       </c>
       <c r="AN15" s="11">
-        <v>3271</v>
+        <v>758</v>
       </c>
       <c r="AO15" s="11">
-        <v>646</v>
+        <v>1866</v>
       </c>
       <c r="AP15" s="11">
-        <v>758</v>
+        <v>3050</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1866</v>
+        <v>4602</v>
       </c>
       <c r="AR15" s="11">
-        <v>6463</v>
+        <v>3982</v>
       </c>
       <c r="AS15" s="11">
-        <v>4602</v>
+        <v>2418</v>
       </c>
       <c r="AT15" s="11">
-        <v>3982</v>
+        <v>3872</v>
       </c>
       <c r="AU15" s="11">
-        <v>2418</v>
+        <v>1784</v>
       </c>
       <c r="AV15" s="11">
-        <v>3872</v>
+        <v>1147</v>
       </c>
       <c r="AW15" s="11">
-        <v>1784</v>
+        <v>7063</v>
       </c>
       <c r="AX15" s="11">
-        <v>1147</v>
+        <v>954</v>
       </c>
       <c r="AY15" s="11">
-        <v>7063</v>
+        <v>1676</v>
       </c>
       <c r="AZ15" s="11">
-        <v>954</v>
+        <v>1045</v>
       </c>
       <c r="BA15" s="11">
-        <v>1676</v>
+        <v>180</v>
       </c>
       <c r="BB15" s="11">
-        <v>1045</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2204,64 +2204,64 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>1335</v>
+        <v>690</v>
       </c>
       <c r="F16" s="13">
-        <v>2676</v>
+        <v>0</v>
       </c>
       <c r="G16" s="13">
-        <v>690</v>
+        <v>28366</v>
       </c>
       <c r="H16" s="13">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="I16" s="13">
-        <v>28366</v>
+        <v>545</v>
       </c>
       <c r="J16" s="13">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="K16" s="13">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="L16" s="13">
         <v>0</v>
       </c>
       <c r="M16" s="13">
-        <v>0</v>
+        <v>13267</v>
       </c>
       <c r="N16" s="13">
-        <v>0</v>
+        <v>7875</v>
       </c>
       <c r="O16" s="13">
-        <v>13267</v>
+        <v>0</v>
       </c>
       <c r="P16" s="13">
-        <v>7875</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="13">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="R16" s="13">
         <v>0</v>
       </c>
       <c r="S16" s="13">
-        <v>1321</v>
+        <v>9652</v>
       </c>
       <c r="T16" s="13">
         <v>0</v>
       </c>
       <c r="U16" s="13">
-        <v>9652</v>
+        <v>0</v>
       </c>
       <c r="V16" s="13">
         <v>0</v>
       </c>
-      <c r="W16" s="13">
-        <v>0</v>
-      </c>
-      <c r="X16" s="13">
-        <v>0</v>
+      <c r="W16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Y16" s="13" t="s">
         <v>57</v>
@@ -2354,7 +2354,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>63</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>62</v>
       </c>
@@ -2473,104 +2473,104 @@
       <c r="V18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>57</v>
+      <c r="W18" s="11">
+        <v>0</v>
+      </c>
+      <c r="X18" s="11">
+        <v>0</v>
       </c>
       <c r="Y18" s="11">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="Z18" s="11">
-        <v>0</v>
+        <v>12188</v>
       </c>
       <c r="AA18" s="11">
-        <v>34633</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="11">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="11">
         <v>0</v>
       </c>
       <c r="AD18" s="11">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AE18" s="11">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="AF18" s="11">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="11">
-        <v>283</v>
-      </c>
-      <c r="AH18" s="11">
-        <v>0</v>
+        <v>10368</v>
+      </c>
+      <c r="AH18" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI18" s="11">
-        <v>10368</v>
-      </c>
-      <c r="AJ18" s="11" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="11">
+        <v>24260</v>
       </c>
       <c r="AK18" s="11">
         <v>0</v>
       </c>
       <c r="AL18" s="11">
-        <v>24260</v>
+        <v>12495</v>
       </c>
       <c r="AM18" s="11">
         <v>0</v>
       </c>
-      <c r="AN18" s="11">
-        <v>12495</v>
-      </c>
-      <c r="AO18" s="11">
-        <v>0</v>
+      <c r="AN18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO18" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="11">
+      <c r="AQ18" s="11">
         <v>13055</v>
       </c>
-      <c r="AT18" s="11" t="s">
-        <v>57</v>
+      <c r="AR18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT18" s="11">
+        <v>20026</v>
       </c>
       <c r="AU18" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AV18" s="11">
-        <v>20026</v>
-      </c>
-      <c r="AW18" s="11" t="s">
-        <v>57</v>
+        <v>5008</v>
+      </c>
+      <c r="AW18" s="11">
+        <v>5995</v>
       </c>
       <c r="AX18" s="11">
-        <v>5008</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="11">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="11">
-        <v>0</v>
+        <v>5499</v>
       </c>
       <c r="BA18" s="11">
         <v>0</v>
       </c>
       <c r="BB18" s="11">
-        <v>5499</v>
+        <v>11513</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>64</v>
       </c>
@@ -2630,11 +2630,11 @@
       <c r="V19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>57</v>
+      <c r="W19" s="15">
+        <v>0</v>
+      </c>
+      <c r="X19" s="15">
+        <v>0</v>
       </c>
       <c r="Y19" s="15">
         <v>0</v>
@@ -2727,164 +2727,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17">
-        <v>7358</v>
+        <v>4256</v>
       </c>
       <c r="F20" s="17">
-        <v>5250</v>
+        <v>6125</v>
       </c>
       <c r="G20" s="17">
-        <v>4256</v>
+        <v>28366</v>
       </c>
       <c r="H20" s="17">
-        <v>6125</v>
+        <v>762</v>
       </c>
       <c r="I20" s="17">
-        <v>28366</v>
+        <v>3055</v>
       </c>
       <c r="J20" s="17">
-        <v>762</v>
+        <v>5361</v>
       </c>
       <c r="K20" s="17">
-        <v>3055</v>
+        <v>7342</v>
       </c>
       <c r="L20" s="17">
-        <v>5361</v>
+        <v>3933</v>
       </c>
       <c r="M20" s="17">
-        <v>7342</v>
+        <v>14886</v>
       </c>
       <c r="N20" s="17">
-        <v>3933</v>
+        <v>10812</v>
       </c>
       <c r="O20" s="17">
-        <v>14886</v>
+        <v>1238</v>
       </c>
       <c r="P20" s="17">
-        <v>10812</v>
+        <v>1510</v>
       </c>
       <c r="Q20" s="17">
-        <v>1238</v>
+        <v>7355</v>
       </c>
       <c r="R20" s="17">
-        <v>1510</v>
+        <v>2548</v>
       </c>
       <c r="S20" s="17">
-        <v>7355</v>
+        <v>13277</v>
       </c>
       <c r="T20" s="17">
-        <v>2548</v>
+        <v>2213</v>
       </c>
       <c r="U20" s="17">
-        <v>13277</v>
+        <v>5668</v>
       </c>
       <c r="V20" s="17">
-        <v>2213</v>
+        <v>2070</v>
       </c>
       <c r="W20" s="17">
-        <v>5668</v>
+        <v>3739</v>
       </c>
       <c r="X20" s="17">
-        <v>2070</v>
+        <v>1402</v>
       </c>
       <c r="Y20" s="17">
-        <v>3739</v>
+        <v>35836</v>
       </c>
       <c r="Z20" s="17">
-        <v>1402</v>
+        <v>14296</v>
       </c>
       <c r="AA20" s="17">
-        <v>35836</v>
+        <v>5697</v>
       </c>
       <c r="AB20" s="17">
-        <v>14296</v>
+        <v>2924</v>
       </c>
       <c r="AC20" s="17">
-        <v>5697</v>
+        <v>7473</v>
       </c>
       <c r="AD20" s="17">
-        <v>2924</v>
+        <v>10203</v>
       </c>
       <c r="AE20" s="17">
-        <v>7473</v>
+        <v>10196</v>
       </c>
       <c r="AF20" s="17">
-        <v>10203</v>
+        <v>3801</v>
       </c>
       <c r="AG20" s="17">
-        <v>10196</v>
+        <v>13604</v>
       </c>
       <c r="AH20" s="17">
-        <v>3801</v>
+        <v>3751</v>
       </c>
       <c r="AI20" s="17">
-        <v>13604</v>
+        <v>4550</v>
       </c>
       <c r="AJ20" s="17">
-        <v>3751</v>
+        <v>28671</v>
       </c>
       <c r="AK20" s="17">
-        <v>4550</v>
+        <v>11081</v>
       </c>
       <c r="AL20" s="17">
-        <v>28671</v>
+        <v>16546</v>
       </c>
       <c r="AM20" s="17">
-        <v>11081</v>
+        <v>1309</v>
       </c>
       <c r="AN20" s="17">
-        <v>16546</v>
+        <v>1689</v>
       </c>
       <c r="AO20" s="17">
-        <v>1309</v>
+        <v>2700</v>
       </c>
       <c r="AP20" s="17">
-        <v>1689</v>
+        <v>3500</v>
       </c>
       <c r="AQ20" s="17">
-        <v>2700</v>
+        <v>17757</v>
       </c>
       <c r="AR20" s="17">
-        <v>6802</v>
+        <v>4303</v>
       </c>
       <c r="AS20" s="17">
-        <v>17757</v>
+        <v>3879</v>
       </c>
       <c r="AT20" s="17">
-        <v>4303</v>
+        <v>24753</v>
       </c>
       <c r="AU20" s="17">
-        <v>3879</v>
+        <v>2244</v>
       </c>
       <c r="AV20" s="17">
-        <v>24753</v>
+        <v>7586</v>
       </c>
       <c r="AW20" s="17">
-        <v>2244</v>
+        <v>15223</v>
       </c>
       <c r="AX20" s="17">
-        <v>7586</v>
+        <v>1975</v>
       </c>
       <c r="AY20" s="17">
-        <v>15223</v>
+        <v>2542</v>
       </c>
       <c r="AZ20" s="17">
-        <v>1975</v>
+        <v>7253</v>
       </c>
       <c r="BA20" s="17">
-        <v>2542</v>
+        <v>2145</v>
       </c>
       <c r="BB20" s="17">
-        <v>7253</v>
+        <v>12310</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2939,7 +2939,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2994,7 +2994,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3049,7 +3049,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>66</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3261,7 +3261,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>66</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>55</v>
       </c>
@@ -3329,35 +3329,35 @@
       <c r="E27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>57</v>
+      <c r="F27" s="11">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <v>811</v>
       </c>
       <c r="H27" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I27" s="11">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="J27" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K27" s="11">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L27" s="11">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M27" s="11">
-        <v>150</v>
+        <v>296</v>
       </c>
       <c r="N27" s="11">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="O27" s="11">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="P27" s="11">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="Y27" s="11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z27" s="11">
         <v>0</v>
       </c>
       <c r="AA27" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="11">
         <v>0</v>
@@ -3420,64 +3420,64 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="11">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AK27" s="11">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="AL27" s="11">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="AM27" s="11">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="AN27" s="11">
-        <v>122</v>
+        <v>271</v>
       </c>
       <c r="AO27" s="11">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="11">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="AQ27" s="11">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="AR27" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="11">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="AT27" s="11">
         <v>0</v>
       </c>
       <c r="AU27" s="11">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AV27" s="11">
         <v>0</v>
       </c>
       <c r="AW27" s="11">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AX27" s="11">
         <v>0</v>
       </c>
       <c r="AY27" s="11">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="11">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BA27" s="11">
         <v>0</v>
       </c>
       <c r="BB27" s="11">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>58</v>
       </c>
@@ -3522,34 +3522,34 @@
         <v>0</v>
       </c>
       <c r="Q28" s="13">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="R28" s="13">
         <v>0</v>
       </c>
       <c r="S28" s="13">
-        <v>52</v>
+        <v>304</v>
       </c>
       <c r="T28" s="13">
         <v>0</v>
       </c>
       <c r="U28" s="13">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="V28" s="13">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="W28" s="13">
         <v>0</v>
       </c>
       <c r="X28" s="13">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="Y28" s="13">
         <v>0</v>
       </c>
       <c r="Z28" s="13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="13">
         <v>0</v>
@@ -3564,13 +3564,13 @@
         <v>0</v>
       </c>
       <c r="AE28" s="13">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AF28" s="13">
         <v>0</v>
       </c>
       <c r="AG28" s="13">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="13">
         <v>0</v>
@@ -3582,28 +3582,28 @@
         <v>0</v>
       </c>
       <c r="AK28" s="13">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AL28" s="13">
         <v>0</v>
       </c>
       <c r="AM28" s="13">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="13">
         <v>0</v>
       </c>
       <c r="AO28" s="13">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AP28" s="13">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AQ28" s="13">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="13">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AS28" s="13">
         <v>0</v>
@@ -3618,16 +3618,16 @@
         <v>0</v>
       </c>
       <c r="AW28" s="13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AX28" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AY28" s="13">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="13">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>59</v>
       </c>
@@ -3720,49 +3720,49 @@
         <v>0</v>
       </c>
       <c r="AD29" s="11">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AE29" s="11">
-        <v>0</v>
+        <v>5470</v>
       </c>
       <c r="AF29" s="11">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="11">
+        <v>184</v>
+      </c>
+      <c r="AL29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="11">
         <v>5470</v>
       </c>
-      <c r="AH29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="11">
-        <v>184</v>
-      </c>
-      <c r="AN29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="11">
-        <v>0</v>
-      </c>
       <c r="AQ29" s="11">
         <v>0</v>
       </c>
       <c r="AR29" s="11">
-        <v>5470</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="11">
         <v>0</v>
@@ -3777,25 +3777,25 @@
         <v>0</v>
       </c>
       <c r="AW29" s="11">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="AX29" s="11">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AY29" s="11">
-        <v>4300</v>
+        <v>1300</v>
       </c>
       <c r="AZ29" s="11">
-        <v>2500</v>
+        <v>522</v>
       </c>
       <c r="BA29" s="11">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="BB29" s="11">
-        <v>522</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>60</v>
       </c>
@@ -3804,22 +3804,22 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="F30" s="13">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="G30" s="13">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="H30" s="13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I30" s="13">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="J30" s="13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K30" s="13">
         <v>0</v>
@@ -3840,37 +3840,37 @@
         <v>0</v>
       </c>
       <c r="Q30" s="13">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="R30" s="13">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="S30" s="13">
-        <v>466</v>
+        <v>298</v>
       </c>
       <c r="T30" s="13">
-        <v>651</v>
+        <v>561</v>
       </c>
       <c r="U30" s="13">
-        <v>298</v>
+        <v>158</v>
       </c>
       <c r="V30" s="13">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="W30" s="13">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="X30" s="13">
-        <v>588</v>
+        <v>254</v>
       </c>
       <c r="Y30" s="13">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="Z30" s="13">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="13">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="13">
         <v>0</v>
@@ -3879,25 +3879,25 @@
         <v>0</v>
       </c>
       <c r="AD30" s="13">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AE30" s="13">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AF30" s="13">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="13">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="13">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="AI30" s="13">
         <v>0</v>
       </c>
       <c r="AJ30" s="13">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="13">
         <v>0</v>
@@ -3912,40 +3912,40 @@
         <v>0</v>
       </c>
       <c r="AO30" s="13">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="AP30" s="13">
         <v>0</v>
       </c>
       <c r="AQ30" s="13">
-        <v>1530</v>
+        <v>190</v>
       </c>
       <c r="AR30" s="13">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AS30" s="13">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="13">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="AU30" s="13">
         <v>0</v>
       </c>
       <c r="AV30" s="13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="13">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AX30" s="13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AY30" s="13">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="13">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>61</v>
       </c>
@@ -3963,157 +3963,157 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>1917</v>
+        <v>2979</v>
       </c>
       <c r="F31" s="11">
-        <v>5986</v>
+        <v>4904</v>
       </c>
       <c r="G31" s="11">
-        <v>2979</v>
+        <v>3465</v>
       </c>
       <c r="H31" s="11">
-        <v>4904</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="J31" s="11">
-        <v>0</v>
+        <v>5984</v>
       </c>
       <c r="K31" s="11">
-        <v>0</v>
+        <v>1137</v>
       </c>
       <c r="L31" s="11">
-        <v>5984</v>
+        <v>3336</v>
       </c>
       <c r="M31" s="11">
-        <v>1137</v>
+        <v>1837</v>
       </c>
       <c r="N31" s="11">
-        <v>3336</v>
+        <v>711</v>
       </c>
       <c r="O31" s="11">
-        <v>1837</v>
+        <v>3022</v>
       </c>
       <c r="P31" s="11">
-        <v>711</v>
+        <v>2303</v>
       </c>
       <c r="Q31" s="11">
-        <v>3022</v>
+        <v>3328</v>
       </c>
       <c r="R31" s="11">
-        <v>2303</v>
+        <v>5264</v>
       </c>
       <c r="S31" s="11">
-        <v>3328</v>
+        <v>2569</v>
       </c>
       <c r="T31" s="11">
-        <v>5264</v>
+        <v>0</v>
       </c>
       <c r="U31" s="11">
-        <v>2569</v>
+        <v>3136</v>
       </c>
       <c r="V31" s="11">
-        <v>0</v>
+        <v>2904</v>
       </c>
       <c r="W31" s="11">
-        <v>3136</v>
+        <v>4516</v>
       </c>
       <c r="X31" s="11">
-        <v>2904</v>
+        <v>3673</v>
       </c>
       <c r="Y31" s="11">
-        <v>4516</v>
+        <v>202</v>
       </c>
       <c r="Z31" s="11">
-        <v>3673</v>
+        <v>1313</v>
       </c>
       <c r="AA31" s="11">
-        <v>202</v>
+        <v>2016</v>
       </c>
       <c r="AB31" s="11">
-        <v>1313</v>
+        <v>2751</v>
       </c>
       <c r="AC31" s="11">
-        <v>2016</v>
+        <v>5995</v>
       </c>
       <c r="AD31" s="11">
-        <v>2751</v>
+        <v>10745</v>
       </c>
       <c r="AE31" s="11">
-        <v>5995</v>
+        <v>7406</v>
       </c>
       <c r="AF31" s="11">
-        <v>10745</v>
+        <v>3455</v>
       </c>
       <c r="AG31" s="11">
-        <v>7406</v>
+        <v>3233</v>
       </c>
       <c r="AH31" s="11">
-        <v>3455</v>
+        <v>2884</v>
       </c>
       <c r="AI31" s="11">
-        <v>3233</v>
+        <v>4190</v>
       </c>
       <c r="AJ31" s="11">
-        <v>2884</v>
+        <v>3157</v>
       </c>
       <c r="AK31" s="11">
-        <v>4190</v>
+        <v>8633</v>
       </c>
       <c r="AL31" s="11">
-        <v>3157</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="11">
-        <v>8633</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="11">
-        <v>0</v>
+        <v>3749</v>
       </c>
       <c r="AO31" s="11">
-        <v>0</v>
+        <v>1670</v>
       </c>
       <c r="AP31" s="11">
-        <v>3749</v>
+        <v>2530</v>
       </c>
       <c r="AQ31" s="11">
-        <v>1670</v>
+        <v>4948</v>
       </c>
       <c r="AR31" s="11">
-        <v>2530</v>
+        <v>4203</v>
       </c>
       <c r="AS31" s="11">
-        <v>4948</v>
+        <v>1205</v>
       </c>
       <c r="AT31" s="11">
-        <v>4203</v>
+        <v>1735</v>
       </c>
       <c r="AU31" s="11">
-        <v>1205</v>
+        <v>2192</v>
       </c>
       <c r="AV31" s="11">
-        <v>1735</v>
+        <v>2893</v>
       </c>
       <c r="AW31" s="11">
-        <v>2192</v>
+        <v>4493</v>
       </c>
       <c r="AX31" s="11">
-        <v>2893</v>
+        <v>1425</v>
       </c>
       <c r="AY31" s="11">
-        <v>4493</v>
+        <v>1636</v>
       </c>
       <c r="AZ31" s="11">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="11">
-        <v>1636</v>
+        <v>974</v>
       </c>
       <c r="BB31" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>62</v>
       </c>
@@ -4122,64 +4122,64 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>1335</v>
+        <v>690</v>
       </c>
       <c r="F32" s="13">
-        <v>2676</v>
+        <v>0</v>
       </c>
       <c r="G32" s="13">
-        <v>690</v>
+        <v>28366</v>
       </c>
       <c r="H32" s="13">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="I32" s="13">
-        <v>28366</v>
+        <v>545</v>
       </c>
       <c r="J32" s="13">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="K32" s="13">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="L32" s="13">
         <v>0</v>
       </c>
       <c r="M32" s="13">
-        <v>0</v>
+        <v>13267</v>
       </c>
       <c r="N32" s="13">
-        <v>0</v>
+        <v>7875</v>
       </c>
       <c r="O32" s="13">
-        <v>13267</v>
+        <v>0</v>
       </c>
       <c r="P32" s="13">
-        <v>7875</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="13">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="R32" s="13">
         <v>0</v>
       </c>
       <c r="S32" s="13">
-        <v>1321</v>
+        <v>9652</v>
       </c>
       <c r="T32" s="13">
         <v>0</v>
       </c>
       <c r="U32" s="13">
-        <v>9652</v>
+        <v>0</v>
       </c>
       <c r="V32" s="13">
         <v>0</v>
       </c>
-      <c r="W32" s="13">
-        <v>0</v>
-      </c>
-      <c r="X32" s="13">
-        <v>0</v>
+      <c r="W32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Y32" s="13" t="s">
         <v>57</v>
@@ -4272,7 +4272,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>63</v>
       </c>
@@ -4329,7 +4329,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>62</v>
       </c>
@@ -4391,104 +4391,104 @@
       <c r="V34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X34" s="11" t="s">
-        <v>57</v>
+      <c r="W34" s="11">
+        <v>0</v>
+      </c>
+      <c r="X34" s="11">
+        <v>0</v>
       </c>
       <c r="Y34" s="11">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="Z34" s="11">
-        <v>0</v>
+        <v>12188</v>
       </c>
       <c r="AA34" s="11">
-        <v>34633</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="11">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="11">
         <v>0</v>
       </c>
       <c r="AD34" s="11">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AE34" s="11">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="AF34" s="11">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="11">
-        <v>283</v>
-      </c>
-      <c r="AH34" s="11">
-        <v>0</v>
+        <v>10368</v>
+      </c>
+      <c r="AH34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI34" s="11">
-        <v>10368</v>
-      </c>
-      <c r="AJ34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK34" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="11">
+        <v>24260</v>
+      </c>
+      <c r="AK34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AL34" s="11">
-        <v>24260</v>
-      </c>
-      <c r="AM34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN34" s="11">
         <v>12495</v>
       </c>
-      <c r="AO34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="11">
+      <c r="AM34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="11">
         <v>13055</v>
       </c>
-      <c r="AT34" s="11" t="s">
-        <v>57</v>
+      <c r="AR34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT34" s="11">
+        <v>20026</v>
       </c>
       <c r="AU34" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AV34" s="11">
-        <v>20026</v>
-      </c>
-      <c r="AW34" s="11" t="s">
-        <v>57</v>
+        <v>5008</v>
+      </c>
+      <c r="AW34" s="11">
+        <v>5995</v>
       </c>
       <c r="AX34" s="11">
-        <v>5008</v>
-      </c>
-      <c r="AY34" s="11">
-        <v>5995</v>
+        <v>0</v>
+      </c>
+      <c r="AY34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AZ34" s="11">
-        <v>0</v>
+        <v>5499</v>
       </c>
       <c r="BA34" s="11" t="s">
         <v>57</v>
       </c>
       <c r="BB34" s="11">
-        <v>5499</v>
+        <v>11513</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>64</v>
       </c>
@@ -4548,59 +4548,59 @@
       <c r="V35" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W35" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X35" s="15" t="s">
-        <v>57</v>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+      <c r="X35" s="15">
+        <v>0</v>
       </c>
       <c r="Y35" s="15">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="Z35" s="15">
-        <v>0</v>
+        <v>12188</v>
       </c>
       <c r="AA35" s="15">
-        <v>34633</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="15">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="15">
         <v>0</v>
       </c>
       <c r="AD35" s="15">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AE35" s="15">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="AF35" s="15">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="15">
-        <v>283</v>
+        <v>10368</v>
       </c>
       <c r="AH35" s="15">
         <v>0</v>
       </c>
       <c r="AI35" s="15">
-        <v>10368</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="15">
-        <v>0</v>
+        <v>24260</v>
       </c>
       <c r="AK35" s="15">
         <v>0</v>
       </c>
       <c r="AL35" s="15">
-        <v>24260</v>
+        <v>12495</v>
       </c>
       <c r="AM35" s="15">
         <v>0</v>
       </c>
       <c r="AN35" s="15">
-        <v>12495</v>
+        <v>0</v>
       </c>
       <c r="AO35" s="15">
         <v>0</v>
@@ -4609,43 +4609,43 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="15">
-        <v>0</v>
+        <v>13055</v>
       </c>
       <c r="AR35" s="15">
         <v>0</v>
       </c>
       <c r="AS35" s="15">
-        <v>13055</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="15">
-        <v>0</v>
+        <v>20026</v>
       </c>
       <c r="AU35" s="15">
         <v>0</v>
       </c>
       <c r="AV35" s="15">
-        <v>20026</v>
+        <v>5008</v>
       </c>
       <c r="AW35" s="15">
-        <v>0</v>
+        <v>5995</v>
       </c>
       <c r="AX35" s="15">
-        <v>5008</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="15">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="15">
-        <v>0</v>
+        <v>5499</v>
       </c>
       <c r="BA35" s="15">
         <v>0</v>
       </c>
       <c r="BB35" s="15">
-        <v>5499</v>
+        <v>11513</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>67</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>61</v>
       </c>
@@ -4764,11 +4764,11 @@
       <c r="V37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X37" s="11" t="s">
-        <v>57</v>
+      <c r="W37" s="11">
+        <v>0</v>
+      </c>
+      <c r="X37" s="11">
+        <v>0</v>
       </c>
       <c r="Y37" s="11">
         <v>0</v>
@@ -4791,35 +4791,35 @@
       <c r="AE37" s="11">
         <v>0</v>
       </c>
-      <c r="AF37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="11">
-        <v>0</v>
+      <c r="AF37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AI37" s="11" t="s">
-        <v>57</v>
+      <c r="AI37" s="11">
+        <v>0</v>
       </c>
       <c r="AJ37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK37" s="11">
-        <v>0</v>
+      <c r="AK37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AL37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM37" s="11" t="s">
-        <v>57</v>
+      <c r="AM37" s="11">
+        <v>0</v>
       </c>
       <c r="AN37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AO37" s="11">
-        <v>0</v>
+      <c r="AO37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP37" s="11" t="s">
         <v>57</v>
@@ -4827,8 +4827,8 @@
       <c r="AQ37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR37" s="11">
-        <v>0</v>
+      <c r="AR37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS37" s="11" t="s">
         <v>57</v>
@@ -4851,17 +4851,17 @@
       <c r="AY37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AZ37" s="11" t="s">
-        <v>57</v>
+      <c r="AZ37" s="11">
+        <v>-12</v>
       </c>
       <c r="BA37" s="11" t="s">
         <v>57</v>
       </c>
       <c r="BB37" s="11">
-        <v>-12</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>68</v>
       </c>
@@ -4921,11 +4921,11 @@
       <c r="V38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W38" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X38" s="15" t="s">
-        <v>57</v>
+      <c r="W38" s="15">
+        <v>0</v>
+      </c>
+      <c r="X38" s="15">
+        <v>0</v>
       </c>
       <c r="Y38" s="15">
         <v>0</v>
@@ -5009,173 +5009,173 @@
         <v>0</v>
       </c>
       <c r="AZ38" s="15">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="BA38" s="15">
         <v>0</v>
       </c>
       <c r="BB38" s="15">
-        <v>-12</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17">
-        <v>3252</v>
+        <v>3966</v>
       </c>
       <c r="F39" s="17">
-        <v>9022</v>
+        <v>4904</v>
       </c>
       <c r="G39" s="17">
-        <v>3966</v>
+        <v>32803</v>
       </c>
       <c r="H39" s="17">
-        <v>4904</v>
+        <v>800</v>
       </c>
       <c r="I39" s="17">
-        <v>32803</v>
+        <v>545</v>
       </c>
       <c r="J39" s="17">
-        <v>800</v>
+        <v>5984</v>
       </c>
       <c r="K39" s="17">
-        <v>545</v>
+        <v>1287</v>
       </c>
       <c r="L39" s="17">
-        <v>5984</v>
+        <v>3486</v>
       </c>
       <c r="M39" s="17">
-        <v>1287</v>
+        <v>15400</v>
       </c>
       <c r="N39" s="17">
-        <v>3486</v>
+        <v>8586</v>
       </c>
       <c r="O39" s="17">
-        <v>15400</v>
+        <v>3022</v>
       </c>
       <c r="P39" s="17">
-        <v>8586</v>
+        <v>2303</v>
       </c>
       <c r="Q39" s="17">
-        <v>3022</v>
+        <v>5167</v>
       </c>
       <c r="R39" s="17">
-        <v>2303</v>
+        <v>5915</v>
       </c>
       <c r="S39" s="17">
-        <v>5167</v>
+        <v>12823</v>
       </c>
       <c r="T39" s="17">
-        <v>5915</v>
+        <v>561</v>
       </c>
       <c r="U39" s="17">
-        <v>12823</v>
+        <v>3294</v>
       </c>
       <c r="V39" s="17">
-        <v>561</v>
+        <v>3694</v>
       </c>
       <c r="W39" s="17">
-        <v>3294</v>
+        <v>4516</v>
       </c>
       <c r="X39" s="17">
-        <v>3694</v>
+        <v>3956</v>
       </c>
       <c r="Y39" s="17">
-        <v>4516</v>
+        <v>35053</v>
       </c>
       <c r="Z39" s="17">
-        <v>3956</v>
+        <v>13501</v>
       </c>
       <c r="AA39" s="17">
-        <v>35053</v>
+        <v>2016</v>
       </c>
       <c r="AB39" s="17">
-        <v>13501</v>
+        <v>2751</v>
       </c>
       <c r="AC39" s="17">
-        <v>2016</v>
+        <v>5995</v>
       </c>
       <c r="AD39" s="17">
-        <v>2751</v>
+        <v>12080</v>
       </c>
       <c r="AE39" s="17">
-        <v>5995</v>
+        <v>13814</v>
       </c>
       <c r="AF39" s="17">
-        <v>12080</v>
+        <v>3455</v>
       </c>
       <c r="AG39" s="17">
-        <v>13814</v>
+        <v>13601</v>
       </c>
       <c r="AH39" s="17">
-        <v>3455</v>
+        <v>3290</v>
       </c>
       <c r="AI39" s="17">
-        <v>13601</v>
+        <v>4190</v>
       </c>
       <c r="AJ39" s="17">
-        <v>3290</v>
+        <v>27466</v>
       </c>
       <c r="AK39" s="17">
-        <v>4190</v>
+        <v>9341</v>
       </c>
       <c r="AL39" s="17">
-        <v>27466</v>
+        <v>12617</v>
       </c>
       <c r="AM39" s="17">
-        <v>9341</v>
+        <v>416</v>
       </c>
       <c r="AN39" s="17">
-        <v>12617</v>
+        <v>4020</v>
       </c>
       <c r="AO39" s="17">
-        <v>416</v>
+        <v>3282</v>
       </c>
       <c r="AP39" s="17">
-        <v>4020</v>
+        <v>8139</v>
       </c>
       <c r="AQ39" s="17">
-        <v>3282</v>
+        <v>18388</v>
       </c>
       <c r="AR39" s="17">
-        <v>8139</v>
+        <v>4363</v>
       </c>
       <c r="AS39" s="17">
-        <v>18388</v>
+        <v>1451</v>
       </c>
       <c r="AT39" s="17">
-        <v>4363</v>
+        <v>21789</v>
       </c>
       <c r="AU39" s="17">
-        <v>1451</v>
+        <v>2192</v>
       </c>
       <c r="AV39" s="17">
-        <v>21789</v>
+        <v>7901</v>
       </c>
       <c r="AW39" s="17">
-        <v>2192</v>
+        <v>15803</v>
       </c>
       <c r="AX39" s="17">
-        <v>7901</v>
+        <v>3955</v>
       </c>
       <c r="AY39" s="17">
-        <v>15803</v>
+        <v>2936</v>
       </c>
       <c r="AZ39" s="17">
-        <v>3955</v>
+        <v>6041</v>
       </c>
       <c r="BA39" s="17">
-        <v>2936</v>
+        <v>2974</v>
       </c>
       <c r="BB39" s="17">
-        <v>6041</v>
+        <v>11863</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5230,7 +5230,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5285,7 +5285,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5340,7 +5340,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>69</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5552,7 +5552,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>69</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="BA45" s="9"/>
       <c r="BB45" s="9"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>55</v>
       </c>
@@ -5620,35 +5620,35 @@
       <c r="E46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>57</v>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <v>202858</v>
       </c>
       <c r="H46" s="11">
-        <v>0</v>
+        <v>2476</v>
       </c>
       <c r="I46" s="11">
-        <v>202858</v>
+        <v>0</v>
       </c>
       <c r="J46" s="11">
-        <v>2476</v>
+        <v>0</v>
       </c>
       <c r="K46" s="11">
-        <v>0</v>
+        <v>43524</v>
       </c>
       <c r="L46" s="11">
-        <v>0</v>
+        <v>41901</v>
       </c>
       <c r="M46" s="11">
-        <v>43524</v>
+        <v>76555</v>
       </c>
       <c r="N46" s="11">
-        <v>41901</v>
+        <v>0</v>
       </c>
       <c r="O46" s="11">
-        <v>76555</v>
+        <v>0</v>
       </c>
       <c r="P46" s="11">
         <v>0</v>
@@ -5678,13 +5678,13 @@
         <v>0</v>
       </c>
       <c r="Y46" s="11">
-        <v>0</v>
+        <v>26258</v>
       </c>
       <c r="Z46" s="11">
         <v>0</v>
       </c>
       <c r="AA46" s="11">
-        <v>26258</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="11">
         <v>0</v>
@@ -5711,64 +5711,64 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="11">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="AK46" s="11">
-        <v>0</v>
+        <v>277021</v>
       </c>
       <c r="AL46" s="11">
-        <v>31200</v>
+        <v>79745</v>
       </c>
       <c r="AM46" s="11">
-        <v>277021</v>
+        <v>311968</v>
       </c>
       <c r="AN46" s="11">
-        <v>79745</v>
+        <v>189494</v>
       </c>
       <c r="AO46" s="11">
-        <v>311968</v>
+        <v>0</v>
       </c>
       <c r="AP46" s="11">
-        <v>189494</v>
+        <v>87809</v>
       </c>
       <c r="AQ46" s="11">
-        <v>0</v>
+        <v>172699</v>
       </c>
       <c r="AR46" s="11">
-        <v>87809</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="11">
-        <v>172699</v>
+        <v>214709</v>
       </c>
       <c r="AT46" s="11">
         <v>0</v>
       </c>
       <c r="AU46" s="11">
-        <v>214709</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="11">
         <v>0</v>
       </c>
       <c r="AW46" s="11">
-        <v>0</v>
+        <v>654439</v>
       </c>
       <c r="AX46" s="11">
         <v>0</v>
       </c>
       <c r="AY46" s="11">
-        <v>654439</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="11">
-        <v>0</v>
+        <v>34351</v>
       </c>
       <c r="BA46" s="11">
         <v>0</v>
       </c>
       <c r="BB46" s="11">
-        <v>34351</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>58</v>
       </c>
@@ -5813,34 +5813,34 @@
         <v>0</v>
       </c>
       <c r="Q47" s="13">
-        <v>0</v>
+        <v>5524</v>
       </c>
       <c r="R47" s="13">
         <v>0</v>
       </c>
       <c r="S47" s="13">
-        <v>5524</v>
+        <v>35221</v>
       </c>
       <c r="T47" s="13">
         <v>0</v>
       </c>
       <c r="U47" s="13">
-        <v>35221</v>
+        <v>0</v>
       </c>
       <c r="V47" s="13">
-        <v>0</v>
+        <v>31635</v>
       </c>
       <c r="W47" s="13">
         <v>0</v>
       </c>
       <c r="X47" s="13">
-        <v>31635</v>
+        <v>11839</v>
       </c>
       <c r="Y47" s="13">
         <v>0</v>
       </c>
       <c r="Z47" s="13">
-        <v>11839</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="13">
         <v>0</v>
@@ -5855,13 +5855,13 @@
         <v>0</v>
       </c>
       <c r="AE47" s="13">
-        <v>0</v>
+        <v>84839</v>
       </c>
       <c r="AF47" s="13">
         <v>0</v>
       </c>
       <c r="AG47" s="13">
-        <v>84839</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="13">
         <v>0</v>
@@ -5873,28 +5873,28 @@
         <v>0</v>
       </c>
       <c r="AK47" s="13">
-        <v>0</v>
+        <v>66370</v>
       </c>
       <c r="AL47" s="13">
         <v>0</v>
       </c>
       <c r="AM47" s="13">
-        <v>66370</v>
+        <v>0</v>
       </c>
       <c r="AN47" s="13">
         <v>0</v>
       </c>
       <c r="AO47" s="13">
-        <v>0</v>
+        <v>53226</v>
       </c>
       <c r="AP47" s="13">
-        <v>0</v>
+        <v>21065</v>
       </c>
       <c r="AQ47" s="13">
-        <v>53226</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="13">
-        <v>21065</v>
+        <v>0</v>
       </c>
       <c r="AS47" s="13">
         <v>0</v>
@@ -5909,16 +5909,16 @@
         <v>0</v>
       </c>
       <c r="AW47" s="13">
-        <v>0</v>
+        <v>23381</v>
       </c>
       <c r="AX47" s="13">
-        <v>0</v>
+        <v>4564</v>
       </c>
       <c r="AY47" s="13">
-        <v>23381</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="13">
-        <v>4564</v>
+        <v>0</v>
       </c>
       <c r="BA47" s="13">
         <v>0</v>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>59</v>
       </c>
@@ -6011,16 +6011,16 @@
         <v>0</v>
       </c>
       <c r="AD48" s="11">
-        <v>0</v>
+        <v>102005</v>
       </c>
       <c r="AE48" s="11">
-        <v>0</v>
+        <v>612056</v>
       </c>
       <c r="AF48" s="11">
-        <v>102005</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="11">
-        <v>612056</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="11">
         <v>0</v>
@@ -6032,13 +6032,13 @@
         <v>0</v>
       </c>
       <c r="AK48" s="11">
-        <v>0</v>
+        <v>20634</v>
       </c>
       <c r="AL48" s="11">
         <v>0</v>
       </c>
       <c r="AM48" s="11">
-        <v>20634</v>
+        <v>0</v>
       </c>
       <c r="AN48" s="11">
         <v>0</v>
@@ -6047,13 +6047,13 @@
         <v>0</v>
       </c>
       <c r="AP48" s="11">
-        <v>0</v>
+        <v>461637</v>
       </c>
       <c r="AQ48" s="11">
         <v>0</v>
       </c>
       <c r="AR48" s="11">
-        <v>461637</v>
+        <v>0</v>
       </c>
       <c r="AS48" s="11">
         <v>0</v>
@@ -6068,25 +6068,25 @@
         <v>0</v>
       </c>
       <c r="AW48" s="11">
-        <v>0</v>
+        <v>857115</v>
       </c>
       <c r="AX48" s="11">
-        <v>0</v>
+        <v>435521</v>
       </c>
       <c r="AY48" s="11">
-        <v>857115</v>
+        <v>214500</v>
       </c>
       <c r="AZ48" s="11">
-        <v>435521</v>
+        <v>108141</v>
       </c>
       <c r="BA48" s="11">
-        <v>214500</v>
+        <v>389640</v>
       </c>
       <c r="BB48" s="11">
-        <v>108141</v>
+        <v>68187</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>60</v>
       </c>
@@ -6095,22 +6095,22 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>0</v>
+        <v>28498</v>
       </c>
       <c r="F49" s="13">
-        <v>25734</v>
+        <v>0</v>
       </c>
       <c r="G49" s="13">
-        <v>28498</v>
+        <v>14657</v>
       </c>
       <c r="H49" s="13">
-        <v>0</v>
+        <v>3933</v>
       </c>
       <c r="I49" s="13">
-        <v>14657</v>
+        <v>0</v>
       </c>
       <c r="J49" s="13">
-        <v>3933</v>
+        <v>0</v>
       </c>
       <c r="K49" s="13">
         <v>0</v>
@@ -6131,37 +6131,37 @@
         <v>0</v>
       </c>
       <c r="Q49" s="13">
-        <v>0</v>
+        <v>54462</v>
       </c>
       <c r="R49" s="13">
-        <v>0</v>
+        <v>78653</v>
       </c>
       <c r="S49" s="13">
-        <v>54462</v>
+        <v>60155</v>
       </c>
       <c r="T49" s="13">
-        <v>78653</v>
+        <v>81605</v>
       </c>
       <c r="U49" s="13">
-        <v>60155</v>
+        <v>22997</v>
       </c>
       <c r="V49" s="13">
-        <v>81605</v>
+        <v>81422</v>
       </c>
       <c r="W49" s="13">
-        <v>22997</v>
+        <v>0</v>
       </c>
       <c r="X49" s="13">
-        <v>81422</v>
+        <v>41552</v>
       </c>
       <c r="Y49" s="13">
-        <v>0</v>
+        <v>33777</v>
       </c>
       <c r="Z49" s="13">
-        <v>41552</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="13">
-        <v>33777</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="13">
         <v>0</v>
@@ -6170,25 +6170,25 @@
         <v>0</v>
       </c>
       <c r="AD49" s="13">
-        <v>0</v>
+        <v>67780</v>
       </c>
       <c r="AE49" s="13">
-        <v>0</v>
+        <v>154460</v>
       </c>
       <c r="AF49" s="13">
-        <v>67780</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="13">
-        <v>154460</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="13">
-        <v>0</v>
+        <v>116399</v>
       </c>
       <c r="AI49" s="13">
         <v>0</v>
       </c>
       <c r="AJ49" s="13">
-        <v>116399</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="13">
         <v>0</v>
@@ -6203,40 +6203,40 @@
         <v>0</v>
       </c>
       <c r="AO49" s="13">
-        <v>0</v>
+        <v>550890</v>
       </c>
       <c r="AP49" s="13">
         <v>0</v>
       </c>
       <c r="AQ49" s="13">
-        <v>550890</v>
+        <v>56932</v>
       </c>
       <c r="AR49" s="13">
-        <v>0</v>
+        <v>47118</v>
       </c>
       <c r="AS49" s="13">
-        <v>56932</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="13">
-        <v>47118</v>
+        <v>6993</v>
       </c>
       <c r="AU49" s="13">
         <v>0</v>
       </c>
       <c r="AV49" s="13">
-        <v>6993</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="13">
-        <v>0</v>
+        <v>38584</v>
       </c>
       <c r="AX49" s="13">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="AY49" s="13">
-        <v>38584</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="13">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="13">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>61</v>
       </c>
@@ -6254,157 +6254,157 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>56546</v>
+        <v>90522</v>
       </c>
       <c r="F50" s="11">
-        <v>145292</v>
+        <v>147325</v>
       </c>
       <c r="G50" s="11">
-        <v>90522</v>
+        <v>21335</v>
       </c>
       <c r="H50" s="11">
-        <v>147325</v>
+        <v>0</v>
       </c>
       <c r="I50" s="11">
-        <v>21335</v>
+        <v>0</v>
       </c>
       <c r="J50" s="11">
-        <v>0</v>
+        <v>306114</v>
       </c>
       <c r="K50" s="11">
-        <v>0</v>
+        <v>34668</v>
       </c>
       <c r="L50" s="11">
-        <v>306114</v>
+        <v>123433</v>
       </c>
       <c r="M50" s="11">
-        <v>34668</v>
+        <v>36401</v>
       </c>
       <c r="N50" s="11">
-        <v>123433</v>
+        <v>12121</v>
       </c>
       <c r="O50" s="11">
-        <v>36401</v>
+        <v>98377</v>
       </c>
       <c r="P50" s="11">
-        <v>12121</v>
+        <v>80008</v>
       </c>
       <c r="Q50" s="11">
-        <v>98377</v>
+        <v>106762</v>
       </c>
       <c r="R50" s="11">
-        <v>80008</v>
+        <v>134939</v>
       </c>
       <c r="S50" s="11">
-        <v>106762</v>
+        <v>94126</v>
       </c>
       <c r="T50" s="11">
-        <v>134939</v>
+        <v>0</v>
       </c>
       <c r="U50" s="11">
-        <v>94126</v>
+        <v>94130</v>
       </c>
       <c r="V50" s="11">
-        <v>0</v>
+        <v>60242</v>
       </c>
       <c r="W50" s="11">
-        <v>94130</v>
+        <v>171298</v>
       </c>
       <c r="X50" s="11">
-        <v>60242</v>
+        <v>105667</v>
       </c>
       <c r="Y50" s="11">
-        <v>171298</v>
+        <v>8379</v>
       </c>
       <c r="Z50" s="11">
-        <v>105667</v>
+        <v>55692</v>
       </c>
       <c r="AA50" s="11">
-        <v>8379</v>
+        <v>222743</v>
       </c>
       <c r="AB50" s="11">
-        <v>55692</v>
+        <v>276733</v>
       </c>
       <c r="AC50" s="11">
-        <v>222743</v>
+        <v>324876</v>
       </c>
       <c r="AD50" s="11">
-        <v>276733</v>
+        <v>739810</v>
       </c>
       <c r="AE50" s="11">
-        <v>324876</v>
+        <v>577703</v>
       </c>
       <c r="AF50" s="11">
-        <v>739810</v>
+        <v>301726</v>
       </c>
       <c r="AG50" s="11">
-        <v>577703</v>
+        <v>296304</v>
       </c>
       <c r="AH50" s="11">
-        <v>301726</v>
+        <v>293882</v>
       </c>
       <c r="AI50" s="11">
-        <v>296304</v>
+        <v>435851</v>
       </c>
       <c r="AJ50" s="11">
-        <v>293882</v>
+        <v>273570</v>
       </c>
       <c r="AK50" s="11">
-        <v>435851</v>
+        <v>836997</v>
       </c>
       <c r="AL50" s="11">
-        <v>273570</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="11">
-        <v>836997</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="11">
-        <v>0</v>
+        <v>330488</v>
       </c>
       <c r="AO50" s="11">
-        <v>0</v>
+        <v>154245</v>
       </c>
       <c r="AP50" s="11">
-        <v>330488</v>
+        <v>293815</v>
       </c>
       <c r="AQ50" s="11">
-        <v>154245</v>
+        <v>774252</v>
       </c>
       <c r="AR50" s="11">
-        <v>293815</v>
+        <v>645393</v>
       </c>
       <c r="AS50" s="11">
-        <v>774252</v>
+        <v>97722</v>
       </c>
       <c r="AT50" s="11">
-        <v>645393</v>
+        <v>123901</v>
       </c>
       <c r="AU50" s="11">
-        <v>97722</v>
+        <v>122812</v>
       </c>
       <c r="AV50" s="11">
-        <v>123901</v>
+        <v>334051</v>
       </c>
       <c r="AW50" s="11">
-        <v>122812</v>
+        <v>538414</v>
       </c>
       <c r="AX50" s="11">
-        <v>334051</v>
+        <v>175961</v>
       </c>
       <c r="AY50" s="11">
-        <v>538414</v>
+        <v>106213</v>
       </c>
       <c r="AZ50" s="11">
-        <v>175961</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="11">
-        <v>106213</v>
+        <v>81828</v>
       </c>
       <c r="BB50" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>62</v>
       </c>
@@ -6413,64 +6413,64 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13">
-        <v>1602</v>
+        <v>520</v>
       </c>
       <c r="F51" s="13">
-        <v>3212</v>
+        <v>0</v>
       </c>
       <c r="G51" s="13">
-        <v>520</v>
+        <v>52819</v>
       </c>
       <c r="H51" s="13">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="I51" s="13">
-        <v>52819</v>
+        <v>763</v>
       </c>
       <c r="J51" s="13">
-        <v>1053</v>
+        <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="L51" s="13">
         <v>0</v>
       </c>
       <c r="M51" s="13">
-        <v>0</v>
+        <v>30514</v>
       </c>
       <c r="N51" s="13">
-        <v>0</v>
+        <v>18113</v>
       </c>
       <c r="O51" s="13">
-        <v>30514</v>
+        <v>0</v>
       </c>
       <c r="P51" s="13">
-        <v>18113</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="13">
-        <v>0</v>
+        <v>3435</v>
       </c>
       <c r="R51" s="13">
         <v>0</v>
       </c>
       <c r="S51" s="13">
-        <v>3435</v>
+        <v>21639</v>
       </c>
       <c r="T51" s="13">
         <v>0</v>
       </c>
       <c r="U51" s="13">
-        <v>21639</v>
+        <v>0</v>
       </c>
       <c r="V51" s="13">
         <v>0</v>
       </c>
-      <c r="W51" s="13">
-        <v>0</v>
-      </c>
-      <c r="X51" s="13">
-        <v>0</v>
+      <c r="W51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="Y51" s="13" t="s">
         <v>57</v>
@@ -6563,7 +6563,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>71</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>62</v>
       </c>
@@ -6682,59 +6682,59 @@
       <c r="V53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>57</v>
+      <c r="W53" s="11">
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
+        <v>0</v>
       </c>
       <c r="Y53" s="11">
-        <v>0</v>
+        <v>157463</v>
       </c>
       <c r="Z53" s="11">
-        <v>0</v>
+        <v>96685</v>
       </c>
       <c r="AA53" s="11">
-        <v>157463</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="11">
-        <v>96685</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="11">
         <v>0</v>
       </c>
       <c r="AD53" s="11">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="AE53" s="11">
-        <v>0</v>
+        <v>1217</v>
       </c>
       <c r="AF53" s="11">
-        <v>2101</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="11">
-        <v>1217</v>
+        <v>87094</v>
       </c>
       <c r="AH53" s="11">
         <v>0</v>
       </c>
       <c r="AI53" s="11">
-        <v>87094</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="11">
-        <v>0</v>
+        <v>222580</v>
       </c>
       <c r="AK53" s="11">
         <v>0</v>
       </c>
       <c r="AL53" s="11">
-        <v>222580</v>
+        <v>137445</v>
       </c>
       <c r="AM53" s="11">
         <v>0</v>
       </c>
       <c r="AN53" s="11">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="AO53" s="11">
         <v>0</v>
@@ -6743,43 +6743,43 @@
         <v>0</v>
       </c>
       <c r="AQ53" s="11">
-        <v>0</v>
+        <v>143609</v>
       </c>
       <c r="AR53" s="11">
         <v>0</v>
       </c>
       <c r="AS53" s="11">
-        <v>143609</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="11">
-        <v>0</v>
+        <v>280368</v>
       </c>
       <c r="AU53" s="11">
         <v>0</v>
       </c>
       <c r="AV53" s="11">
-        <v>280368</v>
+        <v>70114</v>
       </c>
       <c r="AW53" s="11">
-        <v>0</v>
+        <v>83929</v>
       </c>
       <c r="AX53" s="11">
-        <v>70114</v>
+        <v>0</v>
       </c>
       <c r="AY53" s="11">
-        <v>83929</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="11">
-        <v>0</v>
+        <v>76992</v>
       </c>
       <c r="BA53" s="11">
         <v>0</v>
       </c>
       <c r="BB53" s="11">
-        <v>76992</v>
+        <v>172695</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>64</v>
       </c>
@@ -6841,59 +6841,59 @@
       <c r="V54" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X54" s="15" t="s">
-        <v>57</v>
+      <c r="W54" s="15">
+        <v>0</v>
+      </c>
+      <c r="X54" s="15">
+        <v>0</v>
       </c>
       <c r="Y54" s="15">
-        <v>0</v>
+        <v>157463</v>
       </c>
       <c r="Z54" s="15">
-        <v>0</v>
+        <v>96685</v>
       </c>
       <c r="AA54" s="15">
-        <v>157463</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="15">
-        <v>96685</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="15">
         <v>0</v>
       </c>
       <c r="AD54" s="15">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="AE54" s="15">
-        <v>0</v>
+        <v>1217</v>
       </c>
       <c r="AF54" s="15">
-        <v>2101</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="15">
-        <v>1217</v>
+        <v>87094</v>
       </c>
       <c r="AH54" s="15">
         <v>0</v>
       </c>
       <c r="AI54" s="15">
-        <v>87094</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="15">
-        <v>0</v>
+        <v>222580</v>
       </c>
       <c r="AK54" s="15">
         <v>0</v>
       </c>
       <c r="AL54" s="15">
-        <v>222580</v>
+        <v>137445</v>
       </c>
       <c r="AM54" s="15">
         <v>0</v>
       </c>
       <c r="AN54" s="15">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="AO54" s="15">
         <v>0</v>
@@ -6902,43 +6902,43 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="15">
-        <v>0</v>
+        <v>143609</v>
       </c>
       <c r="AR54" s="15">
         <v>0</v>
       </c>
       <c r="AS54" s="15">
-        <v>143609</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="15">
-        <v>0</v>
+        <v>280368</v>
       </c>
       <c r="AU54" s="15">
         <v>0</v>
       </c>
       <c r="AV54" s="15">
-        <v>280368</v>
+        <v>70114</v>
       </c>
       <c r="AW54" s="15">
-        <v>0</v>
+        <v>83929</v>
       </c>
       <c r="AX54" s="15">
-        <v>70114</v>
+        <v>0</v>
       </c>
       <c r="AY54" s="15">
-        <v>83929</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="15">
-        <v>0</v>
+        <v>76992</v>
       </c>
       <c r="BA54" s="15">
         <v>0</v>
       </c>
       <c r="BB54" s="15">
-        <v>76992</v>
+        <v>172695</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>72</v>
       </c>
@@ -6995,7 +6995,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>61</v>
       </c>
@@ -7057,11 +7057,11 @@
       <c r="V56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X56" s="11" t="s">
-        <v>57</v>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+      <c r="X56" s="11">
+        <v>0</v>
       </c>
       <c r="Y56" s="11">
         <v>0</v>
@@ -7084,14 +7084,14 @@
       <c r="AE56" s="11">
         <v>0</v>
       </c>
-      <c r="AF56" s="11">
-        <v>0</v>
+      <c r="AF56" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG56" s="11">
         <v>0</v>
       </c>
-      <c r="AH56" s="11" t="s">
-        <v>57</v>
+      <c r="AH56" s="11">
+        <v>0</v>
       </c>
       <c r="AI56" s="11">
         <v>0</v>
@@ -7120,11 +7120,11 @@
       <c r="AQ56" s="11">
         <v>0</v>
       </c>
-      <c r="AR56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS56" s="11">
-        <v>0</v>
+      <c r="AR56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS56" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AT56" s="11" t="s">
         <v>57</v>
@@ -7144,17 +7144,17 @@
       <c r="AY56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AZ56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA56" s="11" t="s">
-        <v>57</v>
+      <c r="AZ56" s="11">
+        <v>-4850</v>
+      </c>
+      <c r="BA56" s="11">
+        <v>0</v>
       </c>
       <c r="BB56" s="11">
-        <v>-4850</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>68</v>
       </c>
@@ -7216,11 +7216,11 @@
       <c r="V57" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W57" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X57" s="15" t="s">
-        <v>57</v>
+      <c r="W57" s="15">
+        <v>0</v>
+      </c>
+      <c r="X57" s="15">
+        <v>0</v>
       </c>
       <c r="Y57" s="15">
         <v>0</v>
@@ -7304,16 +7304,16 @@
         <v>0</v>
       </c>
       <c r="AZ57" s="15">
-        <v>0</v>
+        <v>-4850</v>
       </c>
       <c r="BA57" s="15">
         <v>0</v>
       </c>
       <c r="BB57" s="15">
-        <v>-4850</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>73</v>
       </c>
@@ -7370,7 +7370,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>74</v>
       </c>
@@ -7432,11 +7432,11 @@
       <c r="V59" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>57</v>
+      <c r="W59" s="11">
+        <v>0</v>
+      </c>
+      <c r="X59" s="11">
+        <v>0</v>
       </c>
       <c r="Y59" s="11">
         <v>0</v>
@@ -7529,164 +7529,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15">
-        <v>58148</v>
+        <v>119540</v>
       </c>
       <c r="F60" s="15">
-        <v>174238</v>
+        <v>147325</v>
       </c>
       <c r="G60" s="15">
-        <v>119540</v>
+        <v>291669</v>
       </c>
       <c r="H60" s="15">
-        <v>147325</v>
+        <v>7462</v>
       </c>
       <c r="I60" s="15">
-        <v>291669</v>
+        <v>763</v>
       </c>
       <c r="J60" s="15">
-        <v>7462</v>
+        <v>306114</v>
       </c>
       <c r="K60" s="15">
-        <v>763</v>
+        <v>78192</v>
       </c>
       <c r="L60" s="15">
-        <v>306114</v>
+        <v>165334</v>
       </c>
       <c r="M60" s="15">
-        <v>78192</v>
+        <v>143470</v>
       </c>
       <c r="N60" s="15">
-        <v>165334</v>
+        <v>30234</v>
       </c>
       <c r="O60" s="15">
-        <v>143470</v>
+        <v>98377</v>
       </c>
       <c r="P60" s="15">
-        <v>30234</v>
+        <v>80008</v>
       </c>
       <c r="Q60" s="15">
-        <v>98377</v>
+        <v>170183</v>
       </c>
       <c r="R60" s="15">
-        <v>80008</v>
+        <v>213592</v>
       </c>
       <c r="S60" s="15">
-        <v>170183</v>
+        <v>211141</v>
       </c>
       <c r="T60" s="15">
-        <v>213592</v>
+        <v>81605</v>
       </c>
       <c r="U60" s="15">
-        <v>211141</v>
+        <v>117127</v>
       </c>
       <c r="V60" s="15">
-        <v>81605</v>
+        <v>173299</v>
       </c>
       <c r="W60" s="15">
-        <v>117127</v>
+        <v>171298</v>
       </c>
       <c r="X60" s="15">
-        <v>173299</v>
+        <v>159058</v>
       </c>
       <c r="Y60" s="15">
-        <v>171298</v>
+        <v>225877</v>
       </c>
       <c r="Z60" s="15">
-        <v>159058</v>
+        <v>152377</v>
       </c>
       <c r="AA60" s="15">
-        <v>225877</v>
+        <v>222743</v>
       </c>
       <c r="AB60" s="15">
-        <v>152377</v>
+        <v>276733</v>
       </c>
       <c r="AC60" s="15">
-        <v>222743</v>
+        <v>324876</v>
       </c>
       <c r="AD60" s="15">
-        <v>276733</v>
+        <v>911696</v>
       </c>
       <c r="AE60" s="15">
-        <v>324876</v>
+        <v>1430275</v>
       </c>
       <c r="AF60" s="15">
-        <v>911696</v>
+        <v>301726</v>
       </c>
       <c r="AG60" s="15">
-        <v>1430275</v>
+        <v>383398</v>
       </c>
       <c r="AH60" s="15">
-        <v>301726</v>
+        <v>410281</v>
       </c>
       <c r="AI60" s="15">
-        <v>383398</v>
+        <v>435851</v>
       </c>
       <c r="AJ60" s="15">
-        <v>410281</v>
+        <v>527350</v>
       </c>
       <c r="AK60" s="15">
-        <v>435851</v>
+        <v>1201022</v>
       </c>
       <c r="AL60" s="15">
-        <v>527350</v>
+        <v>217190</v>
       </c>
       <c r="AM60" s="15">
-        <v>1201022</v>
+        <v>311968</v>
       </c>
       <c r="AN60" s="15">
-        <v>217190</v>
+        <v>519982</v>
       </c>
       <c r="AO60" s="15">
-        <v>311968</v>
+        <v>758361</v>
       </c>
       <c r="AP60" s="15">
-        <v>519982</v>
+        <v>864326</v>
       </c>
       <c r="AQ60" s="15">
-        <v>758361</v>
+        <v>1147492</v>
       </c>
       <c r="AR60" s="15">
-        <v>864326</v>
+        <v>692511</v>
       </c>
       <c r="AS60" s="15">
-        <v>1147492</v>
+        <v>312431</v>
       </c>
       <c r="AT60" s="15">
-        <v>692511</v>
+        <v>411262</v>
       </c>
       <c r="AU60" s="15">
-        <v>312431</v>
+        <v>122812</v>
       </c>
       <c r="AV60" s="15">
-        <v>411262</v>
+        <v>404165</v>
       </c>
       <c r="AW60" s="15">
-        <v>122812</v>
+        <v>2195862</v>
       </c>
       <c r="AX60" s="15">
-        <v>404165</v>
+        <v>619916</v>
       </c>
       <c r="AY60" s="15">
-        <v>2195862</v>
+        <v>320713</v>
       </c>
       <c r="AZ60" s="15">
-        <v>619916</v>
+        <v>214634</v>
       </c>
       <c r="BA60" s="15">
-        <v>320713</v>
+        <v>471468</v>
       </c>
       <c r="BB60" s="15">
-        <v>214634</v>
+        <v>240882</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -7741,7 +7741,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7796,7 +7796,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -7851,7 +7851,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>75</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -8063,7 +8063,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>76</v>
       </c>
@@ -8120,7 +8120,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>55</v>
       </c>
@@ -8131,35 +8131,35 @@
       <c r="E67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>57</v>
+      <c r="F67" s="11">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11">
+        <v>250133169</v>
       </c>
       <c r="H67" s="11">
-        <v>0</v>
+        <v>309500000</v>
       </c>
       <c r="I67" s="11">
-        <v>250133169</v>
+        <v>0</v>
       </c>
       <c r="J67" s="11">
-        <v>309500000</v>
+        <v>0</v>
       </c>
       <c r="K67" s="11">
-        <v>0</v>
+        <v>290160000</v>
       </c>
       <c r="L67" s="11">
-        <v>0</v>
+        <v>279340000</v>
       </c>
       <c r="M67" s="11">
-        <v>290160000</v>
+        <v>258631757</v>
       </c>
       <c r="N67" s="11">
-        <v>279340000</v>
+        <v>0</v>
       </c>
       <c r="O67" s="11">
-        <v>258631757</v>
+        <v>0</v>
       </c>
       <c r="P67" s="11">
         <v>0</v>
@@ -8173,11 +8173,11 @@
       <c r="S67" s="11">
         <v>0</v>
       </c>
-      <c r="T67" s="11">
-        <v>0</v>
-      </c>
-      <c r="U67" s="11">
-        <v>0</v>
+      <c r="T67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U67" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V67" s="11" t="s">
         <v>57</v>
@@ -8188,14 +8188,14 @@
       <c r="X67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y67" s="11" t="s">
-        <v>57</v>
+      <c r="Y67" s="11">
+        <v>525160000</v>
       </c>
       <c r="Z67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA67" s="11">
-        <v>525160000</v>
+      <c r="AA67" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AB67" s="11" t="s">
         <v>57</v>
@@ -8221,65 +8221,65 @@
       <c r="AI67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AJ67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK67" s="11" t="s">
-        <v>57</v>
+      <c r="AJ67" s="11">
+        <v>636734694</v>
+      </c>
+      <c r="AK67" s="11">
+        <v>645736597</v>
       </c>
       <c r="AL67" s="11">
-        <v>636734694</v>
+        <v>653647541</v>
       </c>
       <c r="AM67" s="11">
-        <v>645736597</v>
+        <v>749923077</v>
       </c>
       <c r="AN67" s="11">
-        <v>653647541</v>
-      </c>
-      <c r="AO67" s="11">
-        <v>749923077</v>
+        <v>699239852</v>
+      </c>
+      <c r="AO67" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP67" s="11">
-        <v>699239852</v>
-      </c>
-      <c r="AQ67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR67" s="11">
         <v>878090000</v>
       </c>
+      <c r="AQ67" s="11">
+        <v>885635897</v>
+      </c>
+      <c r="AR67" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AS67" s="11">
-        <v>885635897</v>
+        <v>872800813</v>
       </c>
       <c r="AT67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU67" s="11">
-        <v>872800813</v>
+      <c r="AU67" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AW67" s="11" t="s">
-        <v>57</v>
+      <c r="AW67" s="11">
+        <v>844437419</v>
       </c>
       <c r="AX67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY67" s="11">
-        <v>844437419</v>
-      </c>
-      <c r="AZ67" s="11" t="s">
-        <v>57</v>
+      <c r="AY67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ67" s="11">
+        <v>1073468750</v>
       </c>
       <c r="BA67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB67" s="11">
-        <v>1073468750</v>
+      <c r="BB67" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>58</v>
       </c>
@@ -8324,34 +8324,34 @@
         <v>0</v>
       </c>
       <c r="Q68" s="13">
-        <v>0</v>
+        <v>106230769</v>
       </c>
       <c r="R68" s="13">
         <v>0</v>
       </c>
       <c r="S68" s="13">
-        <v>106230769</v>
-      </c>
-      <c r="T68" s="13">
-        <v>0</v>
-      </c>
-      <c r="U68" s="13">
         <v>115858553</v>
       </c>
-      <c r="V68" s="13" t="s">
-        <v>57</v>
+      <c r="T68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V68" s="13">
+        <v>156608911</v>
       </c>
       <c r="W68" s="13" t="s">
         <v>57</v>
       </c>
       <c r="X68" s="13">
-        <v>156608911</v>
+        <v>408241379</v>
       </c>
       <c r="Y68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z68" s="13">
-        <v>408241379</v>
+      <c r="Z68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA68" s="13" t="s">
         <v>57</v>
@@ -8365,14 +8365,14 @@
       <c r="AD68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AE68" s="13" t="s">
-        <v>57</v>
+      <c r="AE68" s="13">
+        <v>526950311</v>
       </c>
       <c r="AF68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AG68" s="13">
-        <v>526950311</v>
+      <c r="AG68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH68" s="13" t="s">
         <v>57</v>
@@ -8383,30 +8383,30 @@
       <c r="AJ68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK68" s="13" t="s">
-        <v>57</v>
+      <c r="AK68" s="13">
+        <v>698631579</v>
       </c>
       <c r="AL68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM68" s="13">
-        <v>698631579</v>
+      <c r="AM68" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ68" s="13">
+      <c r="AO68" s="13">
         <v>649097561</v>
       </c>
-      <c r="AR68" s="13">
+      <c r="AP68" s="13">
         <v>540128205</v>
       </c>
+      <c r="AQ68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS68" s="13" t="s">
         <v>57</v>
       </c>
@@ -8419,18 +8419,18 @@
       <c r="AV68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX68" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY68" s="13">
+      <c r="AW68" s="13">
         <v>334014286</v>
       </c>
-      <c r="AZ68" s="13">
+      <c r="AX68" s="13">
         <v>351076923</v>
       </c>
+      <c r="AY68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ68" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="BA68" s="13" t="s">
         <v>57</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>59</v>
       </c>
@@ -8491,11 +8491,11 @@
       <c r="S69" s="11">
         <v>0</v>
       </c>
-      <c r="T69" s="11">
-        <v>0</v>
-      </c>
-      <c r="U69" s="11">
-        <v>0</v>
+      <c r="T69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V69" s="11" t="s">
         <v>57</v>
@@ -8521,18 +8521,18 @@
       <c r="AC69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AD69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF69" s="11">
+      <c r="AD69" s="11">
         <v>170008333</v>
       </c>
-      <c r="AG69" s="11">
+      <c r="AE69" s="11">
         <v>111893236</v>
       </c>
+      <c r="AF69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG69" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH69" s="11" t="s">
         <v>57</v>
       </c>
@@ -8542,14 +8542,14 @@
       <c r="AJ69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK69" s="11" t="s">
-        <v>57</v>
+      <c r="AK69" s="11">
+        <v>112141304</v>
       </c>
       <c r="AL69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM69" s="11">
-        <v>112141304</v>
+      <c r="AM69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN69" s="11" t="s">
         <v>57</v>
@@ -8557,14 +8557,14 @@
       <c r="AO69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AP69" s="11" t="s">
-        <v>57</v>
+      <c r="AP69" s="11">
+        <v>84394333</v>
       </c>
       <c r="AQ69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR69" s="11">
-        <v>84394333</v>
+      <c r="AR69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS69" s="11" t="s">
         <v>57</v>
@@ -8578,26 +8578,26 @@
       <c r="AV69" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AW69" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX69" s="11" t="s">
-        <v>57</v>
+      <c r="AW69" s="11">
+        <v>199329070</v>
+      </c>
+      <c r="AX69" s="11">
+        <v>174208400</v>
       </c>
       <c r="AY69" s="11">
-        <v>199329070</v>
+        <v>165000000</v>
       </c>
       <c r="AZ69" s="11">
-        <v>174208400</v>
+        <v>207166667</v>
       </c>
       <c r="BA69" s="11">
-        <v>165000000</v>
+        <v>194820000</v>
       </c>
       <c r="BB69" s="11">
-        <v>207166667</v>
+        <v>194820000</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>60</v>
       </c>
@@ -8606,22 +8606,22 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13">
-        <v>0</v>
+        <v>95952862</v>
       </c>
       <c r="F70" s="13">
-        <v>71483333</v>
+        <v>0</v>
       </c>
       <c r="G70" s="13">
-        <v>95952862</v>
+        <v>91037267</v>
       </c>
       <c r="H70" s="13">
-        <v>0</v>
+        <v>98325000</v>
       </c>
       <c r="I70" s="13">
-        <v>91037267</v>
+        <v>0</v>
       </c>
       <c r="J70" s="13">
-        <v>98325000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="13">
         <v>0</v>
@@ -8642,64 +8642,64 @@
         <v>0</v>
       </c>
       <c r="Q70" s="13">
-        <v>0</v>
+        <v>116871245</v>
       </c>
       <c r="R70" s="13">
-        <v>0</v>
+        <v>120818740</v>
       </c>
       <c r="S70" s="13">
-        <v>116871245</v>
+        <v>201862416</v>
       </c>
       <c r="T70" s="13">
-        <v>120818740</v>
+        <v>145463458</v>
       </c>
       <c r="U70" s="13">
-        <v>201862416</v>
+        <v>145550633</v>
       </c>
       <c r="V70" s="13">
-        <v>145463458</v>
-      </c>
-      <c r="W70" s="13">
-        <v>145550633</v>
+        <v>138472789</v>
+      </c>
+      <c r="W70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X70" s="13">
-        <v>138472789</v>
-      </c>
-      <c r="Y70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z70" s="13">
         <v>163590551</v>
       </c>
-      <c r="AA70" s="13">
+      <c r="Y70" s="13">
         <v>201053571</v>
       </c>
+      <c r="Z70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA70" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AB70" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AC70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF70" s="13">
+      <c r="AD70" s="13">
         <v>275528455</v>
       </c>
-      <c r="AG70" s="13">
+      <c r="AE70" s="13">
         <v>312672065</v>
       </c>
-      <c r="AH70" s="13" t="s">
-        <v>57</v>
+      <c r="AF70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH70" s="13">
+        <v>286697044</v>
       </c>
       <c r="AI70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AJ70" s="13">
-        <v>286697044</v>
+      <c r="AJ70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK70" s="13" t="s">
         <v>57</v>
@@ -8713,42 +8713,42 @@
       <c r="AN70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO70" s="13" t="s">
-        <v>57</v>
+      <c r="AO70" s="13">
+        <v>360058824</v>
       </c>
       <c r="AP70" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AQ70" s="13">
-        <v>360058824</v>
+        <v>299642105</v>
       </c>
       <c r="AR70" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS70" s="13">
-        <v>299642105</v>
+        <v>294487500</v>
+      </c>
+      <c r="AS70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT70" s="13">
-        <v>294487500</v>
+        <v>249750000</v>
       </c>
       <c r="AU70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AV70" s="13">
-        <v>249750000</v>
-      </c>
-      <c r="AW70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX70" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY70" s="13">
+      <c r="AV70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW70" s="13">
         <v>226964706</v>
       </c>
-      <c r="AZ70" s="13">
+      <c r="AX70" s="13">
         <v>227647059</v>
       </c>
+      <c r="AY70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ70" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="BA70" s="13" t="s">
         <v>57</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>61</v>
       </c>
@@ -8765,157 +8765,157 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>29497131</v>
+        <v>30386707</v>
       </c>
       <c r="F71" s="11">
-        <v>24271968</v>
+        <v>30041803</v>
       </c>
       <c r="G71" s="11">
-        <v>30386707</v>
+        <v>6157287</v>
       </c>
       <c r="H71" s="11">
-        <v>30041803</v>
+        <v>0</v>
       </c>
       <c r="I71" s="11">
-        <v>6157287</v>
+        <v>0</v>
       </c>
       <c r="J71" s="11">
-        <v>0</v>
+        <v>51155414</v>
       </c>
       <c r="K71" s="11">
-        <v>0</v>
+        <v>30490765</v>
       </c>
       <c r="L71" s="11">
-        <v>51155414</v>
+        <v>37000300</v>
       </c>
       <c r="M71" s="11">
-        <v>30490765</v>
+        <v>19815460</v>
       </c>
       <c r="N71" s="11">
-        <v>37000300</v>
+        <v>17047820</v>
       </c>
       <c r="O71" s="11">
-        <v>19815460</v>
+        <v>32553607</v>
       </c>
       <c r="P71" s="11">
-        <v>17047820</v>
+        <v>34740773</v>
       </c>
       <c r="Q71" s="11">
-        <v>32553607</v>
+        <v>32079928</v>
       </c>
       <c r="R71" s="11">
-        <v>34740773</v>
+        <v>25634309</v>
       </c>
       <c r="S71" s="11">
-        <v>32079928</v>
-      </c>
-      <c r="T71" s="11">
-        <v>25634309</v>
+        <v>36639159</v>
+      </c>
+      <c r="T71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U71" s="11">
-        <v>36639159</v>
-      </c>
-      <c r="V71" s="11" t="s">
-        <v>57</v>
+        <v>30015944</v>
+      </c>
+      <c r="V71" s="11">
+        <v>20744490</v>
       </c>
       <c r="W71" s="11">
-        <v>30015944</v>
+        <v>37931355</v>
       </c>
       <c r="X71" s="11">
-        <v>20744490</v>
+        <v>28768582</v>
       </c>
       <c r="Y71" s="11">
-        <v>37931355</v>
+        <v>41480198</v>
       </c>
       <c r="Z71" s="11">
-        <v>28768582</v>
+        <v>42415842</v>
       </c>
       <c r="AA71" s="11">
-        <v>41480198</v>
+        <v>110487599</v>
       </c>
       <c r="AB71" s="11">
-        <v>42415842</v>
+        <v>100593602</v>
       </c>
       <c r="AC71" s="11">
-        <v>110487599</v>
+        <v>54191159</v>
       </c>
       <c r="AD71" s="11">
-        <v>100593602</v>
+        <v>68851559</v>
       </c>
       <c r="AE71" s="11">
-        <v>54191159</v>
+        <v>78004726</v>
       </c>
       <c r="AF71" s="11">
-        <v>68851559</v>
+        <v>87330246</v>
       </c>
       <c r="AG71" s="11">
-        <v>78004726</v>
+        <v>91649861</v>
       </c>
       <c r="AH71" s="11">
-        <v>87330246</v>
+        <v>101900832</v>
       </c>
       <c r="AI71" s="11">
-        <v>91649861</v>
+        <v>104021718</v>
       </c>
       <c r="AJ71" s="11">
-        <v>101900832</v>
+        <v>86655052</v>
       </c>
       <c r="AK71" s="11">
-        <v>104021718</v>
-      </c>
-      <c r="AL71" s="11">
-        <v>86655052</v>
-      </c>
-      <c r="AM71" s="11">
         <v>96953203</v>
       </c>
-      <c r="AN71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO71" s="11" t="s">
-        <v>57</v>
+      <c r="AL71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN71" s="11">
+        <v>88153641</v>
+      </c>
+      <c r="AO71" s="11">
+        <v>92362275</v>
       </c>
       <c r="AP71" s="11">
-        <v>88153641</v>
+        <v>116132411</v>
       </c>
       <c r="AQ71" s="11">
-        <v>92362275</v>
+        <v>156477769</v>
       </c>
       <c r="AR71" s="11">
-        <v>116132411</v>
+        <v>153555318</v>
       </c>
       <c r="AS71" s="11">
-        <v>156477769</v>
+        <v>81097095</v>
       </c>
       <c r="AT71" s="11">
-        <v>153555318</v>
+        <v>71412680</v>
       </c>
       <c r="AU71" s="11">
-        <v>81097095</v>
+        <v>56027372</v>
       </c>
       <c r="AV71" s="11">
-        <v>71412680</v>
+        <v>115468718</v>
       </c>
       <c r="AW71" s="11">
-        <v>56027372</v>
+        <v>119833964</v>
       </c>
       <c r="AX71" s="11">
-        <v>115468718</v>
+        <v>123481404</v>
       </c>
       <c r="AY71" s="11">
-        <v>119833964</v>
-      </c>
-      <c r="AZ71" s="11">
-        <v>123481404</v>
+        <v>64922372</v>
+      </c>
+      <c r="AZ71" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="BA71" s="11">
-        <v>64922372</v>
+        <v>84012320</v>
       </c>
       <c r="BB71" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>62</v>
       </c>
@@ -8924,56 +8924,56 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>1200000</v>
+        <v>753623</v>
       </c>
       <c r="F72" s="13">
-        <v>1200299</v>
+        <v>0</v>
       </c>
       <c r="G72" s="13">
-        <v>753623</v>
+        <v>1862053</v>
       </c>
       <c r="H72" s="13">
-        <v>0</v>
+        <v>1400266</v>
       </c>
       <c r="I72" s="13">
-        <v>1862053</v>
+        <v>1400000</v>
       </c>
       <c r="J72" s="13">
-        <v>1400266</v>
+        <v>0</v>
       </c>
       <c r="K72" s="13">
-        <v>1400000</v>
+        <v>0</v>
       </c>
       <c r="L72" s="13">
         <v>0</v>
       </c>
       <c r="M72" s="13">
-        <v>0</v>
+        <v>2299992</v>
       </c>
       <c r="N72" s="13">
-        <v>0</v>
+        <v>2300063</v>
       </c>
       <c r="O72" s="13">
-        <v>2299992</v>
+        <v>0</v>
       </c>
       <c r="P72" s="13">
-        <v>2300063</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="13">
-        <v>0</v>
+        <v>2600303</v>
       </c>
       <c r="R72" s="13">
         <v>0</v>
       </c>
       <c r="S72" s="13">
-        <v>2600303</v>
-      </c>
-      <c r="T72" s="13">
-        <v>0</v>
-      </c>
-      <c r="U72" s="13">
         <v>2241919</v>
       </c>
+      <c r="T72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U72" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V72" s="13" t="s">
         <v>57</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>78</v>
       </c>
@@ -9131,7 +9131,7 @@
       <c r="BA73" s="9"/>
       <c r="BB73" s="9"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>62</v>
       </c>
@@ -9193,59 +9193,59 @@
       <c r="V74" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W74" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X74" s="11" t="s">
-        <v>57</v>
+      <c r="W74" s="11">
+        <v>0</v>
+      </c>
+      <c r="X74" s="11">
+        <v>0</v>
       </c>
       <c r="Y74" s="11">
-        <v>0</v>
+        <v>4546617</v>
       </c>
       <c r="Z74" s="11">
-        <v>0</v>
+        <v>7932803</v>
       </c>
       <c r="AA74" s="11">
-        <v>4546617</v>
+        <v>0</v>
       </c>
       <c r="AB74" s="11">
-        <v>7932803</v>
+        <v>0</v>
       </c>
       <c r="AC74" s="11">
         <v>0</v>
       </c>
       <c r="AD74" s="11">
-        <v>0</v>
+        <v>4296524</v>
       </c>
       <c r="AE74" s="11">
-        <v>0</v>
+        <v>4300353</v>
       </c>
       <c r="AF74" s="11">
-        <v>4296524</v>
+        <v>0</v>
       </c>
       <c r="AG74" s="11">
-        <v>4300353</v>
+        <v>8400270</v>
       </c>
       <c r="AH74" s="11">
         <v>0</v>
       </c>
       <c r="AI74" s="11">
-        <v>8400270</v>
+        <v>0</v>
       </c>
       <c r="AJ74" s="11">
-        <v>0</v>
+        <v>9174773</v>
       </c>
       <c r="AK74" s="11">
         <v>0</v>
       </c>
       <c r="AL74" s="11">
-        <v>9174773</v>
+        <v>11000000</v>
       </c>
       <c r="AM74" s="11">
         <v>0</v>
       </c>
       <c r="AN74" s="11">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="AO74" s="11">
         <v>0</v>
@@ -9254,40 +9254,40 @@
         <v>0</v>
       </c>
       <c r="AQ74" s="11">
-        <v>0</v>
+        <v>11000306</v>
       </c>
       <c r="AR74" s="11">
         <v>0</v>
       </c>
       <c r="AS74" s="11">
-        <v>11000306</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="11">
-        <v>0</v>
+        <v>14000200</v>
       </c>
       <c r="AU74" s="11">
         <v>0</v>
       </c>
       <c r="AV74" s="11">
-        <v>14000200</v>
+        <v>14000399</v>
       </c>
       <c r="AW74" s="11">
-        <v>0</v>
+        <v>13999833</v>
       </c>
       <c r="AX74" s="11">
-        <v>14000399</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="11">
-        <v>13999833</v>
+        <v>0</v>
       </c>
       <c r="AZ74" s="11">
-        <v>0</v>
+        <v>14001091</v>
       </c>
       <c r="BA74" s="11">
         <v>0</v>
       </c>
       <c r="BB74" s="11">
-        <v>14001091</v>
+        <v>15000000</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/felezat/kimia/product/monthly.xlsx
+++ b/database/industries/felezat/kimia/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="79">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -119,7 +119,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -159,7 +159,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -199,7 +199,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -239,7 +239,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -279,7 +279,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -319,7 +319,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -359,7 +359,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -399,7 +399,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -439,7 +439,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -479,7 +479,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -519,7 +519,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -559,7 +559,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -599,7 +599,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -639,7 +639,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -679,7 +679,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -719,7 +719,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -759,7 +759,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -799,7 +799,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -839,7 +839,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -879,7 +879,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -919,7 +919,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -959,7 +959,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -999,7 +999,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1039,7 +1039,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1079,7 +1079,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1119,7 +1119,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1159,7 +1159,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1199,7 +1199,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1239,7 +1239,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1279,7 +1279,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1319,7 +1319,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1359,7 +1359,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1399,7 +1399,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1439,7 +1439,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1479,7 +1479,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1519,7 +1519,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1559,7 +1559,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1599,7 +1599,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1639,7 +1639,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1679,7 +1679,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1719,7 +1719,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1759,7 +1759,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1799,7 +1799,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1839,7 +1839,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1879,7 +1879,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1919,7 +1919,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1959,7 +1959,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1999,7 +1999,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2039,7 +2039,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2079,7 +2079,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="F11" s="12" t="n">
         <v>0</v>
@@ -3245,16 +3245,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>272</v>
+        <v>6</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M11" s="12" t="n">
         <v>0</v>
@@ -3320,22 +3320,22 @@
         <v>0</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>122</v>
+        <v>538</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>538</v>
+        <v>689</v>
       </c>
       <c r="AM11" s="12" t="n">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="12" t="n">
         <v>0</v>
@@ -3347,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="12" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AR11" s="12" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="12" t="n">
         <v>0</v>
@@ -3359,28 +3359,28 @@
         <v>0</v>
       </c>
       <c r="AU11" s="12" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AV11" s="12" t="n">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="12" t="n">
         <v>0</v>
       </c>
       <c r="AX11" s="12" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AY11" s="12" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="12" t="n">
         <v>0</v>
       </c>
       <c r="BA11" s="12" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="BB11" s="12" t="n">
-        <v>591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="L12" s="14" t="n">
         <v>0</v>
@@ -3428,49 +3428,49 @@
         <v>0</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="S12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="AE12" s="14" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="14" t="n">
         <v>0</v>
@@ -3482,19 +3482,19 @@
         <v>0</v>
       </c>
       <c r="AI12" s="14" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="AJ12" s="14" t="n">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AK12" s="14" t="n">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="AL12" s="14" t="n">
         <v>22</v>
       </c>
       <c r="AM12" s="14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="14" t="n">
         <v>0</v>
@@ -3506,34 +3506,34 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="14" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AR12" s="14" t="n">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AS12" s="14" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="14" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AU12" s="14" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AW12" s="14" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AY12" s="14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AZ12" s="14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="14" t="n">
         <v>0</v>
@@ -3551,28 +3551,28 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="n">
-        <v>2277</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>314</v>
+        <v>482</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>0</v>
+        <v>3238</v>
       </c>
       <c r="K13" s="12" t="n">
-        <v>3238</v>
+        <v>1000</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M13" s="12" t="n">
         <v>0</v>
@@ -3605,31 +3605,31 @@
         <v>0</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>626</v>
+        <v>2091</v>
       </c>
       <c r="Y13" s="12" t="n">
         <v>2091</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>2091</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="12" t="n">
-        <v>0</v>
+        <v>1858</v>
       </c>
       <c r="AB13" s="12" t="n">
-        <v>1858</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="AD13" s="12" t="n">
-        <v>483</v>
+        <v>558</v>
       </c>
       <c r="AE13" s="12" t="n">
-        <v>558</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="12" t="n">
         <v>0</v>
@@ -3641,64 +3641,64 @@
         <v>0</v>
       </c>
       <c r="AI13" s="12" t="n">
-        <v>0</v>
+        <v>940</v>
       </c>
       <c r="AJ13" s="12" t="n">
-        <v>940</v>
+        <v>580</v>
       </c>
       <c r="AK13" s="12" t="n">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="AL13" s="12" t="n">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AM13" s="12" t="n">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="AN13" s="12" t="n">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="AO13" s="12" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AP13" s="12" t="n">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="AQ13" s="12" t="n">
-        <v>213</v>
+        <v>1121</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>1121</v>
+        <v>446</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>446</v>
+        <v>271</v>
       </c>
       <c r="AT13" s="12" t="n">
-        <v>271</v>
+        <v>1229</v>
       </c>
       <c r="AU13" s="12" t="n">
-        <v>1229</v>
+        <v>1288</v>
       </c>
       <c r="AV13" s="12" t="n">
-        <v>1288</v>
+        <v>873</v>
       </c>
       <c r="AW13" s="12" t="n">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="AX13" s="12" t="n">
-        <v>866</v>
+        <v>604</v>
       </c>
       <c r="AY13" s="12" t="n">
-        <v>604</v>
+        <v>1957</v>
       </c>
       <c r="AZ13" s="12" t="n">
-        <v>1957</v>
+        <v>351</v>
       </c>
       <c r="BA13" s="12" t="n">
-        <v>351</v>
+        <v>4500</v>
       </c>
       <c r="BB13" s="12" t="n">
-        <v>4500</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3713,151 +3713,151 @@
         <v>0</v>
       </c>
       <c r="F14" s="14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14" s="14" t="n">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="H14" s="14" t="n">
-        <v>152</v>
+        <v>441</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>441</v>
+        <v>236</v>
       </c>
       <c r="J14" s="14" t="n">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="K14" s="14" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="L14" s="14" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="N14" s="14" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="O14" s="14" t="n">
-        <v>64</v>
+        <v>316</v>
       </c>
       <c r="P14" s="14" t="n">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="14" t="n">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="R14" s="14" t="n">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="S14" s="14" t="n">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="T14" s="14" t="n">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="U14" s="14" t="n">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="V14" s="14" t="n">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W14" s="14" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="X14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" s="14" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="Z14" s="14" t="n">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="AA14" s="14" t="n">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="AB14" s="14" t="n">
+        <v>460</v>
+      </c>
+      <c r="AC14" s="14" t="n">
+        <v>218</v>
+      </c>
+      <c r="AD14" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="AC14" s="14" t="n">
-        <v>460</v>
-      </c>
-      <c r="AD14" s="14" t="n">
-        <v>218</v>
-      </c>
       <c r="AE14" s="14" t="n">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="AF14" s="14" t="n">
+        <v>155</v>
+      </c>
+      <c r="AG14" s="14" t="n">
+        <v>187</v>
+      </c>
+      <c r="AH14" s="14" t="n">
+        <v>174</v>
+      </c>
+      <c r="AI14" s="14" t="n">
+        <v>276</v>
+      </c>
+      <c r="AJ14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="14" t="n">
+        <v>145</v>
+      </c>
+      <c r="AM14" s="14" t="n">
+        <v>470</v>
+      </c>
+      <c r="AN14" s="14" t="n">
+        <v>366</v>
+      </c>
+      <c r="AO14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="14" t="n">
+        <v>108</v>
+      </c>
+      <c r="AQ14" s="14" t="n">
         <v>109</v>
       </c>
-      <c r="AG14" s="14" t="n">
-        <v>155</v>
-      </c>
-      <c r="AH14" s="14" t="n">
-        <v>187</v>
-      </c>
-      <c r="AI14" s="14" t="n">
-        <v>174</v>
-      </c>
-      <c r="AJ14" s="14" t="n">
-        <v>276</v>
-      </c>
-      <c r="AK14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="14" t="n">
-        <v>145</v>
-      </c>
-      <c r="AN14" s="14" t="n">
-        <v>470</v>
-      </c>
-      <c r="AO14" s="14" t="n">
-        <v>366</v>
-      </c>
-      <c r="AP14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="14" t="n">
-        <v>108</v>
-      </c>
       <c r="AR14" s="14" t="n">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="AS14" s="14" t="n">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="AT14" s="14" t="n">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="AU14" s="14" t="n">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="AV14" s="14" t="n">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AW14" s="14" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="14" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AY14" s="14" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="BA14" s="14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB14" s="14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3869,154 +3869,154 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="n">
-        <v>3029</v>
+        <v>0</v>
       </c>
       <c r="F15" s="12" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="12" t="n">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>2044</v>
+        <v>4385</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>4385</v>
+        <v>6788</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v>6788</v>
+        <v>251</v>
       </c>
       <c r="K15" s="12" t="n">
-        <v>251</v>
+        <v>613</v>
       </c>
       <c r="L15" s="12" t="n">
-        <v>613</v>
+        <v>2788</v>
       </c>
       <c r="M15" s="12" t="n">
-        <v>2788</v>
+        <v>1209</v>
       </c>
       <c r="N15" s="12" t="n">
-        <v>1209</v>
+        <v>1446</v>
       </c>
       <c r="O15" s="12" t="n">
-        <v>1446</v>
+        <v>5718</v>
       </c>
       <c r="P15" s="12" t="n">
-        <v>5718</v>
+        <v>2340</v>
       </c>
       <c r="Q15" s="12" t="n">
-        <v>2340</v>
+        <v>3391</v>
       </c>
       <c r="R15" s="12" t="n">
-        <v>3391</v>
+        <v>1910</v>
       </c>
       <c r="S15" s="12" t="n">
-        <v>1910</v>
+        <v>5466</v>
       </c>
       <c r="T15" s="12" t="n">
-        <v>5466</v>
+        <v>1670</v>
       </c>
       <c r="U15" s="12" t="n">
-        <v>1670</v>
+        <v>3654</v>
       </c>
       <c r="V15" s="12" t="n">
-        <v>3654</v>
+        <v>1150</v>
       </c>
       <c r="W15" s="12" t="n">
-        <v>1150</v>
+        <v>571</v>
       </c>
       <c r="X15" s="12" t="n">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="12" t="n">
-        <v>0</v>
+        <v>3382</v>
       </c>
       <c r="Z15" s="12" t="n">
-        <v>3382</v>
+        <v>2732</v>
       </c>
       <c r="AA15" s="12" t="n">
-        <v>2732</v>
+        <v>5532</v>
       </c>
       <c r="AB15" s="12" t="n">
-        <v>5532</v>
+        <v>9254</v>
       </c>
       <c r="AC15" s="12" t="n">
-        <v>9254</v>
+        <v>9021</v>
       </c>
       <c r="AD15" s="12" t="n">
-        <v>9021</v>
+        <v>3122</v>
       </c>
       <c r="AE15" s="12" t="n">
-        <v>3122</v>
+        <v>3127</v>
       </c>
       <c r="AF15" s="12" t="n">
-        <v>3127</v>
+        <v>3596</v>
       </c>
       <c r="AG15" s="12" t="n">
-        <v>3596</v>
+        <v>4363</v>
       </c>
       <c r="AH15" s="12" t="n">
-        <v>4363</v>
+        <v>4027</v>
       </c>
       <c r="AI15" s="12" t="n">
-        <v>4027</v>
+        <v>9373</v>
       </c>
       <c r="AJ15" s="12" t="n">
-        <v>9373</v>
+        <v>3271</v>
       </c>
       <c r="AK15" s="12" t="n">
-        <v>3271</v>
+        <v>646</v>
       </c>
       <c r="AL15" s="12" t="n">
-        <v>646</v>
+        <v>758</v>
       </c>
       <c r="AM15" s="12" t="n">
-        <v>758</v>
+        <v>1866</v>
       </c>
       <c r="AN15" s="12" t="n">
-        <v>1866</v>
+        <v>3050</v>
       </c>
       <c r="AO15" s="12" t="n">
-        <v>3050</v>
+        <v>4602</v>
       </c>
       <c r="AP15" s="12" t="n">
-        <v>4602</v>
+        <v>3982</v>
       </c>
       <c r="AQ15" s="12" t="n">
-        <v>3982</v>
+        <v>2418</v>
       </c>
       <c r="AR15" s="12" t="n">
-        <v>2418</v>
+        <v>3872</v>
       </c>
       <c r="AS15" s="12" t="n">
-        <v>3872</v>
+        <v>1784</v>
       </c>
       <c r="AT15" s="12" t="n">
-        <v>1784</v>
+        <v>1147</v>
       </c>
       <c r="AU15" s="12" t="n">
-        <v>1147</v>
+        <v>7063</v>
       </c>
       <c r="AV15" s="12" t="n">
-        <v>7063</v>
+        <v>954</v>
       </c>
       <c r="AW15" s="12" t="n">
-        <v>954</v>
+        <v>1676</v>
       </c>
       <c r="AX15" s="12" t="n">
-        <v>1676</v>
+        <v>1045</v>
       </c>
       <c r="AY15" s="12" t="n">
-        <v>1045</v>
+        <v>180</v>
       </c>
       <c r="AZ15" s="12" t="n">
-        <v>180</v>
+        <v>446</v>
       </c>
       <c r="BA15" s="12" t="n">
-        <v>446</v>
+        <v>6880</v>
       </c>
       <c r="BB15" s="12" t="n">
-        <v>6880</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,16 +4028,16 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="n">
-        <v>0</v>
+        <v>28366</v>
       </c>
       <c r="F16" s="14" t="n">
-        <v>28366</v>
+        <v>752</v>
       </c>
       <c r="G16" s="14" t="n">
-        <v>752</v>
+        <v>545</v>
       </c>
       <c r="H16" s="14" t="n">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I16" s="14" t="n">
         <v>0</v>
@@ -4046,28 +4046,28 @@
         <v>0</v>
       </c>
       <c r="K16" s="14" t="n">
-        <v>0</v>
+        <v>13267</v>
       </c>
       <c r="L16" s="14" t="n">
-        <v>13267</v>
+        <v>7875</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>7875</v>
+        <v>0</v>
       </c>
       <c r="N16" s="14" t="n">
         <v>0</v>
       </c>
       <c r="O16" s="14" t="n">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="P16" s="14" t="n">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="14" t="n">
-        <v>0</v>
+        <v>9652</v>
       </c>
       <c r="R16" s="14" t="n">
-        <v>9652</v>
+        <v>0</v>
       </c>
       <c r="S16" s="14" t="n">
         <v>0</v>
@@ -4075,8 +4075,8 @@
       <c r="T16" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="U16" s="14" t="n">
-        <v>0</v>
+      <c r="U16" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="V16" s="15" t="s">
         <v>62</v>
@@ -4291,20 +4291,20 @@
       <c r="T18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>62</v>
+      <c r="U18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="16" t="n">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="X18" s="16" t="n">
-        <v>34633</v>
+        <v>12188</v>
       </c>
       <c r="Y18" s="16" t="n">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="16" t="n">
         <v>0</v>
@@ -4313,37 +4313,37 @@
         <v>0</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="16" t="n">
         <v>10368</v>
       </c>
-      <c r="AG18" s="16" t="s">
-        <v>62</v>
+      <c r="AF18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>0</v>
+        <v>24260</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>24260</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>0</v>
+        <v>12495</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>12495</v>
-      </c>
-      <c r="AL18" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="AM18" s="16" t="s">
         <v>62</v>
@@ -4351,47 +4351,47 @@
       <c r="AN18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AO18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP18" s="16" t="n">
+      <c r="AO18" s="16" t="n">
         <v>13055</v>
       </c>
+      <c r="AP18" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AR18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS18" s="16" t="n">
+      <c r="AR18" s="16" t="n">
         <v>20026</v>
       </c>
-      <c r="AT18" s="16" t="s">
-        <v>62</v>
+      <c r="AS18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT18" s="16" t="n">
+        <v>5008</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>5008</v>
+        <v>5995</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>0</v>
+        <v>5499</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>5499</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>0</v>
+        <v>11513</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>11513</v>
+        <v>14964</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>14964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,8 +4448,8 @@
       <c r="T19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="U19" s="18" t="s">
-        <v>62</v>
+      <c r="U19" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="18" t="n">
         <v>0</v>
@@ -4558,154 +4558,154 @@
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20" t="n">
-        <v>6125</v>
+        <v>28366</v>
       </c>
       <c r="F20" s="20" t="n">
-        <v>28366</v>
+        <v>762</v>
       </c>
       <c r="G20" s="20" t="n">
-        <v>762</v>
+        <v>3055</v>
       </c>
       <c r="H20" s="20" t="n">
-        <v>3055</v>
+        <v>5361</v>
       </c>
       <c r="I20" s="20" t="n">
-        <v>5361</v>
+        <v>7342</v>
       </c>
       <c r="J20" s="20" t="n">
-        <v>7342</v>
+        <v>3933</v>
       </c>
       <c r="K20" s="20" t="n">
-        <v>3933</v>
+        <v>14886</v>
       </c>
       <c r="L20" s="20" t="n">
-        <v>14886</v>
+        <v>10812</v>
       </c>
       <c r="M20" s="20" t="n">
-        <v>10812</v>
+        <v>1238</v>
       </c>
       <c r="N20" s="20" t="n">
-        <v>1238</v>
+        <v>1510</v>
       </c>
       <c r="O20" s="20" t="n">
-        <v>1510</v>
+        <v>7355</v>
       </c>
       <c r="P20" s="20" t="n">
-        <v>7355</v>
+        <v>2548</v>
       </c>
       <c r="Q20" s="20" t="n">
-        <v>2548</v>
+        <v>13277</v>
       </c>
       <c r="R20" s="20" t="n">
-        <v>13277</v>
+        <v>2213</v>
       </c>
       <c r="S20" s="20" t="n">
-        <v>2213</v>
+        <v>5668</v>
       </c>
       <c r="T20" s="20" t="n">
-        <v>5668</v>
+        <v>2070</v>
       </c>
       <c r="U20" s="20" t="n">
-        <v>2070</v>
+        <v>3739</v>
       </c>
       <c r="V20" s="20" t="n">
-        <v>3739</v>
+        <v>1402</v>
       </c>
       <c r="W20" s="20" t="n">
-        <v>1402</v>
+        <v>35836</v>
       </c>
       <c r="X20" s="20" t="n">
-        <v>35836</v>
+        <v>14296</v>
       </c>
       <c r="Y20" s="20" t="n">
-        <v>14296</v>
+        <v>5697</v>
       </c>
       <c r="Z20" s="20" t="n">
-        <v>5697</v>
+        <v>2924</v>
       </c>
       <c r="AA20" s="20" t="n">
-        <v>2924</v>
+        <v>7473</v>
       </c>
       <c r="AB20" s="20" t="n">
-        <v>7473</v>
+        <v>10203</v>
       </c>
       <c r="AC20" s="20" t="n">
-        <v>10203</v>
+        <v>10196</v>
       </c>
       <c r="AD20" s="20" t="n">
-        <v>10196</v>
+        <v>3801</v>
       </c>
       <c r="AE20" s="20" t="n">
-        <v>3801</v>
+        <v>13604</v>
       </c>
       <c r="AF20" s="20" t="n">
-        <v>13604</v>
+        <v>3751</v>
       </c>
       <c r="AG20" s="20" t="n">
-        <v>3751</v>
+        <v>4550</v>
       </c>
       <c r="AH20" s="20" t="n">
-        <v>4550</v>
+        <v>28671</v>
       </c>
       <c r="AI20" s="20" t="n">
-        <v>28671</v>
+        <v>11081</v>
       </c>
       <c r="AJ20" s="20" t="n">
-        <v>11081</v>
+        <v>16546</v>
       </c>
       <c r="AK20" s="20" t="n">
-        <v>16546</v>
+        <v>1309</v>
       </c>
       <c r="AL20" s="20" t="n">
-        <v>1309</v>
+        <v>1689</v>
       </c>
       <c r="AM20" s="20" t="n">
-        <v>1689</v>
+        <v>2700</v>
       </c>
       <c r="AN20" s="20" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="AO20" s="20" t="n">
-        <v>3500</v>
+        <v>17757</v>
       </c>
       <c r="AP20" s="20" t="n">
-        <v>17757</v>
+        <v>4303</v>
       </c>
       <c r="AQ20" s="20" t="n">
-        <v>4303</v>
+        <v>3879</v>
       </c>
       <c r="AR20" s="20" t="n">
-        <v>3879</v>
+        <v>24753</v>
       </c>
       <c r="AS20" s="20" t="n">
-        <v>24753</v>
+        <v>2244</v>
       </c>
       <c r="AT20" s="20" t="n">
-        <v>2244</v>
+        <v>7586</v>
       </c>
       <c r="AU20" s="20" t="n">
-        <v>7586</v>
+        <v>15223</v>
       </c>
       <c r="AV20" s="20" t="n">
-        <v>15223</v>
+        <v>1975</v>
       </c>
       <c r="AW20" s="20" t="n">
-        <v>1975</v>
+        <v>2542</v>
       </c>
       <c r="AX20" s="20" t="n">
-        <v>2542</v>
+        <v>7253</v>
       </c>
       <c r="AY20" s="20" t="n">
-        <v>7253</v>
+        <v>2145</v>
       </c>
       <c r="AZ20" s="20" t="n">
-        <v>2145</v>
+        <v>12310</v>
       </c>
       <c r="BA20" s="20" t="n">
-        <v>12310</v>
+        <v>26941</v>
       </c>
       <c r="BB20" s="20" t="n">
-        <v>26941</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,28 +5151,28 @@
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="n">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="F27" s="16" t="n">
-        <v>811</v>
+        <v>8</v>
       </c>
       <c r="G27" s="16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H27" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="16" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J27" s="16" t="n">
         <v>150</v>
       </c>
       <c r="K27" s="16" t="n">
-        <v>150</v>
+        <v>296</v>
       </c>
       <c r="L27" s="16" t="n">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="M27" s="16" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X27" s="16" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="16" t="n">
         <v>0</v>
@@ -5238,37 +5238,37 @@
         <v>0</v>
       </c>
       <c r="AH27" s="16" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AI27" s="16" t="n">
-        <v>49</v>
+        <v>429</v>
       </c>
       <c r="AJ27" s="16" t="n">
-        <v>429</v>
+        <v>122</v>
       </c>
       <c r="AK27" s="16" t="n">
-        <v>122</v>
+        <v>416</v>
       </c>
       <c r="AL27" s="16" t="n">
-        <v>416</v>
+        <v>271</v>
       </c>
       <c r="AM27" s="16" t="n">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO27" s="16" t="n">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="AP27" s="16" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="16" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AR27" s="16" t="n">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="16" t="n">
         <v>0</v>
@@ -5277,28 +5277,28 @@
         <v>0</v>
       </c>
       <c r="AU27" s="16" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AV27" s="16" t="n">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AX27" s="16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AY27" s="16" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA27" s="16" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="BB27" s="16" t="n">
-        <v>591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5340,31 +5340,31 @@
         <v>0</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="P28" s="15" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="15" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="R28" s="15" t="n">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="S28" s="15" t="n">
         <v>0</v>
       </c>
       <c r="T28" s="15" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="U28" s="15" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="V28" s="15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="W28" s="15" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="X28" s="15" t="n">
         <v>0</v>
@@ -5382,10 +5382,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="15" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AD28" s="15" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="15" t="n">
         <v>0</v>
@@ -5400,10 +5400,10 @@
         <v>0</v>
       </c>
       <c r="AI28" s="15" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ28" s="15" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="15" t="n">
         <v>0</v>
@@ -5412,13 +5412,13 @@
         <v>0</v>
       </c>
       <c r="AM28" s="15" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AN28" s="15" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO28" s="15" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="15" t="n">
         <v>0</v>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="AU28" s="15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AV28" s="15" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AW28" s="15" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="15" t="n">
         <v>0</v>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5538,46 +5538,46 @@
         <v>0</v>
       </c>
       <c r="AB29" s="16" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AC29" s="16" t="n">
-        <v>600</v>
+        <v>5470</v>
       </c>
       <c r="AD29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="16" t="n">
+        <v>184</v>
+      </c>
+      <c r="AJ29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="16" t="n">
         <v>5470</v>
       </c>
-      <c r="AE29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="16" t="n">
-        <v>184</v>
-      </c>
-      <c r="AK29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AO29" s="16" t="n">
-        <v>5470</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="16" t="n">
         <v>0</v>
@@ -5595,28 +5595,28 @@
         <v>0</v>
       </c>
       <c r="AU29" s="16" t="n">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="AV29" s="16" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="AW29" s="16" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="AX29" s="16" t="n">
-        <v>1300</v>
+        <v>522</v>
       </c>
       <c r="AY29" s="16" t="n">
-        <v>522</v>
+        <v>2000</v>
       </c>
       <c r="AZ29" s="16" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="BA29" s="16" t="n">
-        <v>350</v>
+        <v>3650</v>
       </c>
       <c r="BB29" s="16" t="n">
-        <v>3650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5628,13 +5628,13 @@
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="15" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="F30" s="15" t="n">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="G30" s="15" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H30" s="15" t="n">
         <v>0</v>
@@ -5658,34 +5658,34 @@
         <v>0</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="P30" s="15" t="n">
-        <v>466</v>
+        <v>651</v>
       </c>
       <c r="Q30" s="15" t="n">
-        <v>651</v>
+        <v>298</v>
       </c>
       <c r="R30" s="15" t="n">
-        <v>298</v>
+        <v>561</v>
       </c>
       <c r="S30" s="15" t="n">
-        <v>561</v>
+        <v>158</v>
       </c>
       <c r="T30" s="15" t="n">
-        <v>158</v>
+        <v>588</v>
       </c>
       <c r="U30" s="15" t="n">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="V30" s="15" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="W30" s="15" t="n">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="X30" s="15" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="15" t="n">
         <v>0</v>
@@ -5697,22 +5697,22 @@
         <v>0</v>
       </c>
       <c r="AB30" s="15" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AC30" s="15" t="n">
-        <v>246</v>
+        <v>494</v>
       </c>
       <c r="AD30" s="15" t="n">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AF30" s="15" t="n">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="AG30" s="15" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="15" t="n">
         <v>0</v>
@@ -5730,37 +5730,37 @@
         <v>0</v>
       </c>
       <c r="AM30" s="15" t="n">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="AN30" s="15" t="n">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="AO30" s="15" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AP30" s="15" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AQ30" s="15" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="15" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AS30" s="15" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AU30" s="15" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AV30" s="15" t="n">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="AW30" s="15" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="15" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="BB30" s="15" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5787,154 +5787,154 @@
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="n">
-        <v>4904</v>
+        <v>3465</v>
       </c>
       <c r="F31" s="16" t="n">
-        <v>3465</v>
+        <v>0</v>
       </c>
       <c r="G31" s="16" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="16" t="n">
-        <v>0</v>
+        <v>5984</v>
       </c>
       <c r="I31" s="16" t="n">
-        <v>5984</v>
+        <v>1137</v>
       </c>
       <c r="J31" s="16" t="n">
-        <v>1137</v>
+        <v>3336</v>
       </c>
       <c r="K31" s="16" t="n">
-        <v>3336</v>
+        <v>1837</v>
       </c>
       <c r="L31" s="16" t="n">
-        <v>1837</v>
+        <v>711</v>
       </c>
       <c r="M31" s="16" t="n">
-        <v>711</v>
+        <v>3022</v>
       </c>
       <c r="N31" s="16" t="n">
-        <v>3022</v>
+        <v>2303</v>
       </c>
       <c r="O31" s="16" t="n">
-        <v>2303</v>
+        <v>3328</v>
       </c>
       <c r="P31" s="16" t="n">
-        <v>3328</v>
+        <v>5264</v>
       </c>
       <c r="Q31" s="16" t="n">
-        <v>5264</v>
+        <v>2569</v>
       </c>
       <c r="R31" s="16" t="n">
-        <v>2569</v>
+        <v>0</v>
       </c>
       <c r="S31" s="16" t="n">
-        <v>0</v>
+        <v>3136</v>
       </c>
       <c r="T31" s="16" t="n">
-        <v>3136</v>
+        <v>2904</v>
       </c>
       <c r="U31" s="16" t="n">
-        <v>2904</v>
+        <v>4516</v>
       </c>
       <c r="V31" s="16" t="n">
-        <v>4516</v>
+        <v>3673</v>
       </c>
       <c r="W31" s="16" t="n">
-        <v>3673</v>
+        <v>202</v>
       </c>
       <c r="X31" s="16" t="n">
-        <v>202</v>
+        <v>1313</v>
       </c>
       <c r="Y31" s="16" t="n">
-        <v>1313</v>
+        <v>2016</v>
       </c>
       <c r="Z31" s="16" t="n">
-        <v>2016</v>
+        <v>2751</v>
       </c>
       <c r="AA31" s="16" t="n">
-        <v>2751</v>
+        <v>5995</v>
       </c>
       <c r="AB31" s="16" t="n">
-        <v>5995</v>
+        <v>10745</v>
       </c>
       <c r="AC31" s="16" t="n">
-        <v>10745</v>
+        <v>7406</v>
       </c>
       <c r="AD31" s="16" t="n">
-        <v>7406</v>
+        <v>3455</v>
       </c>
       <c r="AE31" s="16" t="n">
-        <v>3455</v>
+        <v>3233</v>
       </c>
       <c r="AF31" s="16" t="n">
-        <v>3233</v>
+        <v>2884</v>
       </c>
       <c r="AG31" s="16" t="n">
-        <v>2884</v>
+        <v>4190</v>
       </c>
       <c r="AH31" s="16" t="n">
-        <v>4190</v>
+        <v>3157</v>
       </c>
       <c r="AI31" s="16" t="n">
-        <v>3157</v>
+        <v>8633</v>
       </c>
       <c r="AJ31" s="16" t="n">
-        <v>8633</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AL31" s="16" t="n">
-        <v>0</v>
+        <v>3749</v>
       </c>
       <c r="AM31" s="16" t="n">
-        <v>3749</v>
+        <v>1670</v>
       </c>
       <c r="AN31" s="16" t="n">
-        <v>1670</v>
+        <v>2530</v>
       </c>
       <c r="AO31" s="16" t="n">
-        <v>2530</v>
+        <v>4948</v>
       </c>
       <c r="AP31" s="16" t="n">
-        <v>4948</v>
+        <v>4203</v>
       </c>
       <c r="AQ31" s="16" t="n">
-        <v>4203</v>
+        <v>1205</v>
       </c>
       <c r="AR31" s="16" t="n">
-        <v>1205</v>
+        <v>1735</v>
       </c>
       <c r="AS31" s="16" t="n">
-        <v>1735</v>
+        <v>2192</v>
       </c>
       <c r="AT31" s="16" t="n">
-        <v>2192</v>
+        <v>2893</v>
       </c>
       <c r="AU31" s="16" t="n">
-        <v>2893</v>
+        <v>4493</v>
       </c>
       <c r="AV31" s="16" t="n">
-        <v>4493</v>
+        <v>1425</v>
       </c>
       <c r="AW31" s="16" t="n">
-        <v>1425</v>
+        <v>1636</v>
       </c>
       <c r="AX31" s="16" t="n">
-        <v>1636</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="16" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="AZ31" s="16" t="n">
-        <v>974</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="16" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="BB31" s="16" t="n">
-        <v>4400</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5946,16 +5946,16 @@
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="15" t="n">
-        <v>0</v>
+        <v>28366</v>
       </c>
       <c r="F32" s="15" t="n">
-        <v>28366</v>
+        <v>752</v>
       </c>
       <c r="G32" s="15" t="n">
-        <v>752</v>
+        <v>545</v>
       </c>
       <c r="H32" s="15" t="n">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I32" s="15" t="n">
         <v>0</v>
@@ -5964,28 +5964,28 @@
         <v>0</v>
       </c>
       <c r="K32" s="15" t="n">
-        <v>0</v>
+        <v>13267</v>
       </c>
       <c r="L32" s="15" t="n">
-        <v>13267</v>
+        <v>7875</v>
       </c>
       <c r="M32" s="15" t="n">
-        <v>7875</v>
+        <v>0</v>
       </c>
       <c r="N32" s="15" t="n">
         <v>0</v>
       </c>
       <c r="O32" s="15" t="n">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="P32" s="15" t="n">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="15" t="n">
-        <v>0</v>
+        <v>9652</v>
       </c>
       <c r="R32" s="15" t="n">
-        <v>9652</v>
+        <v>0</v>
       </c>
       <c r="S32" s="15" t="n">
         <v>0</v>
@@ -5993,8 +5993,8 @@
       <c r="T32" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="U32" s="15" t="n">
-        <v>0</v>
+      <c r="U32" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="V32" s="15" t="s">
         <v>62</v>
@@ -6209,20 +6209,20 @@
       <c r="T34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U34" s="16" t="s">
-        <v>62</v>
+      <c r="U34" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V34" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W34" s="16" t="n">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="X34" s="16" t="n">
-        <v>34633</v>
+        <v>12188</v>
       </c>
       <c r="Y34" s="16" t="n">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="16" t="n">
         <v>0</v>
@@ -6231,85 +6231,85 @@
         <v>0</v>
       </c>
       <c r="AB34" s="16" t="n">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AC34" s="16" t="n">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="AD34" s="16" t="n">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="16" t="n">
         <v>10368</v>
       </c>
-      <c r="AG34" s="16" t="s">
-        <v>62</v>
+      <c r="AF34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG34" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AH34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="16" t="n">
         <v>24260</v>
       </c>
-      <c r="AJ34" s="16" t="s">
-        <v>62</v>
+      <c r="AI34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ34" s="16" t="n">
+        <v>12495</v>
       </c>
       <c r="AK34" s="16" t="n">
-        <v>12495</v>
-      </c>
-      <c r="AL34" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="AM34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AN34" s="16" t="s">
-        <v>62</v>
+      <c r="AN34" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="16" t="n">
         <v>13055</v>
       </c>
+      <c r="AP34" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AQ34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AR34" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS34" s="16" t="n">
+      <c r="AR34" s="16" t="n">
         <v>20026</v>
       </c>
-      <c r="AT34" s="16" t="s">
-        <v>62</v>
+      <c r="AS34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT34" s="16" t="n">
+        <v>5008</v>
       </c>
       <c r="AU34" s="16" t="n">
-        <v>5008</v>
+        <v>5995</v>
       </c>
       <c r="AV34" s="16" t="n">
-        <v>5995</v>
-      </c>
-      <c r="AW34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX34" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY34" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX34" s="16" t="n">
         <v>5499</v>
       </c>
-      <c r="AZ34" s="16" t="s">
-        <v>62</v>
+      <c r="AY34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ34" s="16" t="n">
+        <v>11513</v>
       </c>
       <c r="BA34" s="16" t="n">
-        <v>11513</v>
+        <v>14964</v>
       </c>
       <c r="BB34" s="16" t="n">
-        <v>14964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6366,20 +6366,20 @@
       <c r="T35" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="U35" s="18" t="s">
-        <v>62</v>
+      <c r="U35" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V35" s="18" t="n">
         <v>0</v>
       </c>
       <c r="W35" s="18" t="n">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="X35" s="18" t="n">
-        <v>34633</v>
+        <v>12188</v>
       </c>
       <c r="Y35" s="18" t="n">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="18" t="n">
         <v>0</v>
@@ -6388,34 +6388,34 @@
         <v>0</v>
       </c>
       <c r="AB35" s="18" t="n">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AC35" s="18" t="n">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="AD35" s="18" t="n">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="18" t="n">
-        <v>0</v>
+        <v>10368</v>
       </c>
       <c r="AF35" s="18" t="n">
-        <v>10368</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AH35" s="18" t="n">
-        <v>0</v>
+        <v>24260</v>
       </c>
       <c r="AI35" s="18" t="n">
-        <v>24260</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="18" t="n">
-        <v>0</v>
+        <v>12495</v>
       </c>
       <c r="AK35" s="18" t="n">
-        <v>12495</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="18" t="n">
         <v>0</v>
@@ -6427,46 +6427,46 @@
         <v>0</v>
       </c>
       <c r="AO35" s="18" t="n">
-        <v>0</v>
+        <v>13055</v>
       </c>
       <c r="AP35" s="18" t="n">
-        <v>13055</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AR35" s="18" t="n">
-        <v>0</v>
+        <v>20026</v>
       </c>
       <c r="AS35" s="18" t="n">
-        <v>20026</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="18" t="n">
-        <v>0</v>
+        <v>5008</v>
       </c>
       <c r="AU35" s="18" t="n">
-        <v>5008</v>
+        <v>5995</v>
       </c>
       <c r="AV35" s="18" t="n">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="AW35" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AX35" s="18" t="n">
-        <v>0</v>
+        <v>5499</v>
       </c>
       <c r="AY35" s="18" t="n">
-        <v>5499</v>
+        <v>0</v>
       </c>
       <c r="AZ35" s="18" t="n">
-        <v>0</v>
+        <v>11513</v>
       </c>
       <c r="BA35" s="18" t="n">
-        <v>11513</v>
+        <v>14964</v>
       </c>
       <c r="BB35" s="18" t="n">
-        <v>14964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6582,8 +6582,8 @@
       <c r="T37" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U37" s="16" t="s">
-        <v>62</v>
+      <c r="U37" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V37" s="16" t="n">
         <v>0</v>
@@ -6609,8 +6609,8 @@
       <c r="AC37" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD37" s="16" t="n">
-        <v>0</v>
+      <c r="AD37" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="AE37" s="16" t="s">
         <v>62</v>
@@ -6618,11 +6618,11 @@
       <c r="AF37" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AG37" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH37" s="16" t="n">
-        <v>0</v>
+      <c r="AG37" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="AI37" s="16" t="s">
         <v>62</v>
@@ -6630,11 +6630,11 @@
       <c r="AJ37" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AK37" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL37" s="16" t="n">
-        <v>0</v>
+      <c r="AK37" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="AM37" s="16" t="s">
         <v>62</v>
@@ -6669,20 +6669,20 @@
       <c r="AW37" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AX37" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY37" s="16" t="n">
+      <c r="AX37" s="16" t="n">
         <v>-12</v>
       </c>
-      <c r="AZ37" s="16" t="s">
-        <v>62</v>
+      <c r="AY37" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ37" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA37" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB37" s="16" t="n">
-        <v>0</v>
+      <c r="BB37" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6739,8 +6739,8 @@
       <c r="T38" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="U38" s="18" t="s">
-        <v>62</v>
+      <c r="U38" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V38" s="18" t="n">
         <v>0</v>
@@ -6827,10 +6827,10 @@
         <v>0</v>
       </c>
       <c r="AX38" s="18" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AY38" s="18" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="18" t="n">
         <v>0</v>
@@ -6849,154 +6849,154 @@
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20" t="n">
-        <v>4904</v>
+        <v>32803</v>
       </c>
       <c r="F39" s="20" t="n">
-        <v>32803</v>
+        <v>800</v>
       </c>
       <c r="G39" s="20" t="n">
-        <v>800</v>
+        <v>545</v>
       </c>
       <c r="H39" s="20" t="n">
-        <v>545</v>
+        <v>5984</v>
       </c>
       <c r="I39" s="20" t="n">
-        <v>5984</v>
+        <v>1287</v>
       </c>
       <c r="J39" s="20" t="n">
-        <v>1287</v>
+        <v>3486</v>
       </c>
       <c r="K39" s="20" t="n">
-        <v>3486</v>
+        <v>15400</v>
       </c>
       <c r="L39" s="20" t="n">
-        <v>15400</v>
+        <v>8586</v>
       </c>
       <c r="M39" s="20" t="n">
-        <v>8586</v>
+        <v>3022</v>
       </c>
       <c r="N39" s="20" t="n">
-        <v>3022</v>
+        <v>2303</v>
       </c>
       <c r="O39" s="20" t="n">
-        <v>2303</v>
+        <v>5167</v>
       </c>
       <c r="P39" s="20" t="n">
-        <v>5167</v>
+        <v>5915</v>
       </c>
       <c r="Q39" s="20" t="n">
-        <v>5915</v>
+        <v>12823</v>
       </c>
       <c r="R39" s="20" t="n">
-        <v>12823</v>
+        <v>561</v>
       </c>
       <c r="S39" s="20" t="n">
-        <v>561</v>
+        <v>3294</v>
       </c>
       <c r="T39" s="20" t="n">
-        <v>3294</v>
+        <v>3694</v>
       </c>
       <c r="U39" s="20" t="n">
-        <v>3694</v>
+        <v>4516</v>
       </c>
       <c r="V39" s="20" t="n">
-        <v>4516</v>
+        <v>3956</v>
       </c>
       <c r="W39" s="20" t="n">
-        <v>3956</v>
+        <v>35053</v>
       </c>
       <c r="X39" s="20" t="n">
-        <v>35053</v>
+        <v>13501</v>
       </c>
       <c r="Y39" s="20" t="n">
-        <v>13501</v>
+        <v>2016</v>
       </c>
       <c r="Z39" s="20" t="n">
-        <v>2016</v>
+        <v>2751</v>
       </c>
       <c r="AA39" s="20" t="n">
-        <v>2751</v>
+        <v>5995</v>
       </c>
       <c r="AB39" s="20" t="n">
-        <v>5995</v>
+        <v>12080</v>
       </c>
       <c r="AC39" s="20" t="n">
-        <v>12080</v>
+        <v>13814</v>
       </c>
       <c r="AD39" s="20" t="n">
-        <v>13814</v>
+        <v>3455</v>
       </c>
       <c r="AE39" s="20" t="n">
-        <v>3455</v>
+        <v>13601</v>
       </c>
       <c r="AF39" s="20" t="n">
-        <v>13601</v>
+        <v>3290</v>
       </c>
       <c r="AG39" s="20" t="n">
-        <v>3290</v>
+        <v>4190</v>
       </c>
       <c r="AH39" s="20" t="n">
-        <v>4190</v>
+        <v>27466</v>
       </c>
       <c r="AI39" s="20" t="n">
-        <v>27466</v>
+        <v>9341</v>
       </c>
       <c r="AJ39" s="20" t="n">
-        <v>9341</v>
+        <v>12617</v>
       </c>
       <c r="AK39" s="20" t="n">
-        <v>12617</v>
+        <v>416</v>
       </c>
       <c r="AL39" s="20" t="n">
-        <v>416</v>
+        <v>4020</v>
       </c>
       <c r="AM39" s="20" t="n">
-        <v>4020</v>
+        <v>3282</v>
       </c>
       <c r="AN39" s="20" t="n">
-        <v>3282</v>
+        <v>8139</v>
       </c>
       <c r="AO39" s="20" t="n">
-        <v>8139</v>
+        <v>18388</v>
       </c>
       <c r="AP39" s="20" t="n">
-        <v>18388</v>
+        <v>4363</v>
       </c>
       <c r="AQ39" s="20" t="n">
-        <v>4363</v>
+        <v>1451</v>
       </c>
       <c r="AR39" s="20" t="n">
-        <v>1451</v>
+        <v>21789</v>
       </c>
       <c r="AS39" s="20" t="n">
-        <v>21789</v>
+        <v>2192</v>
       </c>
       <c r="AT39" s="20" t="n">
-        <v>2192</v>
+        <v>7901</v>
       </c>
       <c r="AU39" s="20" t="n">
-        <v>7901</v>
+        <v>15803</v>
       </c>
       <c r="AV39" s="20" t="n">
-        <v>15803</v>
+        <v>3955</v>
       </c>
       <c r="AW39" s="20" t="n">
-        <v>3955</v>
+        <v>2936</v>
       </c>
       <c r="AX39" s="20" t="n">
-        <v>2936</v>
+        <v>6041</v>
       </c>
       <c r="AY39" s="20" t="n">
-        <v>6041</v>
+        <v>2974</v>
       </c>
       <c r="AZ39" s="20" t="n">
-        <v>2974</v>
+        <v>11863</v>
       </c>
       <c r="BA39" s="20" t="n">
-        <v>11863</v>
+        <v>23605</v>
       </c>
       <c r="BB39" s="20" t="n">
-        <v>23605</v>
+        <v>828</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7442,28 +7442,28 @@
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="16" t="n">
-        <v>0</v>
+        <v>202858</v>
       </c>
       <c r="F46" s="16" t="n">
-        <v>202858</v>
+        <v>2476</v>
       </c>
       <c r="G46" s="16" t="n">
-        <v>2476</v>
+        <v>0</v>
       </c>
       <c r="H46" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="16" t="n">
-        <v>0</v>
+        <v>43524</v>
       </c>
       <c r="J46" s="16" t="n">
-        <v>43524</v>
+        <v>41901</v>
       </c>
       <c r="K46" s="16" t="n">
-        <v>41901</v>
+        <v>76555</v>
       </c>
       <c r="L46" s="16" t="n">
-        <v>76555</v>
+        <v>0</v>
       </c>
       <c r="M46" s="16" t="n">
         <v>0</v>
@@ -7496,10 +7496,10 @@
         <v>0</v>
       </c>
       <c r="W46" s="16" t="n">
-        <v>0</v>
+        <v>26258</v>
       </c>
       <c r="X46" s="16" t="n">
-        <v>26258</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="16" t="n">
         <v>0</v>
@@ -7529,37 +7529,37 @@
         <v>0</v>
       </c>
       <c r="AH46" s="16" t="n">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="AI46" s="16" t="n">
-        <v>31200</v>
+        <v>277021</v>
       </c>
       <c r="AJ46" s="16" t="n">
-        <v>277021</v>
+        <v>79745</v>
       </c>
       <c r="AK46" s="16" t="n">
-        <v>79745</v>
+        <v>311968</v>
       </c>
       <c r="AL46" s="16" t="n">
-        <v>311968</v>
+        <v>189494</v>
       </c>
       <c r="AM46" s="16" t="n">
-        <v>189494</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="16" t="n">
-        <v>0</v>
+        <v>87809</v>
       </c>
       <c r="AO46" s="16" t="n">
-        <v>87809</v>
+        <v>172699</v>
       </c>
       <c r="AP46" s="16" t="n">
-        <v>172699</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="16" t="n">
-        <v>0</v>
+        <v>214709</v>
       </c>
       <c r="AR46" s="16" t="n">
-        <v>214709</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="16" t="n">
         <v>0</v>
@@ -7568,28 +7568,28 @@
         <v>0</v>
       </c>
       <c r="AU46" s="16" t="n">
-        <v>0</v>
+        <v>654439</v>
       </c>
       <c r="AV46" s="16" t="n">
-        <v>654439</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AX46" s="16" t="n">
-        <v>0</v>
+        <v>34351</v>
       </c>
       <c r="AY46" s="16" t="n">
-        <v>34351</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA46" s="16" t="n">
-        <v>0</v>
+        <v>641238</v>
       </c>
       <c r="BB46" s="16" t="n">
-        <v>641238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7631,31 +7631,31 @@
         <v>0</v>
       </c>
       <c r="O47" s="15" t="n">
-        <v>0</v>
+        <v>5524</v>
       </c>
       <c r="P47" s="15" t="n">
-        <v>5524</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="15" t="n">
-        <v>0</v>
+        <v>35221</v>
       </c>
       <c r="R47" s="15" t="n">
-        <v>35221</v>
+        <v>0</v>
       </c>
       <c r="S47" s="15" t="n">
         <v>0</v>
       </c>
       <c r="T47" s="15" t="n">
-        <v>0</v>
+        <v>31635</v>
       </c>
       <c r="U47" s="15" t="n">
-        <v>31635</v>
+        <v>0</v>
       </c>
       <c r="V47" s="15" t="n">
-        <v>0</v>
+        <v>11839</v>
       </c>
       <c r="W47" s="15" t="n">
-        <v>11839</v>
+        <v>0</v>
       </c>
       <c r="X47" s="15" t="n">
         <v>0</v>
@@ -7673,10 +7673,10 @@
         <v>0</v>
       </c>
       <c r="AC47" s="15" t="n">
-        <v>0</v>
+        <v>84839</v>
       </c>
       <c r="AD47" s="15" t="n">
-        <v>84839</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="15" t="n">
         <v>0</v>
@@ -7691,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="AI47" s="15" t="n">
-        <v>0</v>
+        <v>66370</v>
       </c>
       <c r="AJ47" s="15" t="n">
-        <v>66370</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="15" t="n">
         <v>0</v>
@@ -7703,13 +7703,13 @@
         <v>0</v>
       </c>
       <c r="AM47" s="15" t="n">
-        <v>0</v>
+        <v>53226</v>
       </c>
       <c r="AN47" s="15" t="n">
-        <v>53226</v>
+        <v>21065</v>
       </c>
       <c r="AO47" s="15" t="n">
-        <v>21065</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="15" t="n">
         <v>0</v>
@@ -7727,13 +7727,13 @@
         <v>0</v>
       </c>
       <c r="AU47" s="15" t="n">
-        <v>0</v>
+        <v>23381</v>
       </c>
       <c r="AV47" s="15" t="n">
-        <v>23381</v>
+        <v>4564</v>
       </c>
       <c r="AW47" s="15" t="n">
-        <v>4564</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="15" t="n">
         <v>0</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="15" t="n">
-        <v>0</v>
+        <v>12410</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7829,13 +7829,13 @@
         <v>0</v>
       </c>
       <c r="AB48" s="16" t="n">
-        <v>0</v>
+        <v>102005</v>
       </c>
       <c r="AC48" s="16" t="n">
-        <v>102005</v>
+        <v>612056</v>
       </c>
       <c r="AD48" s="16" t="n">
-        <v>612056</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="16" t="n">
         <v>0</v>
@@ -7850,10 +7850,10 @@
         <v>0</v>
       </c>
       <c r="AI48" s="16" t="n">
-        <v>0</v>
+        <v>20634</v>
       </c>
       <c r="AJ48" s="16" t="n">
-        <v>20634</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="16" t="n">
         <v>0</v>
@@ -7865,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="AN48" s="16" t="n">
-        <v>0</v>
+        <v>461637</v>
       </c>
       <c r="AO48" s="16" t="n">
-        <v>461637</v>
+        <v>0</v>
       </c>
       <c r="AP48" s="16" t="n">
         <v>0</v>
@@ -7886,28 +7886,28 @@
         <v>0</v>
       </c>
       <c r="AU48" s="16" t="n">
-        <v>0</v>
+        <v>857115</v>
       </c>
       <c r="AV48" s="16" t="n">
-        <v>857115</v>
+        <v>435521</v>
       </c>
       <c r="AW48" s="16" t="n">
-        <v>435521</v>
+        <v>214500</v>
       </c>
       <c r="AX48" s="16" t="n">
-        <v>214500</v>
+        <v>108141</v>
       </c>
       <c r="AY48" s="16" t="n">
-        <v>108141</v>
+        <v>389640</v>
       </c>
       <c r="AZ48" s="16" t="n">
-        <v>389640</v>
+        <v>68187</v>
       </c>
       <c r="BA48" s="16" t="n">
-        <v>68187</v>
+        <v>954372</v>
       </c>
       <c r="BB48" s="16" t="n">
-        <v>954372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7919,13 +7919,13 @@
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="15" t="n">
-        <v>0</v>
+        <v>14657</v>
       </c>
       <c r="F49" s="15" t="n">
-        <v>14657</v>
+        <v>3933</v>
       </c>
       <c r="G49" s="15" t="n">
-        <v>3933</v>
+        <v>0</v>
       </c>
       <c r="H49" s="15" t="n">
         <v>0</v>
@@ -7949,34 +7949,34 @@
         <v>0</v>
       </c>
       <c r="O49" s="15" t="n">
-        <v>0</v>
+        <v>54462</v>
       </c>
       <c r="P49" s="15" t="n">
-        <v>54462</v>
+        <v>78653</v>
       </c>
       <c r="Q49" s="15" t="n">
-        <v>78653</v>
+        <v>60155</v>
       </c>
       <c r="R49" s="15" t="n">
-        <v>60155</v>
+        <v>81605</v>
       </c>
       <c r="S49" s="15" t="n">
-        <v>81605</v>
+        <v>22997</v>
       </c>
       <c r="T49" s="15" t="n">
-        <v>22997</v>
+        <v>81422</v>
       </c>
       <c r="U49" s="15" t="n">
-        <v>81422</v>
+        <v>0</v>
       </c>
       <c r="V49" s="15" t="n">
-        <v>0</v>
+        <v>41552</v>
       </c>
       <c r="W49" s="15" t="n">
-        <v>41552</v>
+        <v>33777</v>
       </c>
       <c r="X49" s="15" t="n">
-        <v>33777</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="15" t="n">
         <v>0</v>
@@ -7988,22 +7988,22 @@
         <v>0</v>
       </c>
       <c r="AB49" s="15" t="n">
-        <v>0</v>
+        <v>67780</v>
       </c>
       <c r="AC49" s="15" t="n">
-        <v>67780</v>
+        <v>154460</v>
       </c>
       <c r="AD49" s="15" t="n">
-        <v>154460</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AF49" s="15" t="n">
-        <v>0</v>
+        <v>116399</v>
       </c>
       <c r="AG49" s="15" t="n">
-        <v>116399</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="15" t="n">
         <v>0</v>
@@ -8021,37 +8021,37 @@
         <v>0</v>
       </c>
       <c r="AM49" s="15" t="n">
-        <v>0</v>
+        <v>550890</v>
       </c>
       <c r="AN49" s="15" t="n">
-        <v>550890</v>
+        <v>0</v>
       </c>
       <c r="AO49" s="15" t="n">
-        <v>0</v>
+        <v>56932</v>
       </c>
       <c r="AP49" s="15" t="n">
-        <v>56932</v>
+        <v>47118</v>
       </c>
       <c r="AQ49" s="15" t="n">
-        <v>47118</v>
+        <v>0</v>
       </c>
       <c r="AR49" s="15" t="n">
-        <v>0</v>
+        <v>6993</v>
       </c>
       <c r="AS49" s="15" t="n">
-        <v>6993</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="15" t="n">
         <v>0</v>
       </c>
       <c r="AU49" s="15" t="n">
-        <v>0</v>
+        <v>38584</v>
       </c>
       <c r="AV49" s="15" t="n">
-        <v>38584</v>
+        <v>3870</v>
       </c>
       <c r="AW49" s="15" t="n">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="15" t="n">
         <v>0</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="BB49" s="15" t="n">
-        <v>0</v>
+        <v>206642</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8078,154 +8078,154 @@
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16" t="n">
-        <v>147325</v>
+        <v>21335</v>
       </c>
       <c r="F50" s="16" t="n">
-        <v>21335</v>
+        <v>0</v>
       </c>
       <c r="G50" s="16" t="n">
         <v>0</v>
       </c>
       <c r="H50" s="16" t="n">
-        <v>0</v>
+        <v>306114</v>
       </c>
       <c r="I50" s="16" t="n">
-        <v>306114</v>
+        <v>34668</v>
       </c>
       <c r="J50" s="16" t="n">
-        <v>34668</v>
+        <v>123433</v>
       </c>
       <c r="K50" s="16" t="n">
-        <v>123433</v>
+        <v>36401</v>
       </c>
       <c r="L50" s="16" t="n">
-        <v>36401</v>
+        <v>12121</v>
       </c>
       <c r="M50" s="16" t="n">
-        <v>12121</v>
+        <v>98377</v>
       </c>
       <c r="N50" s="16" t="n">
-        <v>98377</v>
+        <v>80008</v>
       </c>
       <c r="O50" s="16" t="n">
-        <v>80008</v>
+        <v>106762</v>
       </c>
       <c r="P50" s="16" t="n">
-        <v>106762</v>
+        <v>134939</v>
       </c>
       <c r="Q50" s="16" t="n">
-        <v>134939</v>
+        <v>94126</v>
       </c>
       <c r="R50" s="16" t="n">
-        <v>94126</v>
+        <v>0</v>
       </c>
       <c r="S50" s="16" t="n">
-        <v>0</v>
+        <v>94130</v>
       </c>
       <c r="T50" s="16" t="n">
-        <v>94130</v>
+        <v>60242</v>
       </c>
       <c r="U50" s="16" t="n">
-        <v>60242</v>
+        <v>171298</v>
       </c>
       <c r="V50" s="16" t="n">
-        <v>171298</v>
+        <v>105667</v>
       </c>
       <c r="W50" s="16" t="n">
-        <v>105667</v>
+        <v>8379</v>
       </c>
       <c r="X50" s="16" t="n">
-        <v>8379</v>
+        <v>55692</v>
       </c>
       <c r="Y50" s="16" t="n">
-        <v>55692</v>
+        <v>222743</v>
       </c>
       <c r="Z50" s="16" t="n">
-        <v>222743</v>
+        <v>276733</v>
       </c>
       <c r="AA50" s="16" t="n">
-        <v>276733</v>
+        <v>324876</v>
       </c>
       <c r="AB50" s="16" t="n">
-        <v>324876</v>
+        <v>739810</v>
       </c>
       <c r="AC50" s="16" t="n">
-        <v>739810</v>
+        <v>577703</v>
       </c>
       <c r="AD50" s="16" t="n">
-        <v>577703</v>
+        <v>301726</v>
       </c>
       <c r="AE50" s="16" t="n">
-        <v>301726</v>
+        <v>296304</v>
       </c>
       <c r="AF50" s="16" t="n">
-        <v>296304</v>
+        <v>293882</v>
       </c>
       <c r="AG50" s="16" t="n">
-        <v>293882</v>
+        <v>435851</v>
       </c>
       <c r="AH50" s="16" t="n">
-        <v>435851</v>
+        <v>273570</v>
       </c>
       <c r="AI50" s="16" t="n">
-        <v>273570</v>
+        <v>836997</v>
       </c>
       <c r="AJ50" s="16" t="n">
-        <v>836997</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AL50" s="16" t="n">
-        <v>0</v>
+        <v>330488</v>
       </c>
       <c r="AM50" s="16" t="n">
-        <v>330488</v>
+        <v>154245</v>
       </c>
       <c r="AN50" s="16" t="n">
-        <v>154245</v>
+        <v>293815</v>
       </c>
       <c r="AO50" s="16" t="n">
-        <v>293815</v>
+        <v>774252</v>
       </c>
       <c r="AP50" s="16" t="n">
-        <v>774252</v>
+        <v>645393</v>
       </c>
       <c r="AQ50" s="16" t="n">
-        <v>645393</v>
+        <v>97722</v>
       </c>
       <c r="AR50" s="16" t="n">
-        <v>97722</v>
+        <v>123901</v>
       </c>
       <c r="AS50" s="16" t="n">
-        <v>123901</v>
+        <v>122812</v>
       </c>
       <c r="AT50" s="16" t="n">
-        <v>122812</v>
+        <v>334051</v>
       </c>
       <c r="AU50" s="16" t="n">
-        <v>334051</v>
+        <v>538414</v>
       </c>
       <c r="AV50" s="16" t="n">
-        <v>538414</v>
+        <v>175961</v>
       </c>
       <c r="AW50" s="16" t="n">
-        <v>175961</v>
+        <v>106213</v>
       </c>
       <c r="AX50" s="16" t="n">
-        <v>106213</v>
+        <v>0</v>
       </c>
       <c r="AY50" s="16" t="n">
-        <v>0</v>
+        <v>81828</v>
       </c>
       <c r="AZ50" s="16" t="n">
-        <v>81828</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="16" t="n">
-        <v>0</v>
+        <v>927448</v>
       </c>
       <c r="BB50" s="16" t="n">
-        <v>927448</v>
+        <v>108819</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8237,16 +8237,16 @@
       </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15" t="n">
-        <v>0</v>
+        <v>52819</v>
       </c>
       <c r="F51" s="15" t="n">
-        <v>52819</v>
+        <v>1053</v>
       </c>
       <c r="G51" s="15" t="n">
-        <v>1053</v>
+        <v>763</v>
       </c>
       <c r="H51" s="15" t="n">
-        <v>763</v>
+        <v>0</v>
       </c>
       <c r="I51" s="15" t="n">
         <v>0</v>
@@ -8255,28 +8255,28 @@
         <v>0</v>
       </c>
       <c r="K51" s="15" t="n">
-        <v>0</v>
+        <v>30514</v>
       </c>
       <c r="L51" s="15" t="n">
-        <v>30514</v>
+        <v>18113</v>
       </c>
       <c r="M51" s="15" t="n">
-        <v>18113</v>
+        <v>0</v>
       </c>
       <c r="N51" s="15" t="n">
         <v>0</v>
       </c>
       <c r="O51" s="15" t="n">
-        <v>0</v>
+        <v>3435</v>
       </c>
       <c r="P51" s="15" t="n">
-        <v>3435</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="15" t="n">
-        <v>0</v>
+        <v>21639</v>
       </c>
       <c r="R51" s="15" t="n">
-        <v>21639</v>
+        <v>0</v>
       </c>
       <c r="S51" s="15" t="n">
         <v>0</v>
@@ -8284,8 +8284,8 @@
       <c r="T51" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="U51" s="15" t="n">
-        <v>0</v>
+      <c r="U51" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="V51" s="15" t="s">
         <v>62</v>
@@ -8500,20 +8500,20 @@
       <c r="T53" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U53" s="16" t="s">
-        <v>62</v>
+      <c r="U53" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V53" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W53" s="16" t="n">
-        <v>0</v>
+        <v>157463</v>
       </c>
       <c r="X53" s="16" t="n">
-        <v>157463</v>
+        <v>96685</v>
       </c>
       <c r="Y53" s="16" t="n">
-        <v>96685</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="16" t="n">
         <v>0</v>
@@ -8522,34 +8522,34 @@
         <v>0</v>
       </c>
       <c r="AB53" s="16" t="n">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="AC53" s="16" t="n">
-        <v>2101</v>
+        <v>1217</v>
       </c>
       <c r="AD53" s="16" t="n">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="16" t="n">
-        <v>0</v>
+        <v>87094</v>
       </c>
       <c r="AF53" s="16" t="n">
-        <v>87094</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AH53" s="16" t="n">
-        <v>0</v>
+        <v>222580</v>
       </c>
       <c r="AI53" s="16" t="n">
-        <v>222580</v>
+        <v>0</v>
       </c>
       <c r="AJ53" s="16" t="n">
-        <v>0</v>
+        <v>137445</v>
       </c>
       <c r="AK53" s="16" t="n">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="AL53" s="16" t="n">
         <v>0</v>
@@ -8561,46 +8561,46 @@
         <v>0</v>
       </c>
       <c r="AO53" s="16" t="n">
-        <v>0</v>
+        <v>143609</v>
       </c>
       <c r="AP53" s="16" t="n">
-        <v>143609</v>
+        <v>0</v>
       </c>
       <c r="AQ53" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR53" s="16" t="n">
-        <v>0</v>
+        <v>280368</v>
       </c>
       <c r="AS53" s="16" t="n">
-        <v>280368</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="16" t="n">
-        <v>0</v>
+        <v>70114</v>
       </c>
       <c r="AU53" s="16" t="n">
-        <v>70114</v>
+        <v>83929</v>
       </c>
       <c r="AV53" s="16" t="n">
-        <v>83929</v>
+        <v>0</v>
       </c>
       <c r="AW53" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AX53" s="16" t="n">
-        <v>0</v>
+        <v>76992</v>
       </c>
       <c r="AY53" s="16" t="n">
-        <v>76992</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="16" t="n">
-        <v>0</v>
+        <v>172695</v>
       </c>
       <c r="BA53" s="16" t="n">
-        <v>172695</v>
+        <v>224467</v>
       </c>
       <c r="BB53" s="16" t="n">
-        <v>224467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8659,20 +8659,20 @@
       <c r="T54" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="U54" s="18" t="s">
-        <v>62</v>
+      <c r="U54" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V54" s="21" t="n">
         <v>0</v>
       </c>
       <c r="W54" s="21" t="n">
-        <v>0</v>
+        <v>157463</v>
       </c>
       <c r="X54" s="21" t="n">
-        <v>157463</v>
+        <v>96685</v>
       </c>
       <c r="Y54" s="21" t="n">
-        <v>96685</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="21" t="n">
         <v>0</v>
@@ -8681,34 +8681,34 @@
         <v>0</v>
       </c>
       <c r="AB54" s="21" t="n">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="AC54" s="21" t="n">
-        <v>2101</v>
+        <v>1217</v>
       </c>
       <c r="AD54" s="21" t="n">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="21" t="n">
-        <v>0</v>
+        <v>87094</v>
       </c>
       <c r="AF54" s="21" t="n">
-        <v>87094</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AH54" s="21" t="n">
-        <v>0</v>
+        <v>222580</v>
       </c>
       <c r="AI54" s="21" t="n">
-        <v>222580</v>
+        <v>0</v>
       </c>
       <c r="AJ54" s="21" t="n">
-        <v>0</v>
+        <v>137445</v>
       </c>
       <c r="AK54" s="21" t="n">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="AL54" s="21" t="n">
         <v>0</v>
@@ -8720,46 +8720,46 @@
         <v>0</v>
       </c>
       <c r="AO54" s="21" t="n">
-        <v>0</v>
+        <v>143609</v>
       </c>
       <c r="AP54" s="21" t="n">
-        <v>143609</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AR54" s="21" t="n">
-        <v>0</v>
+        <v>280368</v>
       </c>
       <c r="AS54" s="21" t="n">
-        <v>280368</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="21" t="n">
-        <v>0</v>
+        <v>70114</v>
       </c>
       <c r="AU54" s="21" t="n">
-        <v>70114</v>
+        <v>83929</v>
       </c>
       <c r="AV54" s="21" t="n">
-        <v>83929</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AX54" s="21" t="n">
-        <v>0</v>
+        <v>76992</v>
       </c>
       <c r="AY54" s="21" t="n">
-        <v>76992</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="21" t="n">
-        <v>0</v>
+        <v>172695</v>
       </c>
       <c r="BA54" s="21" t="n">
-        <v>172695</v>
+        <v>224467</v>
       </c>
       <c r="BB54" s="21" t="n">
-        <v>224467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8875,8 +8875,8 @@
       <c r="T56" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>62</v>
+      <c r="U56" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V56" s="16" t="n">
         <v>0</v>
@@ -8902,11 +8902,11 @@
       <c r="AC56" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD56" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="16" t="s">
-        <v>62</v>
+      <c r="AD56" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE56" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AF56" s="16" t="n">
         <v>0</v>
@@ -8938,8 +8938,8 @@
       <c r="AO56" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP56" s="16" t="n">
-        <v>0</v>
+      <c r="AP56" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="AQ56" s="16" t="s">
         <v>62</v>
@@ -8962,11 +8962,11 @@
       <c r="AW56" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AX56" s="16" t="s">
-        <v>62</v>
+      <c r="AX56" s="16" t="n">
+        <v>-4850</v>
       </c>
       <c r="AY56" s="16" t="n">
-        <v>-4850</v>
+        <v>0</v>
       </c>
       <c r="AZ56" s="16" t="n">
         <v>0</v>
@@ -8974,8 +8974,8 @@
       <c r="BA56" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB56" s="16" t="n">
-        <v>0</v>
+      <c r="BB56" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9034,8 +9034,8 @@
       <c r="T57" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="U57" s="18" t="s">
-        <v>62</v>
+      <c r="U57" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V57" s="21" t="n">
         <v>0</v>
@@ -9122,10 +9122,10 @@
         <v>0</v>
       </c>
       <c r="AX57" s="21" t="n">
-        <v>0</v>
+        <v>-4850</v>
       </c>
       <c r="AY57" s="21" t="n">
-        <v>-4850</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="21" t="n">
         <v>0</v>
@@ -9250,8 +9250,8 @@
       <c r="T59" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U59" s="16" t="s">
-        <v>62</v>
+      <c r="U59" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V59" s="16" t="n">
         <v>0</v>
@@ -9360,154 +9360,154 @@
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21" t="n">
-        <v>147325</v>
+        <v>291669</v>
       </c>
       <c r="F60" s="21" t="n">
-        <v>291669</v>
+        <v>7462</v>
       </c>
       <c r="G60" s="21" t="n">
-        <v>7462</v>
+        <v>763</v>
       </c>
       <c r="H60" s="21" t="n">
-        <v>763</v>
+        <v>306114</v>
       </c>
       <c r="I60" s="21" t="n">
-        <v>306114</v>
+        <v>78192</v>
       </c>
       <c r="J60" s="21" t="n">
-        <v>78192</v>
+        <v>165334</v>
       </c>
       <c r="K60" s="21" t="n">
-        <v>165334</v>
+        <v>143470</v>
       </c>
       <c r="L60" s="21" t="n">
-        <v>143470</v>
+        <v>30234</v>
       </c>
       <c r="M60" s="21" t="n">
-        <v>30234</v>
+        <v>98377</v>
       </c>
       <c r="N60" s="21" t="n">
-        <v>98377</v>
+        <v>80008</v>
       </c>
       <c r="O60" s="21" t="n">
-        <v>80008</v>
+        <v>170183</v>
       </c>
       <c r="P60" s="21" t="n">
-        <v>170183</v>
+        <v>213592</v>
       </c>
       <c r="Q60" s="21" t="n">
-        <v>213592</v>
+        <v>211141</v>
       </c>
       <c r="R60" s="21" t="n">
-        <v>211141</v>
+        <v>81605</v>
       </c>
       <c r="S60" s="21" t="n">
-        <v>81605</v>
+        <v>117127</v>
       </c>
       <c r="T60" s="21" t="n">
-        <v>117127</v>
+        <v>173299</v>
       </c>
       <c r="U60" s="21" t="n">
-        <v>173299</v>
+        <v>171298</v>
       </c>
       <c r="V60" s="21" t="n">
-        <v>171298</v>
+        <v>159058</v>
       </c>
       <c r="W60" s="21" t="n">
-        <v>159058</v>
+        <v>225877</v>
       </c>
       <c r="X60" s="21" t="n">
-        <v>225877</v>
+        <v>152377</v>
       </c>
       <c r="Y60" s="21" t="n">
-        <v>152377</v>
+        <v>222743</v>
       </c>
       <c r="Z60" s="21" t="n">
-        <v>222743</v>
+        <v>276733</v>
       </c>
       <c r="AA60" s="21" t="n">
-        <v>276733</v>
+        <v>324876</v>
       </c>
       <c r="AB60" s="21" t="n">
-        <v>324876</v>
+        <v>911696</v>
       </c>
       <c r="AC60" s="21" t="n">
-        <v>911696</v>
+        <v>1430275</v>
       </c>
       <c r="AD60" s="21" t="n">
-        <v>1430275</v>
+        <v>301726</v>
       </c>
       <c r="AE60" s="21" t="n">
-        <v>301726</v>
+        <v>383398</v>
       </c>
       <c r="AF60" s="21" t="n">
-        <v>383398</v>
+        <v>410281</v>
       </c>
       <c r="AG60" s="21" t="n">
-        <v>410281</v>
+        <v>435851</v>
       </c>
       <c r="AH60" s="21" t="n">
-        <v>435851</v>
+        <v>527350</v>
       </c>
       <c r="AI60" s="21" t="n">
-        <v>527350</v>
+        <v>1201022</v>
       </c>
       <c r="AJ60" s="21" t="n">
-        <v>1201022</v>
+        <v>217190</v>
       </c>
       <c r="AK60" s="21" t="n">
-        <v>217190</v>
+        <v>311968</v>
       </c>
       <c r="AL60" s="21" t="n">
-        <v>311968</v>
+        <v>519982</v>
       </c>
       <c r="AM60" s="21" t="n">
-        <v>519982</v>
+        <v>758361</v>
       </c>
       <c r="AN60" s="21" t="n">
-        <v>758361</v>
+        <v>864326</v>
       </c>
       <c r="AO60" s="21" t="n">
-        <v>864326</v>
+        <v>1147492</v>
       </c>
       <c r="AP60" s="21" t="n">
-        <v>1147492</v>
+        <v>692511</v>
       </c>
       <c r="AQ60" s="21" t="n">
-        <v>692511</v>
+        <v>312431</v>
       </c>
       <c r="AR60" s="21" t="n">
-        <v>312431</v>
+        <v>411262</v>
       </c>
       <c r="AS60" s="21" t="n">
-        <v>411262</v>
+        <v>122812</v>
       </c>
       <c r="AT60" s="21" t="n">
-        <v>122812</v>
+        <v>404165</v>
       </c>
       <c r="AU60" s="21" t="n">
-        <v>404165</v>
+        <v>2195862</v>
       </c>
       <c r="AV60" s="21" t="n">
-        <v>2195862</v>
+        <v>619916</v>
       </c>
       <c r="AW60" s="21" t="n">
-        <v>619916</v>
+        <v>320713</v>
       </c>
       <c r="AX60" s="21" t="n">
-        <v>320713</v>
+        <v>214634</v>
       </c>
       <c r="AY60" s="21" t="n">
-        <v>214634</v>
+        <v>471468</v>
       </c>
       <c r="AZ60" s="21" t="n">
-        <v>471468</v>
+        <v>240882</v>
       </c>
       <c r="BA60" s="21" t="n">
-        <v>240882</v>
+        <v>2747525</v>
       </c>
       <c r="BB60" s="21" t="n">
-        <v>2747525</v>
+        <v>327871</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9953,28 +9953,28 @@
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16" t="n">
-        <v>0</v>
+        <v>250133169</v>
       </c>
       <c r="F67" s="16" t="n">
-        <v>250133169</v>
+        <v>309500000</v>
       </c>
       <c r="G67" s="16" t="n">
-        <v>309500000</v>
+        <v>0</v>
       </c>
       <c r="H67" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="16" t="n">
-        <v>0</v>
+        <v>290160000</v>
       </c>
       <c r="J67" s="16" t="n">
-        <v>290160000</v>
+        <v>279340000</v>
       </c>
       <c r="K67" s="16" t="n">
-        <v>279340000</v>
+        <v>258631757</v>
       </c>
       <c r="L67" s="16" t="n">
-        <v>258631757</v>
+        <v>0</v>
       </c>
       <c r="M67" s="16" t="n">
         <v>0</v>
@@ -9991,8 +9991,8 @@
       <c r="Q67" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R67" s="16" t="n">
-        <v>0</v>
+      <c r="R67" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="S67" s="16" t="s">
         <v>62</v>
@@ -10006,12 +10006,12 @@
       <c r="V67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="W67" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="X67" s="16" t="n">
+      <c r="W67" s="16" t="n">
         <v>525160000</v>
       </c>
+      <c r="X67" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="Y67" s="16" t="s">
         <v>62</v>
       </c>
@@ -10039,68 +10039,68 @@
       <c r="AG67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AH67" s="16" t="s">
-        <v>62</v>
+      <c r="AH67" s="16" t="n">
+        <v>636734694</v>
       </c>
       <c r="AI67" s="16" t="n">
-        <v>636734694</v>
+        <v>645736597</v>
       </c>
       <c r="AJ67" s="16" t="n">
-        <v>645736597</v>
+        <v>653647541</v>
       </c>
       <c r="AK67" s="16" t="n">
-        <v>653647541</v>
+        <v>749923077</v>
       </c>
       <c r="AL67" s="16" t="n">
-        <v>749923077</v>
-      </c>
-      <c r="AM67" s="16" t="n">
         <v>699239852</v>
       </c>
-      <c r="AN67" s="16" t="s">
-        <v>62</v>
+      <c r="AM67" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN67" s="16" t="n">
+        <v>878090000</v>
       </c>
       <c r="AO67" s="16" t="n">
-        <v>878090000</v>
-      </c>
-      <c r="AP67" s="16" t="n">
         <v>885635897</v>
       </c>
-      <c r="AQ67" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR67" s="16" t="n">
+      <c r="AP67" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ67" s="16" t="n">
         <v>872800813</v>
       </c>
+      <c r="AR67" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AS67" s="16" t="s">
         <v>62</v>
       </c>
       <c r="AT67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AU67" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV67" s="16" t="n">
+      <c r="AU67" s="16" t="n">
         <v>844437419</v>
       </c>
+      <c r="AV67" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AW67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AX67" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AY67" s="16" t="n">
+      <c r="AX67" s="16" t="n">
         <v>1073468750</v>
       </c>
+      <c r="AY67" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AZ67" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BA67" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB67" s="16" t="n">
+      <c r="BA67" s="16" t="n">
         <v>1085005076</v>
+      </c>
+      <c r="BB67" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10142,32 +10142,32 @@
         <v>0</v>
       </c>
       <c r="O68" s="15" t="n">
-        <v>0</v>
+        <v>106230769</v>
       </c>
       <c r="P68" s="15" t="n">
-        <v>106230769</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" s="15" t="n">
         <v>115858553</v>
       </c>
+      <c r="R68" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="S68" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="T68" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="U68" s="15" t="n">
+      <c r="T68" s="15" t="n">
         <v>156608911</v>
       </c>
-      <c r="V68" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="W68" s="15" t="n">
+      <c r="U68" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="V68" s="15" t="n">
         <v>408241379</v>
       </c>
+      <c r="W68" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="X68" s="15" t="s">
         <v>62</v>
       </c>
@@ -10183,12 +10183,12 @@
       <c r="AB68" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AC68" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD68" s="15" t="n">
+      <c r="AC68" s="15" t="n">
         <v>526950311</v>
       </c>
+      <c r="AD68" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="AE68" s="15" t="s">
         <v>62</v>
       </c>
@@ -10201,27 +10201,27 @@
       <c r="AH68" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AI68" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ68" s="15" t="n">
+      <c r="AI68" s="15" t="n">
         <v>698631579</v>
       </c>
+      <c r="AJ68" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="AK68" s="15" t="s">
         <v>62</v>
       </c>
       <c r="AL68" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AM68" s="15" t="s">
-        <v>62</v>
+      <c r="AM68" s="15" t="n">
+        <v>649097561</v>
       </c>
       <c r="AN68" s="15" t="n">
-        <v>649097561</v>
-      </c>
-      <c r="AO68" s="15" t="n">
         <v>540128205</v>
       </c>
+      <c r="AO68" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="AP68" s="15" t="s">
         <v>62</v>
       </c>
@@ -10237,15 +10237,15 @@
       <c r="AT68" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AU68" s="15" t="s">
-        <v>62</v>
+      <c r="AU68" s="15" t="n">
+        <v>334014286</v>
       </c>
       <c r="AV68" s="15" t="n">
-        <v>334014286</v>
-      </c>
-      <c r="AW68" s="15" t="n">
         <v>351076923</v>
       </c>
+      <c r="AW68" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="AX68" s="15" t="s">
         <v>62</v>
       </c>
@@ -10258,8 +10258,8 @@
       <c r="BA68" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BB68" s="15" t="s">
-        <v>62</v>
+      <c r="BB68" s="15" t="n">
+        <v>620500000</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10309,8 +10309,8 @@
       <c r="Q69" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="R69" s="16" t="n">
-        <v>0</v>
+      <c r="R69" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="S69" s="16" t="s">
         <v>62</v>
@@ -10339,15 +10339,15 @@
       <c r="AA69" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AB69" s="16" t="s">
-        <v>62</v>
+      <c r="AB69" s="16" t="n">
+        <v>170008333</v>
       </c>
       <c r="AC69" s="16" t="n">
-        <v>170008333</v>
-      </c>
-      <c r="AD69" s="16" t="n">
         <v>111893236</v>
       </c>
+      <c r="AD69" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AE69" s="16" t="s">
         <v>62</v>
       </c>
@@ -10360,12 +10360,12 @@
       <c r="AH69" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AI69" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ69" s="16" t="n">
+      <c r="AI69" s="16" t="n">
         <v>112141304</v>
       </c>
+      <c r="AJ69" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AK69" s="16" t="s">
         <v>62</v>
       </c>
@@ -10375,12 +10375,12 @@
       <c r="AM69" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AN69" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO69" s="16" t="n">
+      <c r="AN69" s="16" t="n">
         <v>84394333</v>
       </c>
+      <c r="AO69" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AP69" s="16" t="s">
         <v>62</v>
       </c>
@@ -10396,29 +10396,29 @@
       <c r="AT69" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AU69" s="16" t="s">
-        <v>62</v>
+      <c r="AU69" s="16" t="n">
+        <v>199329070</v>
       </c>
       <c r="AV69" s="16" t="n">
-        <v>199329070</v>
+        <v>174208400</v>
       </c>
       <c r="AW69" s="16" t="n">
-        <v>174208400</v>
+        <v>165000000</v>
       </c>
       <c r="AX69" s="16" t="n">
-        <v>165000000</v>
+        <v>207166667</v>
       </c>
       <c r="AY69" s="16" t="n">
-        <v>207166667</v>
+        <v>194820000</v>
       </c>
       <c r="AZ69" s="16" t="n">
         <v>194820000</v>
       </c>
       <c r="BA69" s="16" t="n">
-        <v>194820000</v>
-      </c>
-      <c r="BB69" s="16" t="n">
         <v>261471781</v>
+      </c>
+      <c r="BB69" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10430,13 +10430,13 @@
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="n">
-        <v>0</v>
+        <v>91037267</v>
       </c>
       <c r="F70" s="15" t="n">
-        <v>91037267</v>
+        <v>98325000</v>
       </c>
       <c r="G70" s="15" t="n">
-        <v>98325000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="15" t="n">
         <v>0</v>
@@ -10460,35 +10460,35 @@
         <v>0</v>
       </c>
       <c r="O70" s="15" t="n">
-        <v>0</v>
+        <v>116871245</v>
       </c>
       <c r="P70" s="15" t="n">
-        <v>116871245</v>
+        <v>120818740</v>
       </c>
       <c r="Q70" s="15" t="n">
-        <v>120818740</v>
+        <v>201862416</v>
       </c>
       <c r="R70" s="15" t="n">
-        <v>201862416</v>
+        <v>145463458</v>
       </c>
       <c r="S70" s="15" t="n">
-        <v>145463458</v>
+        <v>145550633</v>
       </c>
       <c r="T70" s="15" t="n">
-        <v>145550633</v>
-      </c>
-      <c r="U70" s="15" t="n">
         <v>138472789</v>
       </c>
-      <c r="V70" s="15" t="s">
-        <v>62</v>
+      <c r="U70" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="V70" s="15" t="n">
+        <v>163590551</v>
       </c>
       <c r="W70" s="15" t="n">
-        <v>163590551</v>
-      </c>
-      <c r="X70" s="15" t="n">
         <v>201053571</v>
       </c>
+      <c r="X70" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="Y70" s="15" t="s">
         <v>62</v>
       </c>
@@ -10498,24 +10498,24 @@
       <c r="AA70" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AB70" s="15" t="s">
-        <v>62</v>
+      <c r="AB70" s="15" t="n">
+        <v>275528455</v>
       </c>
       <c r="AC70" s="15" t="n">
-        <v>275528455</v>
-      </c>
-      <c r="AD70" s="15" t="n">
         <v>312672065</v>
       </c>
+      <c r="AD70" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="AE70" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AF70" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG70" s="15" t="n">
+      <c r="AF70" s="15" t="n">
         <v>286697044</v>
       </c>
+      <c r="AG70" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="AH70" s="15" t="s">
         <v>62</v>
       </c>
@@ -10531,39 +10531,39 @@
       <c r="AL70" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AM70" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN70" s="15" t="n">
+      <c r="AM70" s="15" t="n">
         <v>360058824</v>
       </c>
-      <c r="AO70" s="15" t="s">
-        <v>62</v>
+      <c r="AN70" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO70" s="15" t="n">
+        <v>299642105</v>
       </c>
       <c r="AP70" s="15" t="n">
-        <v>299642105</v>
-      </c>
-      <c r="AQ70" s="15" t="n">
         <v>294487500</v>
       </c>
-      <c r="AR70" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS70" s="15" t="n">
+      <c r="AQ70" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR70" s="15" t="n">
         <v>249750000</v>
       </c>
+      <c r="AS70" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="AT70" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AU70" s="15" t="s">
-        <v>62</v>
+      <c r="AU70" s="15" t="n">
+        <v>226964706</v>
       </c>
       <c r="AV70" s="15" t="n">
-        <v>226964706</v>
-      </c>
-      <c r="AW70" s="15" t="n">
         <v>227647059</v>
       </c>
+      <c r="AW70" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="AX70" s="15" t="s">
         <v>62</v>
       </c>
@@ -10576,8 +10576,8 @@
       <c r="BA70" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BB70" s="15" t="s">
-        <v>62</v>
+      <c r="BB70" s="15" t="n">
+        <v>459204444</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10589,154 +10589,154 @@
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="n">
-        <v>30041803</v>
+        <v>6157287</v>
       </c>
       <c r="F71" s="16" t="n">
-        <v>6157287</v>
+        <v>0</v>
       </c>
       <c r="G71" s="16" t="n">
         <v>0</v>
       </c>
       <c r="H71" s="16" t="n">
-        <v>0</v>
+        <v>51155414</v>
       </c>
       <c r="I71" s="16" t="n">
-        <v>51155414</v>
+        <v>30490765</v>
       </c>
       <c r="J71" s="16" t="n">
-        <v>30490765</v>
+        <v>37000300</v>
       </c>
       <c r="K71" s="16" t="n">
-        <v>37000300</v>
+        <v>19815460</v>
       </c>
       <c r="L71" s="16" t="n">
-        <v>19815460</v>
+        <v>17047820</v>
       </c>
       <c r="M71" s="16" t="n">
-        <v>17047820</v>
+        <v>32553607</v>
       </c>
       <c r="N71" s="16" t="n">
-        <v>32553607</v>
+        <v>34740773</v>
       </c>
       <c r="O71" s="16" t="n">
-        <v>34740773</v>
+        <v>32079928</v>
       </c>
       <c r="P71" s="16" t="n">
-        <v>32079928</v>
+        <v>25634309</v>
       </c>
       <c r="Q71" s="16" t="n">
-        <v>25634309</v>
-      </c>
-      <c r="R71" s="16" t="n">
         <v>36639159</v>
       </c>
-      <c r="S71" s="16" t="s">
-        <v>62</v>
+      <c r="R71" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="S71" s="16" t="n">
+        <v>30015944</v>
       </c>
       <c r="T71" s="16" t="n">
-        <v>30015944</v>
+        <v>20744490</v>
       </c>
       <c r="U71" s="16" t="n">
-        <v>20744490</v>
+        <v>37931355</v>
       </c>
       <c r="V71" s="16" t="n">
-        <v>37931355</v>
+        <v>28768582</v>
       </c>
       <c r="W71" s="16" t="n">
-        <v>28768582</v>
+        <v>41480198</v>
       </c>
       <c r="X71" s="16" t="n">
-        <v>41480198</v>
+        <v>42415842</v>
       </c>
       <c r="Y71" s="16" t="n">
-        <v>42415842</v>
+        <v>110487599</v>
       </c>
       <c r="Z71" s="16" t="n">
-        <v>110487599</v>
+        <v>100593602</v>
       </c>
       <c r="AA71" s="16" t="n">
-        <v>100593602</v>
+        <v>54191159</v>
       </c>
       <c r="AB71" s="16" t="n">
-        <v>54191159</v>
+        <v>68851559</v>
       </c>
       <c r="AC71" s="16" t="n">
-        <v>68851559</v>
+        <v>78004726</v>
       </c>
       <c r="AD71" s="16" t="n">
-        <v>78004726</v>
+        <v>87330246</v>
       </c>
       <c r="AE71" s="16" t="n">
-        <v>87330246</v>
+        <v>91649861</v>
       </c>
       <c r="AF71" s="16" t="n">
-        <v>91649861</v>
+        <v>101900832</v>
       </c>
       <c r="AG71" s="16" t="n">
-        <v>101900832</v>
+        <v>104021718</v>
       </c>
       <c r="AH71" s="16" t="n">
-        <v>104021718</v>
+        <v>86655052</v>
       </c>
       <c r="AI71" s="16" t="n">
-        <v>86655052</v>
-      </c>
-      <c r="AJ71" s="16" t="n">
         <v>96953203</v>
       </c>
+      <c r="AJ71" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="AK71" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AL71" s="16" t="s">
-        <v>62</v>
+      <c r="AL71" s="16" t="n">
+        <v>88153641</v>
       </c>
       <c r="AM71" s="16" t="n">
-        <v>88153641</v>
+        <v>92362275</v>
       </c>
       <c r="AN71" s="16" t="n">
-        <v>92362275</v>
+        <v>116132411</v>
       </c>
       <c r="AO71" s="16" t="n">
-        <v>116132411</v>
+        <v>156477769</v>
       </c>
       <c r="AP71" s="16" t="n">
-        <v>156477769</v>
+        <v>153555318</v>
       </c>
       <c r="AQ71" s="16" t="n">
-        <v>153555318</v>
+        <v>81097095</v>
       </c>
       <c r="AR71" s="16" t="n">
-        <v>81097095</v>
+        <v>71412680</v>
       </c>
       <c r="AS71" s="16" t="n">
-        <v>71412680</v>
+        <v>56027372</v>
       </c>
       <c r="AT71" s="16" t="n">
-        <v>56027372</v>
+        <v>115468718</v>
       </c>
       <c r="AU71" s="16" t="n">
-        <v>115468718</v>
+        <v>119833964</v>
       </c>
       <c r="AV71" s="16" t="n">
-        <v>119833964</v>
+        <v>123481404</v>
       </c>
       <c r="AW71" s="16" t="n">
-        <v>123481404</v>
-      </c>
-      <c r="AX71" s="16" t="n">
         <v>64922372</v>
       </c>
-      <c r="AY71" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ71" s="16" t="n">
+      <c r="AX71" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY71" s="16" t="n">
         <v>84012320</v>
       </c>
-      <c r="BA71" s="16" t="s">
-        <v>62</v>
+      <c r="AZ71" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA71" s="16" t="n">
+        <v>210783636</v>
       </c>
       <c r="BB71" s="16" t="n">
-        <v>210783636</v>
+        <v>303963687</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10748,16 +10748,16 @@
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="n">
-        <v>0</v>
+        <v>1862053</v>
       </c>
       <c r="F72" s="15" t="n">
-        <v>1862053</v>
+        <v>1400266</v>
       </c>
       <c r="G72" s="15" t="n">
-        <v>1400266</v>
+        <v>1400000</v>
       </c>
       <c r="H72" s="15" t="n">
-        <v>1400000</v>
+        <v>0</v>
       </c>
       <c r="I72" s="15" t="n">
         <v>0</v>
@@ -10766,28 +10766,28 @@
         <v>0</v>
       </c>
       <c r="K72" s="15" t="n">
-        <v>0</v>
+        <v>2299992</v>
       </c>
       <c r="L72" s="15" t="n">
-        <v>2299992</v>
+        <v>2300063</v>
       </c>
       <c r="M72" s="15" t="n">
-        <v>2300063</v>
+        <v>0</v>
       </c>
       <c r="N72" s="15" t="n">
         <v>0</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>0</v>
+        <v>2600303</v>
       </c>
       <c r="P72" s="15" t="n">
-        <v>2600303</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" s="15" t="n">
         <v>2241919</v>
+      </c>
+      <c r="R72" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="S72" s="15" t="s">
         <v>62</v>
@@ -11011,20 +11011,20 @@
       <c r="T74" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U74" s="16" t="s">
-        <v>62</v>
+      <c r="U74" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V74" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W74" s="16" t="n">
-        <v>0</v>
+        <v>4546617</v>
       </c>
       <c r="X74" s="16" t="n">
-        <v>4546617</v>
+        <v>7932803</v>
       </c>
       <c r="Y74" s="16" t="n">
-        <v>7932803</v>
+        <v>0</v>
       </c>
       <c r="Z74" s="16" t="n">
         <v>0</v>
@@ -11033,34 +11033,34 @@
         <v>0</v>
       </c>
       <c r="AB74" s="16" t="n">
-        <v>0</v>
+        <v>4296524</v>
       </c>
       <c r="AC74" s="16" t="n">
-        <v>4296524</v>
+        <v>4300353</v>
       </c>
       <c r="AD74" s="16" t="n">
-        <v>4300353</v>
+        <v>0</v>
       </c>
       <c r="AE74" s="16" t="n">
-        <v>0</v>
+        <v>8400270</v>
       </c>
       <c r="AF74" s="16" t="n">
-        <v>8400270</v>
+        <v>0</v>
       </c>
       <c r="AG74" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AH74" s="16" t="n">
-        <v>0</v>
+        <v>9174773</v>
       </c>
       <c r="AI74" s="16" t="n">
-        <v>9174773</v>
+        <v>0</v>
       </c>
       <c r="AJ74" s="16" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="AK74" s="16" t="n">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="AL74" s="16" t="n">
         <v>0</v>
@@ -11072,46 +11072,46 @@
         <v>0</v>
       </c>
       <c r="AO74" s="16" t="n">
-        <v>0</v>
+        <v>11000306</v>
       </c>
       <c r="AP74" s="16" t="n">
-        <v>11000306</v>
+        <v>0</v>
       </c>
       <c r="AQ74" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR74" s="16" t="n">
-        <v>0</v>
+        <v>14000200</v>
       </c>
       <c r="AS74" s="16" t="n">
-        <v>14000200</v>
+        <v>0</v>
       </c>
       <c r="AT74" s="16" t="n">
-        <v>0</v>
+        <v>14000399</v>
       </c>
       <c r="AU74" s="16" t="n">
-        <v>14000399</v>
+        <v>13999833</v>
       </c>
       <c r="AV74" s="16" t="n">
-        <v>13999833</v>
+        <v>0</v>
       </c>
       <c r="AW74" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AX74" s="16" t="n">
-        <v>0</v>
+        <v>14001091</v>
       </c>
       <c r="AY74" s="16" t="n">
-        <v>14001091</v>
+        <v>0</v>
       </c>
       <c r="AZ74" s="16" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="BA74" s="16" t="n">
-        <v>15000000</v>
+        <v>15000468</v>
       </c>
       <c r="BB74" s="16" t="n">
-        <v>15000468</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
